--- a/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0003377259613186306</v>
+        <v>0.000331612557837233</v>
       </c>
       <c r="F2">
         <v>0.5074244289854656</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0331416697153039</v>
+        <v>0.0007471044468722725</v>
       </c>
       <c r="F3">
         <v>0.5447796907594971</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01197506567884367</v>
+        <v>0.001033359022648661</v>
       </c>
       <c r="F4">
         <v>0.5438315945275518</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.0009423271195222917</v>
+        <v>0.0008824809586660525</v>
       </c>
       <c r="F5">
         <v>0.5219933639019751</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>127</v>
       </c>
       <c r="E2">
-        <v>0.0003377259613186306</v>
+        <v>0.000331612557837233</v>
       </c>
       <c r="F2">
         <v>0.7000775711265949</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.0331416697153039</v>
+        <v>0.0007471044468722725</v>
       </c>
       <c r="F3">
         <v>0.7069390560038707</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.01197506567884367</v>
+        <v>0.001033359022648661</v>
       </c>
       <c r="F4">
         <v>0.7085086046820573</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.0009423271195222917</v>
+        <v>0.0008824809586660525</v>
       </c>
       <c r="F5">
         <v>0.7009210742268543</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.0003377259613186306</v>
+        <v>0.000331612557837233</v>
       </c>
       <c r="F2">
         <v>0.8051462609895597</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.0331416697153039</v>
+        <v>0.0007471044468722725</v>
       </c>
       <c r="F3">
         <v>0.8010228768125837</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.01197506567884367</v>
+        <v>0.001033359022648661</v>
       </c>
       <c r="F4">
         <v>0.8014620069006088</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.0009423271195222917</v>
+        <v>0.0008824809586660525</v>
       </c>
       <c r="F5">
         <v>0.8064947737043329</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.0003377259613186306</v>
+        <v>0.000331612557837233</v>
       </c>
       <c r="F2">
         <v>0.9036913587037944</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>169</v>
       </c>
       <c r="E3">
-        <v>0.0331416697153039</v>
+        <v>0.0007471044468722725</v>
       </c>
       <c r="F3">
         <v>0.9051189524828658</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.01197506567884367</v>
+        <v>0.001033359022648661</v>
       </c>
       <c r="F4">
         <v>0.904503234093691</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.0009423271195222917</v>
+        <v>0.0008824809586660525</v>
       </c>
       <c r="F5">
         <v>0.9053194313546755</v>
       </c>
       <c r="G5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5">
         <v>42</v>

--- a/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.529573245305681E-06</v>
+        <v>1.425732194921492E-06</v>
       </c>
       <c r="C2">
-        <v>8.120241709637251E-07</v>
+        <v>7.081684666950265E-07</v>
       </c>
       <c r="D2">
-        <v>3.478317875622675E-06</v>
+        <v>3.374516622765614E-06</v>
       </c>
       <c r="E2">
-        <v>8.644453690892535E-06</v>
+        <v>8.540757941561721E-06</v>
       </c>
       <c r="F2">
-        <v>2.215864820765339E-05</v>
+        <v>2.205522844703578E-05</v>
       </c>
       <c r="G2">
-        <v>2.011395628076727E-05</v>
+        <v>2.001049476317383E-05</v>
       </c>
       <c r="H2">
-        <v>7.588810728640104E-06</v>
+        <v>7.48509342082555E-06</v>
       </c>
       <c r="I2">
-        <v>3.341407680518295E-06</v>
+        <v>3.237603631662663E-06</v>
       </c>
       <c r="J2">
-        <v>3.50678587460472E-07</v>
+        <v>2.468134615296997E-07</v>
       </c>
       <c r="K2">
-        <v>1.439246548535573E-06</v>
+        <v>1.335403653487333E-06</v>
       </c>
       <c r="L2">
-        <v>2.275960418616447E-06</v>
+        <v>2.172134611052336E-06</v>
       </c>
       <c r="M2">
-        <v>1.487330646816187E-05</v>
+        <v>1.476973792530723E-05</v>
       </c>
       <c r="N2">
-        <v>2.432179213030391E-05</v>
+        <v>2.421841654570486E-05</v>
       </c>
       <c r="O2">
-        <v>2.74644690179284E-05</v>
+        <v>2.736115761350296E-05</v>
       </c>
       <c r="P2">
-        <v>1.073073761629141E-05</v>
+        <v>1.062708447333386E-05</v>
       </c>
       <c r="Q2">
-        <v>4.975579322083758E-07</v>
+        <v>3.936958058675017E-07</v>
       </c>
       <c r="R2">
-        <v>8.134807709116401E-08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.970074143491136E-09</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.351668951667164E-06</v>
+        <v>1.247824268097363E-06</v>
       </c>
       <c r="U2">
-        <v>1.038701662858215E-07</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.46583713303738E-07</v>
+        <v>6.427266726011382E-07</v>
       </c>
       <c r="W2">
-        <v>1.104388660509386E-05</v>
+        <v>1.094023985730743E-05</v>
       </c>
       <c r="X2">
-        <v>1.34633960185773E-05</v>
+        <v>1.335979868234025E-05</v>
       </c>
       <c r="Y2">
-        <v>1.981872129132425E-06</v>
+        <v>1.878040315657382E-06</v>
       </c>
       <c r="Z2">
-        <v>1.031704013108436E-05</v>
+        <v>1.021337853954067E-05</v>
       </c>
       <c r="AA2">
-        <v>4.371962143667837E-08</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.127364159687831E-06</v>
+        <v>1.023514895335148E-06</v>
       </c>
       <c r="AC2">
-        <v>2.196134221470863E-06</v>
+        <v>2.092306783685328E-06</v>
       </c>
       <c r="AD2">
-        <v>6.485558768090072E-06</v>
+        <v>6.381818929514357E-06</v>
       </c>
       <c r="AE2">
-        <v>7.262854740295604E-06</v>
+        <v>7.159130775763649E-06</v>
       </c>
       <c r="AF2">
-        <v>7.736588223355892E-06</v>
+        <v>7.632873933473375E-06</v>
       </c>
       <c r="AG2">
-        <v>2.543116609063504E-05</v>
+        <v>2.532781316182146E-05</v>
       </c>
       <c r="AH2">
-        <v>8.134807709116401E-08</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.455038140697214E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.802135685254157E-07</v>
+        <v>7.76359256829842E-07</v>
       </c>
       <c r="AK2">
-        <v>7.934238716288326E-07</v>
+        <v>6.895677875022984E-07</v>
       </c>
       <c r="AL2">
-        <v>2.869616697388548E-06</v>
+        <v>2.765803013553473E-06</v>
       </c>
       <c r="AM2">
-        <v>5.123098816808771E-07</v>
+        <v>4.084480566063157E-07</v>
       </c>
       <c r="AN2">
-        <v>9.970074143491136E-09</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>6.239490776888944E-07</v>
+        <v>5.200895325251344E-07</v>
       </c>
       <c r="AP2">
-        <v>5.123098816808771E-07</v>
+        <v>4.084480566063157E-07</v>
       </c>
       <c r="AQ2">
-        <v>2.538143909241317E-06</v>
+        <v>2.434323456024009E-06</v>
       </c>
       <c r="AR2">
-        <v>1.129166559623381E-05</v>
+        <v>1.118802390862354E-05</v>
       </c>
       <c r="AS2">
-        <v>1.464260947641111E-06</v>
+        <v>1.360418563440322E-06</v>
       </c>
       <c r="AT2">
-        <v>1.439246548535573E-06</v>
+        <v>1.335403653487333E-06</v>
       </c>
       <c r="AU2">
-        <v>2.196134221470863E-06</v>
+        <v>2.092306783685328E-06</v>
       </c>
       <c r="AV2">
-        <v>7.287530139413264E-07</v>
+        <v>6.248956090977659E-07</v>
       </c>
       <c r="AW2">
-        <v>9.02348167733929E-06</v>
+        <v>8.919793668569419E-06</v>
       </c>
       <c r="AX2">
-        <v>2.389194114567448E-06</v>
+        <v>2.285370619477233E-06</v>
       </c>
       <c r="AY2">
-        <v>7.46583713303738E-07</v>
+        <v>6.427266726011382E-07</v>
       </c>
       <c r="AZ2">
-        <v>2.745387901830708E-06</v>
+        <v>2.641571680978323E-06</v>
       </c>
       <c r="BA2">
-        <v>2.707727203177375E-05</v>
+        <v>2.697395271995895E-05</v>
       </c>
       <c r="BB2">
-        <v>9.781182650245499E-06</v>
+        <v>9.677510115347655E-06</v>
       </c>
       <c r="BC2">
-        <v>9.02348167733929E-06</v>
+        <v>8.919793668569419E-06</v>
       </c>
       <c r="BD2">
-        <v>4.681108832613403E-06</v>
+        <v>4.577332143316388E-06</v>
       </c>
       <c r="BE2">
-        <v>2.577131607847199E-07</v>
+        <v>1.538461363013961E-07</v>
       </c>
       <c r="BF2">
-        <v>7.934238716288326E-07</v>
+        <v>6.895677875022984E-07</v>
       </c>
       <c r="BG2">
-        <v>1.038701662858215E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>6.113403481397561E-06</v>
+        <v>6.00965604261611E-06</v>
       </c>
       <c r="BI2">
-        <v>0.001781931636281876</v>
+        <v>0.00178186415484388</v>
       </c>
       <c r="BJ2">
-        <v>0.05380799007593955</v>
+        <v>0.05380898507772275</v>
       </c>
       <c r="BK2">
-        <v>0.0848106469673498</v>
+        <v>0.0848122751095966</v>
       </c>
       <c r="BL2">
-        <v>0.00600182478538738</v>
+        <v>0.006001843483179575</v>
       </c>
       <c r="BM2">
-        <v>0.002705515703256454</v>
+        <v>0.00270546708337753</v>
       </c>
       <c r="BN2">
-        <v>0.01235072955836391</v>
+        <v>0.01235087791435041</v>
       </c>
       <c r="BO2">
-        <v>0.006325530173812357</v>
+        <v>0.006325555482359895</v>
       </c>
       <c r="BP2">
-        <v>0.00763316522705408</v>
+        <v>0.007633217240302016</v>
       </c>
       <c r="BQ2">
-        <v>0.001189516357465399</v>
+        <v>0.001189436777642236</v>
       </c>
       <c r="BR2">
-        <v>0.02303230917641311</v>
+        <v>0.0230326756730672</v>
       </c>
       <c r="BS2">
-        <v>0.01924507231183673</v>
+        <v>0.01924536146502595</v>
       </c>
       <c r="BT2">
-        <v>0.002823556199035575</v>
+        <v>0.002823509989795664</v>
       </c>
       <c r="BU2">
-        <v>0.0003300331481987094</v>
+        <v>0.0003299360158928844</v>
       </c>
       <c r="BV2">
-        <v>0.003713297867220285</v>
+        <v>0.003713269828405389</v>
       </c>
       <c r="BW2">
-        <v>6.076577782714371E-07</v>
+        <v>5.037979004045509E-07</v>
       </c>
       <c r="BX2">
-        <v>0.01249673455314308</v>
+        <v>0.01249688589086339</v>
       </c>
       <c r="BY2">
-        <v>0.02251818719479703</v>
+        <v>0.02251854319198229</v>
       </c>
       <c r="BZ2">
-        <v>8.822553684524053E-05</v>
+        <v>8.812346631158263E-05</v>
       </c>
       <c r="CA2">
-        <v>0.01232602155924742</v>
+        <v>0.01232616941064381</v>
       </c>
       <c r="CB2">
-        <v>5.566452500955377E-06</v>
+        <v>5.462693892266826E-06</v>
       </c>
       <c r="CC2">
-        <v>0.006282358775356075</v>
+        <v>0.006282383202251459</v>
       </c>
       <c r="CD2">
-        <v>0.0004608029835226554</v>
+        <v>0.0004607085218161423</v>
       </c>
       <c r="CE2">
-        <v>0.0004067790154544387</v>
+        <v>0.000406683450463123</v>
       </c>
       <c r="CF2">
-        <v>0.001269372454609913</v>
+        <v>0.001269294505618796</v>
       </c>
       <c r="CG2">
-        <v>0.0001616735442188944</v>
+        <v>0.0001615729736504041</v>
       </c>
       <c r="CH2">
-        <v>0.008596789692596899</v>
+        <v>0.008596861385114356</v>
       </c>
       <c r="CI2">
-        <v>0.03097510389239549</v>
+        <v>0.03097563259788047</v>
       </c>
       <c r="CJ2">
-        <v>0.009746569651483187</v>
+        <v>0.009746664824962897</v>
       </c>
       <c r="CK2">
-        <v>2.553597308688736E-05</v>
+        <v>2.543262229845647E-05</v>
       </c>
       <c r="CL2">
-        <v>0.001144767159065536</v>
+        <v>0.001144686665368175</v>
       </c>
       <c r="CM2">
-        <v>0.0007848910719339476</v>
+        <v>0.0007848032287983287</v>
       </c>
       <c r="CN2">
-        <v>0.01809418135299017</v>
+        <v>0.01809444700252814</v>
       </c>
       <c r="CO2">
-        <v>0.000401809505632138</v>
+        <v>0.0004017138391528187</v>
       </c>
       <c r="CP2">
-        <v>4.049068855213822E-05</v>
+        <v>4.038764317093471E-05</v>
       </c>
       <c r="CQ2">
-        <v>0.02386551314661949</v>
+        <v>0.02386589665907806</v>
       </c>
       <c r="CR2">
-        <v>0.009203305170909181</v>
+        <v>0.009203389249767992</v>
       </c>
       <c r="CS2">
-        <v>9.02348167733929E-06</v>
+        <v>8.919793668569419E-06</v>
       </c>
       <c r="CT2">
-        <v>0.007618402727581956</v>
+        <v>0.007618454439348126</v>
       </c>
       <c r="CU2">
-        <v>0.002611017906635496</v>
+        <v>0.002610967356909754</v>
       </c>
       <c r="CV2">
-        <v>0.004099108553424507</v>
+        <v>0.004099088393687768</v>
       </c>
       <c r="CW2">
-        <v>0.0006626551763048459</v>
+        <v>0.0006625648368511889</v>
       </c>
       <c r="CX2">
-        <v>0.002607230706770919</v>
+        <v>0.002607180079702467</v>
       </c>
       <c r="CY2">
-        <v>0.02446810812507196</v>
+        <v>0.0244685039438069</v>
       </c>
       <c r="CZ2">
-        <v>0.02011879928059409</v>
+        <v>0.02011910627715396</v>
       </c>
       <c r="DA2">
-        <v>0.04704088131791711</v>
+        <v>0.0470417381208875</v>
       </c>
       <c r="DB2">
-        <v>0.01320506952781451</v>
+        <v>0.01320523533124774</v>
       </c>
       <c r="DC2">
-        <v>0.007952036715651907</v>
+        <v>0.007952095240936628</v>
       </c>
       <c r="DD2">
-        <v>0.04067431254557221</v>
+        <v>0.0406750393296117</v>
       </c>
       <c r="DE2">
-        <v>0.06336670773413994</v>
+        <v>0.0633678979453515</v>
       </c>
       <c r="DF2">
-        <v>0.03033966491511745</v>
+        <v>0.03034018064358146</v>
       </c>
       <c r="DG2">
-        <v>0.002983568093313886</v>
+        <v>0.00298352515185858</v>
       </c>
       <c r="DH2">
-        <v>0.0007512204731379373</v>
+        <v>0.0007511319423767833</v>
       </c>
       <c r="DI2">
-        <v>0.003543353873297125</v>
+        <v>0.003543322363862936</v>
       </c>
       <c r="DJ2">
-        <v>0.000131536575296529</v>
+        <v>0.0001314353892667722</v>
       </c>
       <c r="DK2">
-        <v>0.000978334665016812</v>
+        <v>0.0009782507724124857</v>
       </c>
       <c r="DL2">
-        <v>0.002478865311360995</v>
+        <v>0.002478812062797029</v>
       </c>
       <c r="DM2">
-        <v>0.007209505142203273</v>
+        <v>0.007209548503407499</v>
       </c>
       <c r="DN2">
-        <v>0.004263714847538533</v>
+        <v>0.004263698049413856</v>
       </c>
       <c r="DO2">
-        <v>0.01213970156590983</v>
+        <v>0.01213984561225405</v>
       </c>
       <c r="DP2">
-        <v>0.003234102484355304</v>
+        <v>0.00323406465934731</v>
       </c>
       <c r="DQ2">
-        <v>8.406008099418845E-05</v>
+        <v>8.395792539302624E-05</v>
       </c>
       <c r="DR2">
-        <v>0.001477928247152397</v>
+        <v>0.00147785455731596</v>
       </c>
       <c r="DS2">
-        <v>1.430690048841536E-05</v>
+        <v>1.420332037834098E-05</v>
       </c>
       <c r="DT2">
-        <v>0.002547206508917258</v>
+        <v>0.002547154656026497</v>
       </c>
       <c r="DU2">
-        <v>0.001209340356756535</v>
+        <v>0.001209261181781774</v>
       </c>
       <c r="DV2">
-        <v>0.00503692431989019</v>
+        <v>0.005036923312354218</v>
       </c>
       <c r="DW2">
-        <v>8.455026197666062E-05</v>
+        <v>8.444811638604092E-05</v>
       </c>
       <c r="DX2">
-        <v>0.00215220052304184</v>
+        <v>0.002152140603285265</v>
       </c>
       <c r="DY2">
-        <v>0.005410198406542694</v>
+        <v>0.005410205022060744</v>
       </c>
       <c r="DZ2">
-        <v>0.005755489494195812</v>
+        <v>0.005755503161295282</v>
       </c>
       <c r="EA2">
-        <v>0.01198541057142695</v>
+        <v>0.01198555146681956</v>
       </c>
       <c r="EB2">
-        <v>0.0003855491662135735</v>
+        <v>0.0003854531676633974</v>
       </c>
       <c r="EC2">
-        <v>0.004119705852687991</v>
+        <v>0.004119686113592091</v>
       </c>
       <c r="ED2">
-        <v>0.003685997668196483</v>
+        <v>0.003685969071853219</v>
       </c>
       <c r="EE2">
-        <v>0.01460351647780899</v>
+        <v>0.01460371084051549</v>
       </c>
       <c r="EF2">
-        <v>0.01448131748217857</v>
+        <v>0.0144815093493206</v>
       </c>
       <c r="EG2">
-        <v>0.001759052637099981</v>
+        <v>0.001758984688423961</v>
       </c>
       <c r="EH2">
-        <v>0.01161182908478544</v>
+        <v>0.01161196235084626</v>
       </c>
       <c r="EI2">
-        <v>0.0001407167349682658</v>
+        <v>0.0001406157364169748</v>
       </c>
       <c r="EJ2">
-        <v>0.005552924801439099</v>
+        <v>0.005552934331734942</v>
       </c>
       <c r="EK2">
-        <v>0.005404745806737668</v>
+        <v>0.005404752310901985</v>
       </c>
       <c r="EL2">
-        <v>0.01442236948428643</v>
+        <v>0.01442256014758445</v>
       </c>
       <c r="EM2">
-        <v>0.005749866194396889</v>
+        <v>0.005749879746656568</v>
       </c>
       <c r="EN2">
-        <v>0.002749401301687197</v>
+        <v>0.002749353578045916</v>
       </c>
       <c r="EO2">
-        <v>0.001215364356541129</v>
+        <v>0.001215285304589309</v>
       </c>
       <c r="EP2">
-        <v>0.0007717901324024095</v>
+        <v>0.0007717020217176267</v>
       </c>
       <c r="EQ2">
-        <v>1.766191736844702E-05</v>
+        <v>1.755840577498237E-05</v>
       </c>
       <c r="ER2">
-        <v>0.000109795726073936</v>
+        <v>0.0001096940960496078</v>
       </c>
       <c r="ES2">
-        <v>0.001477928247152397</v>
+        <v>0.00147785455731596</v>
       </c>
       <c r="ET2">
-        <v>0.001381682250593951</v>
+        <v>0.001381606595208719</v>
       </c>
       <c r="EU2">
-        <v>0.002754379701509181</v>
+        <v>0.002754332079537456</v>
       </c>
       <c r="EV2">
-        <v>0.00488692582525382</v>
+        <v>0.004886921754428249</v>
       </c>
       <c r="EW2">
-        <v>0.003229887384506027</v>
+        <v>0.003229849473416692</v>
       </c>
       <c r="EX2">
-        <v>0.002487486611052715</v>
+        <v>0.002487433538554101</v>
       </c>
       <c r="EY2">
-        <v>0.0053157911099185</v>
+        <v>0.005315795797437935</v>
       </c>
       <c r="EZ2">
-        <v>6.533372766380343E-05</v>
+        <v>6.523118963051386E-05</v>
       </c>
       <c r="FA2">
-        <v>0.001591344743096862</v>
+        <v>0.001591273369467486</v>
       </c>
       <c r="FB2">
-        <v>0.001732369238054123</v>
+        <v>0.001732300744446109</v>
       </c>
       <c r="FC2">
-        <v>0.003460223876269678</v>
+        <v>0.003460190669143417</v>
       </c>
       <c r="FD2">
-        <v>0.002818515399215822</v>
+        <v>0.002818469087032014</v>
       </c>
       <c r="FE2">
-        <v>0.004890658825120337</v>
+        <v>0.004890654830530595</v>
       </c>
       <c r="FF2">
-        <v>0.008939663680336446</v>
+        <v>0.008939742375072982</v>
       </c>
       <c r="FG2">
-        <v>0.007517349731195399</v>
+        <v>0.007517399379243572</v>
       </c>
       <c r="FH2">
-        <v>0.0003702520867605648</v>
+        <v>0.0003701557758113575</v>
       </c>
       <c r="FI2">
-        <v>0.0009437347662540314</v>
+        <v>0.0009436501670458801</v>
       </c>
       <c r="FJ2">
-        <v>0.008885624682268766</v>
+        <v>0.008885702273413554</v>
       </c>
       <c r="FK2">
-        <v>0.01469625197449297</v>
+        <v>0.01469644823105635</v>
       </c>
       <c r="FL2">
-        <v>0.01623568041944624</v>
+        <v>0.0162359081144261</v>
       </c>
       <c r="FM2">
-        <v>0.003957930858472724</v>
+        <v>0.003957907815585952</v>
       </c>
       <c r="FN2">
-        <v>0.002302462417668791</v>
+        <v>0.002302405566581007</v>
       </c>
       <c r="FO2">
-        <v>0.0002482227511240769</v>
+        <v>0.0002481239480752277</v>
       </c>
       <c r="FP2">
-        <v>0.001836766334321103</v>
+        <v>0.001836699972724747</v>
       </c>
       <c r="FQ2">
-        <v>0.00166010164063826</v>
+        <v>0.001660031671171571</v>
       </c>
       <c r="FR2">
-        <v>0.002867273197472347</v>
+        <v>0.002867227881026907</v>
       </c>
       <c r="FS2">
-        <v>0.006502006467501937</v>
+        <v>0.006502035380072278</v>
       </c>
       <c r="FT2">
-        <v>0.003026924891763538</v>
+        <v>0.003026882835746651</v>
       </c>
       <c r="FU2">
-        <v>0.0008284084303778584</v>
+        <v>0.0008283214759596354</v>
       </c>
       <c r="FV2">
-        <v>0.002598606207079312</v>
+        <v>0.002598555403880158</v>
       </c>
       <c r="FW2">
-        <v>0.001555074044393826</v>
+        <v>0.001555001930039322</v>
       </c>
       <c r="FX2">
-        <v>0.0005014531820690899</v>
+        <v>0.0005013595505264445</v>
       </c>
       <c r="FY2">
-        <v>0.0002946660894633609</v>
+        <v>0.000294568234886666</v>
       </c>
       <c r="FZ2">
-        <v>0.002262316819104313</v>
+        <v>0.002262259148157671</v>
       </c>
       <c r="GA2">
-        <v>0.004925010523891992</v>
+        <v>0.004925007230837302</v>
       </c>
       <c r="GB2">
-        <v>0.007789429021466416</v>
+        <v>0.007789484225954753</v>
       </c>
       <c r="GC2">
-        <v>0.005680434196879631</v>
+        <v>0.00568044633118964</v>
       </c>
       <c r="GD2">
-        <v>0.001328010852513127</v>
+        <v>0.001327934101043325</v>
       </c>
       <c r="GE2">
-        <v>0.0009697262653246301</v>
+        <v>0.0009696421969183978</v>
       </c>
       <c r="GF2">
-        <v>0.0002975752193593366</v>
+        <v>0.0002974774241932869</v>
       </c>
       <c r="GG2">
-        <v>0.000311880858847797</v>
+        <v>0.0003117833558334571</v>
       </c>
       <c r="GH2">
-        <v>0.00104434896265628</v>
+        <v>0.001044266418204892</v>
       </c>
       <c r="GI2">
-        <v>0.007071998747120212</v>
+        <v>0.00707203930015019</v>
       </c>
       <c r="GJ2">
-        <v>0.01809418135299017</v>
+        <v>0.01809444700252814</v>
       </c>
       <c r="GK2">
-        <v>0.007313039338501108</v>
+        <v>0.007313084814094733</v>
       </c>
       <c r="GL2">
-        <v>0.0002115863424341178</v>
+        <v>0.0002114867911915618</v>
       </c>
       <c r="GM2">
-        <v>0.0001292336953788751</v>
+        <v>0.0001291324623193923</v>
       </c>
       <c r="GN2">
-        <v>0.002885618596816354</v>
+        <v>0.002885573655023147</v>
       </c>
       <c r="GO2">
-        <v>0.004570843836556247</v>
+        <v>0.004570833310661436</v>
       </c>
       <c r="GP2">
-        <v>0.0002628393606014178</v>
+        <v>0.0002627408560549497</v>
       </c>
       <c r="GQ2">
-        <v>0.0006612815763539629</v>
+        <v>0.0006611912088484614</v>
       </c>
       <c r="GR2">
-        <v>0.001988978728878308</v>
+        <v>0.001988915475784116</v>
       </c>
       <c r="GS2">
-        <v>0.0003304104881852165</v>
+        <v>0.0003303133635854799</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.973654010368977E-06</v>
+        <v>3.115178366039678E-06</v>
       </c>
       <c r="C3">
-        <v>1.051757901215297E-05</v>
+        <v>4.660735840726368E-06</v>
       </c>
       <c r="D3">
-        <v>5.861766006773218E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.543143009871526E-08</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.269244310710529E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.087332010500331E-06</v>
+        <v>3.228976563884414E-06</v>
       </c>
       <c r="H3">
-        <v>9.087332010500331E-06</v>
+        <v>3.228976563884414E-06</v>
       </c>
       <c r="I3">
-        <v>2.618191503025297E-05</v>
+        <v>2.034163458309001E-05</v>
       </c>
       <c r="J3">
-        <v>1.241574501434628E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.36366120273119E-05</v>
+        <v>1.779364029775072E-05</v>
       </c>
       <c r="L3">
-        <v>3.581100004137929E-05</v>
+        <v>2.998090093096537E-05</v>
       </c>
       <c r="M3">
-        <v>4.863852505620139E-05</v>
+        <v>4.282198916095088E-05</v>
       </c>
       <c r="N3">
-        <v>3.687663404261062E-05</v>
+        <v>3.104766168293213E-05</v>
       </c>
       <c r="O3">
-        <v>1.49911980173222E-05</v>
+        <v>9.139085037967418E-06</v>
       </c>
       <c r="P3">
-        <v>2.369078502737449E-07</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.656535008847059E-06</v>
+        <v>1.796666705497971E-06</v>
       </c>
       <c r="R3">
-        <v>6.426342007425581E-09</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.505011501739027E-05</v>
+        <v>9.198064334070607E-06</v>
       </c>
       <c r="T3">
-        <v>4.610113005326944E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.063275502384097E-05</v>
+        <v>1.47866071586799E-05</v>
       </c>
       <c r="V3">
-        <v>0.0001104236001275935</v>
+        <v>0.0001046723928336213</v>
       </c>
       <c r="W3">
-        <v>1.092269801262108E-05</v>
+        <v>5.066283194767268E-06</v>
       </c>
       <c r="X3">
-        <v>3.710080404286965E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5.162406005965114E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.863852505620139E-05</v>
+        <v>4.282198916095088E-05</v>
       </c>
       <c r="AA3">
-        <v>2.610418803016316E-05</v>
+        <v>2.026382539816524E-05</v>
       </c>
       <c r="AB3">
-        <v>1.241574501434628E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.086420401255349E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.237379406051745E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.881830403329929E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.316619704987816E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.85505220560997E-08</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.543143009871526E-08</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.756007402029051E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.016346051174379E-07</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>9.087332010500331E-06</v>
+        <v>3.228976563884414E-06</v>
       </c>
       <c r="AL3">
-        <v>7.473244008635267E-08</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.65875001000511E-06</v>
+        <v>2.799941401155546E-06</v>
       </c>
       <c r="AN3">
-        <v>1.484508901715337E-05</v>
+        <v>8.992821549087455E-06</v>
       </c>
       <c r="AO3">
-        <v>3.371223003895419E-05</v>
+        <v>2.787991178890978E-05</v>
       </c>
       <c r="AP3">
-        <v>8.65875001000511E-06</v>
+        <v>2.799941401155546E-06</v>
       </c>
       <c r="AQ3">
-        <v>2.259460602610787E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>9.348152010801706E-06</v>
+        <v>3.490072342855402E-06</v>
       </c>
       <c r="AS3">
-        <v>8.973654010368977E-06</v>
+        <v>3.115178366039678E-06</v>
       </c>
       <c r="AT3">
-        <v>3.402084303931079E-05</v>
+        <v>2.81888511019823E-05</v>
       </c>
       <c r="AU3">
-        <v>4.1052674047436E-05</v>
+        <v>3.52281172339405E-05</v>
       </c>
       <c r="AV3">
-        <v>1.747201702018876E-05</v>
+        <v>1.162252714091592E-05</v>
       </c>
       <c r="AW3">
-        <v>9.247897010685863E-06</v>
+        <v>3.389711337868298E-06</v>
       </c>
       <c r="AX3">
-        <v>6.197438407161085E-07</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.947477402250293E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.992410704613196E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.785386802062999E-05</v>
+        <v>1.20047818924528E-05</v>
       </c>
       <c r="BB3">
-        <v>2.704593703125134E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.215315007181741E-06</v>
+        <v>3.539228263147527E-07</v>
       </c>
       <c r="BD3">
-        <v>1.231639201423148E-05</v>
+        <v>6.461450822162373E-06</v>
       </c>
       <c r="BE3">
-        <v>2.881830403329929E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>2.712827403134648E-07</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.514033704060435E-07</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>4.640021705361504E-07</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.158231003649308E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.03239140703742798</v>
+        <v>0.0324197882074664</v>
       </c>
       <c r="BK3">
-        <v>0.000441720400510404</v>
+        <v>0.0004363194907041662</v>
       </c>
       <c r="BL3">
-        <v>0.07803022009016322</v>
+        <v>0.07810685757157283</v>
       </c>
       <c r="BM3">
-        <v>0.003368934803892774</v>
+        <v>0.003366628991444494</v>
       </c>
       <c r="BN3">
-        <v>0.008462326009778143</v>
+        <v>0.008465405707064361</v>
       </c>
       <c r="BO3">
-        <v>0.002333139802695922</v>
+        <v>0.002329738789852384</v>
       </c>
       <c r="BP3">
-        <v>0.001778842402055437</v>
+        <v>0.001774855301490321</v>
       </c>
       <c r="BQ3">
-        <v>0.009798958011322609</v>
+        <v>0.009803450999747243</v>
       </c>
       <c r="BR3">
-        <v>0.007891540009118606</v>
+        <v>0.007894016184421412</v>
       </c>
       <c r="BS3">
-        <v>0.006053461006994721</v>
+        <v>0.00605399368493819</v>
       </c>
       <c r="BT3">
-        <v>0.04596433405311139</v>
+        <v>0.04600706659095445</v>
       </c>
       <c r="BU3">
-        <v>4.582763705295343E-05</v>
+        <v>4.000812905835062E-05</v>
       </c>
       <c r="BV3">
-        <v>0.001508284401742809</v>
+        <v>0.001504011226009789</v>
       </c>
       <c r="BW3">
-        <v>0.0002694051003112952</v>
+        <v>0.0002638219924980492</v>
       </c>
       <c r="BX3">
-        <v>0.001711015701977063</v>
+        <v>0.001706956884683591</v>
       </c>
       <c r="BY3">
-        <v>0.01857952802146848</v>
+        <v>0.01859330516721632</v>
       </c>
       <c r="BZ3">
-        <v>0.01382877301597903</v>
+        <v>0.01383752693922263</v>
       </c>
       <c r="CA3">
-        <v>0.001018076901176379</v>
+        <v>0.001013285403335452</v>
       </c>
       <c r="CB3">
-        <v>0.005193955006001569</v>
+        <v>0.005193578883158273</v>
       </c>
       <c r="CC3">
-        <v>0.0004157364604803798</v>
+        <v>0.0004103080764911633</v>
       </c>
       <c r="CD3">
-        <v>0.005484366006337137</v>
+        <v>0.00548429695028021</v>
       </c>
       <c r="CE3">
-        <v>0.0005362597006196433</v>
+        <v>0.0005309587521751879</v>
       </c>
       <c r="CF3">
-        <v>0.002421043802797495</v>
+        <v>0.002417735735464936</v>
       </c>
       <c r="CG3">
-        <v>0.0001022479101181465</v>
+        <v>9.648805823820945E-05</v>
       </c>
       <c r="CH3">
-        <v>0.001460517201687615</v>
+        <v>0.001456193519187985</v>
       </c>
       <c r="CI3">
-        <v>0.01379316601593788</v>
+        <v>0.01380188229003231</v>
       </c>
       <c r="CJ3">
-        <v>0.03545095804096327</v>
+        <v>0.0354825742347897</v>
       </c>
       <c r="CK3">
-        <v>0.003165724203657966</v>
+        <v>0.003163203525981103</v>
       </c>
       <c r="CL3">
-        <v>4.165911004813673E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0008651624709996875</v>
+        <v>0.0008602092887094475</v>
       </c>
       <c r="CN3">
-        <v>0.004683555605411807</v>
+        <v>0.004682639810505391</v>
       </c>
       <c r="CO3">
-        <v>0.01567425001811146</v>
+        <v>0.01568495526100793</v>
       </c>
       <c r="CP3">
-        <v>3.060559503536449E-05</v>
+        <v>2.476999197714866E-05</v>
       </c>
       <c r="CQ3">
-        <v>0.0008276943709563934</v>
+        <v>0.0008227015716783039</v>
       </c>
       <c r="CR3">
-        <v>0.02590718702993553</v>
+        <v>0.02592871209398102</v>
       </c>
       <c r="CS3">
-        <v>0.004687185405416001</v>
+        <v>0.004686273448487558</v>
       </c>
       <c r="CT3">
-        <v>0.0002455845502837708</v>
+        <v>0.0002399762557532928</v>
       </c>
       <c r="CU3">
-        <v>0.002117236102446447</v>
+        <v>0.002113606803293767</v>
       </c>
       <c r="CV3">
-        <v>0.000975033101126642</v>
+        <v>0.0009701960908177335</v>
       </c>
       <c r="CW3">
-        <v>0.003036774203508966</v>
+        <v>0.003034117180231893</v>
       </c>
       <c r="CX3">
-        <v>0.0005285102506106889</v>
+        <v>0.0005232011082661827</v>
       </c>
       <c r="CY3">
-        <v>0.005311639506137552</v>
+        <v>0.005311387817290284</v>
       </c>
       <c r="CZ3">
-        <v>0.02541690702936901</v>
+        <v>0.02543791369464854</v>
       </c>
       <c r="DA3">
-        <v>0.03167325603659817</v>
+        <v>0.03170087786790735</v>
       </c>
       <c r="DB3">
-        <v>0.0446064000515423</v>
+        <v>0.04464769677452476</v>
       </c>
       <c r="DC3">
-        <v>0.009008890010409693</v>
+        <v>0.009012547618487944</v>
       </c>
       <c r="DD3">
-        <v>0.01240603801433507</v>
+        <v>0.01241328760522107</v>
       </c>
       <c r="DE3">
-        <v>0.05452358406300152</v>
+        <v>0.0545753667449205</v>
       </c>
       <c r="DF3">
-        <v>0.06386170507379164</v>
+        <v>0.06392336144095739</v>
       </c>
       <c r="DG3">
-        <v>0.02578214702979104</v>
+        <v>0.02580353988248446</v>
       </c>
       <c r="DH3">
-        <v>0.001987520002296562</v>
+        <v>0.00198375354750595</v>
       </c>
       <c r="DI3">
-        <v>0.001915571302213426</v>
+        <v>0.0019117287722876</v>
       </c>
       <c r="DJ3">
-        <v>0.002100886802427556</v>
+        <v>0.002097240216302239</v>
       </c>
       <c r="DK3">
-        <v>0.0009455308010925525</v>
+        <v>0.0009406625964540507</v>
       </c>
       <c r="DL3">
-        <v>0.0002124356802454675</v>
+        <v>0.0002067923356756223</v>
       </c>
       <c r="DM3">
-        <v>0.004979466005753729</v>
+        <v>0.004978863092437821</v>
       </c>
       <c r="DN3">
-        <v>0.006568728507590107</v>
+        <v>0.006569806004894225</v>
       </c>
       <c r="DO3">
-        <v>0.006436166407436933</v>
+        <v>0.006437103739878007</v>
       </c>
       <c r="DP3">
-        <v>0.01326274701532499</v>
+        <v>0.01327090244958291</v>
       </c>
       <c r="DQ3">
-        <v>0.002810296603247273</v>
+        <v>0.002807400113321841</v>
       </c>
       <c r="DR3">
-        <v>0.0006102266507051115</v>
+        <v>0.0006050039113974795</v>
       </c>
       <c r="DS3">
-        <v>0.000443952270512983</v>
+        <v>0.0004385537205799885</v>
       </c>
       <c r="DT3">
-        <v>0.0002992003003457233</v>
+        <v>0.0002936486965606071</v>
       </c>
       <c r="DU3">
-        <v>0.003185786303681148</v>
+        <v>0.003183286838715149</v>
       </c>
       <c r="DV3">
-        <v>0.002445458702825706</v>
+        <v>0.002442176450647815</v>
       </c>
       <c r="DW3">
-        <v>0.00339772400392604</v>
+        <v>0.003395448631809311</v>
       </c>
       <c r="DX3">
-        <v>3.4330857039669E-05</v>
+        <v>2.849919289640723E-05</v>
       </c>
       <c r="DY3">
-        <v>0.004950991405720827</v>
+        <v>0.004950358384716453</v>
       </c>
       <c r="DZ3">
-        <v>0.004927387505693552</v>
+        <v>0.004926729527047357</v>
       </c>
       <c r="EA3">
-        <v>0.01100110601271168</v>
+        <v>0.01100687009528599</v>
       </c>
       <c r="EB3">
-        <v>0.006111557607061851</v>
+        <v>0.006112151713588469</v>
       </c>
       <c r="EC3">
-        <v>0.001308633101512114</v>
+        <v>0.001304148823985134</v>
       </c>
       <c r="ED3">
-        <v>0.003547572004099188</v>
+        <v>0.003545455074134457</v>
       </c>
       <c r="EE3">
-        <v>0.005870570406783392</v>
+        <v>0.005870909704900342</v>
       </c>
       <c r="EF3">
-        <v>0.01815754502098088</v>
+        <v>0.01817087598196399</v>
       </c>
       <c r="EG3">
-        <v>0.01150523201329419</v>
+        <v>0.01151152913473667</v>
       </c>
       <c r="EH3">
-        <v>0.003369817503893794</v>
+        <v>0.003367512624770534</v>
       </c>
       <c r="EI3">
-        <v>0.009874345011409718</v>
+        <v>0.009878917710464542</v>
       </c>
       <c r="EJ3">
-        <v>0.0001091530001261253</v>
+        <v>0.0001034004493601126</v>
       </c>
       <c r="EK3">
-        <v>0.004892705505653478</v>
+        <v>0.004892010855909134</v>
       </c>
       <c r="EL3">
-        <v>0.008305328009596734</v>
+        <v>0.008308241704660838</v>
       </c>
       <c r="EM3">
-        <v>0.01112381401285347</v>
+        <v>0.0111297078410339</v>
       </c>
       <c r="EN3">
-        <v>0.005919620406840069</v>
+        <v>0.005920011568095369</v>
       </c>
       <c r="EO3">
-        <v>0.001639393201894304</v>
+        <v>0.001635258654373992</v>
       </c>
       <c r="EP3">
-        <v>0.002348534002713711</v>
+        <v>0.00234514926696547</v>
       </c>
       <c r="EQ3">
-        <v>0.0006766288407818387</v>
+        <v>0.000671476311993406</v>
       </c>
       <c r="ER3">
-        <v>0.0002858979303303525</v>
+        <v>0.0002803322612515423</v>
       </c>
       <c r="ES3">
-        <v>0.0003428375003961457</v>
+        <v>0.0003373320365119635</v>
       </c>
       <c r="ET3">
-        <v>0.0008506654009829364</v>
+        <v>0.0008456968901800137</v>
       </c>
       <c r="EU3">
-        <v>0.001758028402031386</v>
+        <v>0.001754019293732089</v>
       </c>
       <c r="EV3">
-        <v>0.004042795404671415</v>
+        <v>0.004041202100388813</v>
       </c>
       <c r="EW3">
-        <v>0.004491831005190271</v>
+        <v>0.00449071248980567</v>
       </c>
       <c r="EX3">
-        <v>0.003398610703927064</v>
+        <v>0.003396336269364766</v>
       </c>
       <c r="EY3">
-        <v>0.002546002202941883</v>
+        <v>0.002542826260681438</v>
       </c>
       <c r="EZ3">
-        <v>0.005097409205890011</v>
+        <v>0.005096931000107214</v>
       </c>
       <c r="FA3">
-        <v>0.0003661788404231164</v>
+        <v>0.000360698056562292</v>
       </c>
       <c r="FB3">
-        <v>0.00165230160190922</v>
+        <v>0.001648180703117452</v>
       </c>
       <c r="FC3">
-        <v>0.001374762501588526</v>
+        <v>0.001370348146145567</v>
       </c>
       <c r="FD3">
-        <v>0.003244924103749481</v>
+        <v>0.003242487168282017</v>
       </c>
       <c r="FE3">
-        <v>0.003133125803620299</v>
+        <v>0.003130570657944879</v>
       </c>
       <c r="FF3">
-        <v>0.007894902509122489</v>
+        <v>0.007897382239772956</v>
       </c>
       <c r="FG3">
-        <v>0.009982034011534153</v>
+        <v>0.009986720575818453</v>
       </c>
       <c r="FH3">
-        <v>0.007665706008857655</v>
+        <v>0.007667943398024149</v>
       </c>
       <c r="FI3">
-        <v>0.0002068053402389617</v>
+        <v>0.0002011560424152454</v>
       </c>
       <c r="FJ3">
-        <v>0.001556625401798667</v>
+        <v>0.0015524033395411</v>
       </c>
       <c r="FK3">
-        <v>0.009446963010915882</v>
+        <v>0.009451083816560015</v>
       </c>
       <c r="FL3">
-        <v>0.01500838801734206</v>
+        <v>0.01501838920941227</v>
       </c>
       <c r="FM3">
-        <v>0.01392843951609419</v>
+        <v>0.01393729882195713</v>
       </c>
       <c r="FN3">
-        <v>0.005144212405944091</v>
+        <v>0.005143783687640129</v>
       </c>
       <c r="FO3">
-        <v>0.003149830503639601</v>
+        <v>0.003147293020719884</v>
       </c>
       <c r="FP3">
-        <v>0.0002055008102374544</v>
+        <v>0.0001998501330657284</v>
       </c>
       <c r="FQ3">
-        <v>0.001218257201407685</v>
+        <v>0.001213677364700171</v>
       </c>
       <c r="FR3">
-        <v>0.001094473501264654</v>
+        <v>0.001089762781556965</v>
       </c>
       <c r="FS3">
-        <v>0.002865042303310531</v>
+        <v>0.002862203698885878</v>
       </c>
       <c r="FT3">
-        <v>0.005776334006674503</v>
+        <v>0.005776573663701732</v>
       </c>
       <c r="FU3">
-        <v>0.002375165202744482</v>
+        <v>0.002371808625561177</v>
       </c>
       <c r="FV3">
-        <v>0.001720534301988062</v>
+        <v>0.001716485549209751</v>
       </c>
       <c r="FW3">
-        <v>0.002969103203430773</v>
+        <v>0.002966374628055121</v>
       </c>
       <c r="FX3">
-        <v>0.001997778002308415</v>
+        <v>0.001994022393839377</v>
       </c>
       <c r="FY3">
-        <v>0.0003402697603931787</v>
+        <v>0.0003347615815027811</v>
       </c>
       <c r="FZ3">
-        <v>1.199958751386542E-05</v>
+        <v>6.144311347777688E-06</v>
       </c>
       <c r="GA3">
-        <v>0.003088621703568875</v>
+        <v>0.00308601950137367</v>
       </c>
       <c r="GB3">
-        <v>0.006676618507714773</v>
+        <v>0.006677810082776212</v>
       </c>
       <c r="GC3">
-        <v>0.006967144008050473</v>
+        <v>0.006968642770965139</v>
       </c>
       <c r="GD3">
-        <v>0.005021967005802838</v>
+        <v>0.005021409031023995</v>
       </c>
       <c r="GE3">
-        <v>0.0008945241010336147</v>
+        <v>0.0008896019643351968</v>
       </c>
       <c r="GF3">
-        <v>0.001279383301478316</v>
+        <v>0.001274868096603241</v>
       </c>
       <c r="GG3">
-        <v>0.0004121400404762242</v>
+        <v>0.0004067078538034598</v>
       </c>
       <c r="GH3">
-        <v>0.0006234588007204011</v>
+        <v>0.0006182500524591733</v>
       </c>
       <c r="GI3">
-        <v>0.001476191001705726</v>
+        <v>0.001471883891937143</v>
       </c>
       <c r="GJ3">
-        <v>0.01176481201359414</v>
+        <v>0.01177138360258917</v>
       </c>
       <c r="GK3">
-        <v>0.018131688020951</v>
+        <v>0.01814499164197145</v>
       </c>
       <c r="GL3">
-        <v>0.005859930006771098</v>
+        <v>0.005860258054234891</v>
       </c>
       <c r="GM3">
-        <v>6.216518007183132E-05</v>
+        <v>5.636294661857225E-05</v>
       </c>
       <c r="GN3">
-        <v>0.0002249454302599225</v>
+        <v>0.0002193153129050615</v>
       </c>
       <c r="GO3">
-        <v>0.00285167950329509</v>
+        <v>0.002848826769680933</v>
       </c>
       <c r="GP3">
-        <v>0.00243834850281749</v>
+        <v>0.002435058732652112</v>
       </c>
       <c r="GQ3">
-        <v>0.0001253876001448843</v>
+        <v>0.0001196522150731806</v>
       </c>
       <c r="GR3">
-        <v>0.001189955701374983</v>
+        <v>0.001185345940006714</v>
       </c>
       <c r="GS3">
-        <v>0.002067798702389323</v>
+        <v>0.002064117130479948</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001088089213971414</v>
+        <v>0.0001069142800168057</v>
       </c>
       <c r="C4">
-        <v>0.0001357616317432228</v>
+        <v>0.0001338768083412329</v>
       </c>
       <c r="D4">
-        <v>0.000133737631717234</v>
+        <v>0.0001318520710391716</v>
       </c>
       <c r="E4">
-        <v>6.866625088169663E-05</v>
+        <v>6.675698685804214E-05</v>
       </c>
       <c r="F4">
-        <v>6.681723385795466E-06</v>
+        <v>4.74988045482818E-06</v>
       </c>
       <c r="G4">
-        <v>6.680080085774366E-05</v>
+        <v>6.489085731252324E-05</v>
       </c>
       <c r="H4">
-        <v>1.032081713252259E-05</v>
+        <v>8.390299802696904E-06</v>
       </c>
       <c r="I4">
-        <v>1.586992220377488E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.421673131095058E-06</v>
+        <v>4.882784051277196E-07</v>
       </c>
       <c r="K4">
-        <v>1.754792922532103E-05</v>
+        <v>1.562004449270427E-05</v>
       </c>
       <c r="L4">
-        <v>4.011532751509364E-05</v>
+        <v>3.819566333710335E-05</v>
       </c>
       <c r="M4">
-        <v>2.587211033220617E-06</v>
+        <v>6.53876607220059E-07</v>
       </c>
       <c r="N4">
-        <v>1.505078419325688E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.855992100873452E-06</v>
+        <v>5.924576917048061E-06</v>
       </c>
       <c r="P4">
-        <v>4.725442760676197E-05</v>
+        <v>4.533736396612799E-05</v>
       </c>
       <c r="Q4">
-        <v>9.283965119209083E-06</v>
+        <v>7.35307009858778E-06</v>
       </c>
       <c r="R4">
-        <v>3.064690039351601E-07</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.93357252482769E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>8.027971103081716E-08</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5.852818575152063E-06</v>
+        <v>3.920673701657396E-06</v>
       </c>
       <c r="V4">
-        <v>8.141788104543165E-07</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>6.28224378066602E-06</v>
+        <v>4.350255332529499E-06</v>
       </c>
       <c r="X4">
-        <v>1.031551613245453E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.107014827054744E-06</v>
+        <v>1.735054815045983E-07</v>
       </c>
       <c r="Z4">
-        <v>1.085362813936406E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>7.676640698570523E-07</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.714850722019232E-07</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.352302107246231E-06</v>
+        <v>6.421067712693341E-06</v>
       </c>
       <c r="AD4">
-        <v>1.625782920875573E-05</v>
+        <v>1.432947453549612E-05</v>
       </c>
       <c r="AE4">
-        <v>3.265761641933425E-05</v>
+        <v>3.073523564456732E-05</v>
       </c>
       <c r="AF4">
-        <v>1.141254514654073E-05</v>
+        <v>9.48242549701745E-06</v>
       </c>
       <c r="AG4">
-        <v>1.586992220377488E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>4.432751056917942E-06</v>
+        <v>2.500088899930644E-06</v>
       </c>
       <c r="AI4">
-        <v>1.213033115575733E-05</v>
+        <v>1.020047297186793E-05</v>
       </c>
       <c r="AJ4">
-        <v>4.430545256889619E-05</v>
+        <v>4.238731471447472E-05</v>
       </c>
       <c r="AK4">
-        <v>3.226026541423213E-05</v>
+        <v>3.033773989767435E-05</v>
       </c>
       <c r="AL4">
-        <v>1.721520122104869E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.362266230332254E-05</v>
+        <v>2.169699039446454E-05</v>
       </c>
       <c r="AN4">
-        <v>8.301987106600171E-06</v>
+        <v>6.370734383961516E-06</v>
       </c>
       <c r="AO4">
-        <v>3.933706050510044E-06</v>
+        <v>2.000862107980454E-06</v>
       </c>
       <c r="AP4">
-        <v>1.725698522158521E-05</v>
+        <v>1.532899450771863E-05</v>
       </c>
       <c r="AQ4">
-        <v>4.96159056370841E-06</v>
+        <v>3.029121045411598E-06</v>
       </c>
       <c r="AR4">
-        <v>5.556116071342308E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.672032034309746E-06</v>
+        <v>7.38728505786335E-07</v>
       </c>
       <c r="AT4">
-        <v>3.024996738841926E-06</v>
+        <v>1.091821783652381E-06</v>
       </c>
       <c r="AU4">
-        <v>5.173053566423663E-07</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>7.225174092773547E-07</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>1.505078419325688E-07</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.032081713252259E-05</v>
+        <v>8.390299802696904E-06</v>
       </c>
       <c r="AY4">
-        <v>1.798890723098332E-05</v>
+        <v>1.606118313202659E-05</v>
       </c>
       <c r="AZ4">
-        <v>1.032081713252259E-05</v>
+        <v>8.390299802696904E-06</v>
       </c>
       <c r="BA4">
-        <v>1.153065614805731E-05</v>
+        <v>9.600579522454093E-06</v>
       </c>
       <c r="BB4">
-        <v>9.280335119162472E-07</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>5.52022307088143E-06</v>
+        <v>3.587957043876896E-06</v>
       </c>
       <c r="BD4">
-        <v>6.726870086375164E-06</v>
+        <v>4.795043600853364E-06</v>
       </c>
       <c r="BE4">
-        <v>8.027971103081716E-08</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.40859266808678E-05</v>
+        <v>1.215678085556024E-05</v>
       </c>
       <c r="BG4">
-        <v>4.50045405778727E-05</v>
+        <v>4.308665737802384E-05</v>
       </c>
       <c r="BH4">
-        <v>7.093515791083012E-06</v>
+        <v>5.161822862429638E-06</v>
       </c>
       <c r="BI4">
-        <v>0.01093461314040393</v>
+        <v>0.01093666198040391</v>
       </c>
       <c r="BJ4">
-        <v>0.01921589724673827</v>
+        <v>0.01922096268384435</v>
       </c>
       <c r="BK4">
-        <v>0.07131880091575622</v>
+        <v>0.07134284571239277</v>
       </c>
       <c r="BL4">
-        <v>0.000991321012728879</v>
+        <v>0.0009897478412301025</v>
       </c>
       <c r="BM4">
-        <v>0.007289788793603221</v>
+        <v>0.007290509944994078</v>
       </c>
       <c r="BN4">
-        <v>0.01559110020019472</v>
+        <v>0.01559484524397286</v>
       </c>
       <c r="BO4">
-        <v>1.787815022956117E-07</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.004044177051928528</v>
+        <v>0.004043715934620258</v>
       </c>
       <c r="BQ4">
-        <v>0.03351637343036096</v>
+        <v>0.03352664805658767</v>
       </c>
       <c r="BR4">
-        <v>0.004509231557899975</v>
+        <v>0.004508939844522168</v>
       </c>
       <c r="BS4">
-        <v>0.01879046524127559</v>
+        <v>0.01879537570761385</v>
       </c>
       <c r="BT4">
-        <v>0.003578304045946569</v>
+        <v>0.003577673226555431</v>
       </c>
       <c r="BU4">
-        <v>0.004633008559489312</v>
+        <v>0.004632761933967447</v>
       </c>
       <c r="BV4">
-        <v>0.001744946322405669</v>
+        <v>0.001743647671609126</v>
       </c>
       <c r="BW4">
-        <v>0.0003142877540355553</v>
+        <v>0.0003124679617781268</v>
       </c>
       <c r="BX4">
-        <v>0.02336823230005558</v>
+        <v>0.02337481029508681</v>
       </c>
       <c r="BY4">
-        <v>0.009570639122890068</v>
+        <v>0.00957219111239908</v>
       </c>
       <c r="BZ4">
-        <v>0.003301230542388856</v>
+        <v>0.003300498794311023</v>
       </c>
       <c r="CA4">
-        <v>0.006083387078112636</v>
+        <v>0.006083668777375414</v>
       </c>
       <c r="CB4">
-        <v>0.001758812522583715</v>
+        <v>0.001757518922783949</v>
       </c>
       <c r="CC4">
-        <v>0.001254988116114449</v>
+        <v>0.001253510989795482</v>
       </c>
       <c r="CD4">
-        <v>0.001774202022781321</v>
+        <v>0.001772914028866001</v>
       </c>
       <c r="CE4">
-        <v>0.00449753045774973</v>
+        <v>0.00449723448204927</v>
       </c>
       <c r="CF4">
-        <v>0.003329340842749801</v>
+        <v>0.003328619334321958</v>
       </c>
       <c r="CG4">
-        <v>0.001373153617631732</v>
+        <v>0.001371719535085366</v>
       </c>
       <c r="CH4">
-        <v>0.009942631127666565</v>
+        <v>0.009944318621523779</v>
       </c>
       <c r="CI4">
-        <v>0.03418361843892859</v>
+        <v>0.03419413612037912</v>
       </c>
       <c r="CJ4">
-        <v>0.006575747084434696</v>
+        <v>0.00657620813411598</v>
       </c>
       <c r="CK4">
-        <v>0.0003717174747729713</v>
+        <v>0.0003699186022578384</v>
       </c>
       <c r="CL4">
-        <v>0.007434908095466598</v>
+        <v>0.007435682109005453</v>
       </c>
       <c r="CM4">
-        <v>0.000412443545295907</v>
+        <v>0.000410659507937364</v>
       </c>
       <c r="CN4">
-        <v>0.0112652641446496</v>
+        <v>0.01126743342984258</v>
       </c>
       <c r="CO4">
-        <v>8.967938115151195E-06</v>
+        <v>7.036927976375068E-06</v>
       </c>
       <c r="CP4">
-        <v>0.0005323324068353184</v>
+        <v>0.0005305920410122681</v>
       </c>
       <c r="CQ4">
-        <v>0.02341890330070621</v>
+        <v>0.0234254997535022</v>
       </c>
       <c r="CR4">
-        <v>0.01008745812952619</v>
+        <v>0.01008919837905621</v>
       </c>
       <c r="CS4">
-        <v>0.002183985228043069</v>
+        <v>0.002182846504556736</v>
       </c>
       <c r="CT4">
-        <v>0.007995349102662841</v>
+        <v>0.007996327266270545</v>
       </c>
       <c r="CU4">
-        <v>0.0001382104817746668</v>
+        <v>0.000136326550407514</v>
       </c>
       <c r="CV4">
-        <v>0.002518582232339402</v>
+        <v>0.002517565391443005</v>
       </c>
       <c r="CW4">
-        <v>0.0002080523626714589</v>
+        <v>0.0002061938723848309</v>
       </c>
       <c r="CX4">
-        <v>0.007406370095100161</v>
+        <v>0.007407133713192101</v>
       </c>
       <c r="CY4">
-        <v>0.03147052040409155</v>
+        <v>0.03148004979392264</v>
       </c>
       <c r="CZ4">
-        <v>0.0328146264213503</v>
+        <v>0.03282464542441889</v>
       </c>
       <c r="DA4">
-        <v>0.03508242645046958</v>
+        <v>0.03509327153786485</v>
       </c>
       <c r="DB4">
-        <v>0.01397624517945946</v>
+        <v>0.01397940198511899</v>
       </c>
       <c r="DC4">
-        <v>0.004207686054028035</v>
+        <v>0.004207284497625564</v>
       </c>
       <c r="DD4">
-        <v>0.04777108561339602</v>
+        <v>0.04778655275843596</v>
       </c>
       <c r="DE4">
-        <v>0.05786150374296022</v>
+        <v>0.05788064649262117</v>
       </c>
       <c r="DF4">
-        <v>0.02585388233197212</v>
+        <v>0.02586136576685988</v>
       </c>
       <c r="DG4">
-        <v>0.005581489071668106</v>
+        <v>0.005581587946135313</v>
       </c>
       <c r="DH4">
-        <v>0.0007563105397112693</v>
+        <v>0.0007546517616925729</v>
       </c>
       <c r="DI4">
-        <v>0.002059510426444773</v>
+        <v>0.002058326360917101</v>
       </c>
       <c r="DJ4">
-        <v>0.0005371708068974449</v>
+        <v>0.0005354322035430454</v>
       </c>
       <c r="DK4">
-        <v>0.0003388607343510802</v>
+        <v>0.0003370498932152841</v>
       </c>
       <c r="DL4">
-        <v>0.001752237422499289</v>
+        <v>0.001750941427608661</v>
       </c>
       <c r="DM4">
-        <v>0.005987214076877744</v>
+        <v>0.005987460743506273</v>
       </c>
       <c r="DN4">
-        <v>0.00558670107173503</v>
+        <v>0.005586801844760977</v>
       </c>
       <c r="DO4">
-        <v>0.01529425819638317</v>
+        <v>0.0152978951104657</v>
       </c>
       <c r="DP4">
-        <v>0.007289788793603221</v>
+        <v>0.007290509944994078</v>
       </c>
       <c r="DQ4">
-        <v>0.001089720213992356</v>
+        <v>0.001088182886058655</v>
       </c>
       <c r="DR4">
-        <v>0.0002574605833058762</v>
+        <v>0.0002556200907951331</v>
       </c>
       <c r="DS4">
-        <v>0.001531916319670296</v>
+        <v>0.001530540069110054</v>
       </c>
       <c r="DT4">
-        <v>0.004770497061254709</v>
+        <v>0.004770300518233484</v>
       </c>
       <c r="DU4">
-        <v>0.002661433834173662</v>
+        <v>0.002660469029377363</v>
       </c>
       <c r="DV4">
-        <v>0.002158798027719657</v>
+        <v>0.002157650129371717</v>
       </c>
       <c r="DW4">
-        <v>0.0002524493032415298</v>
+        <v>0.0002506069852876856</v>
       </c>
       <c r="DX4">
-        <v>0.005765348074028914</v>
+        <v>0.005765513922231998</v>
       </c>
       <c r="DY4">
-        <v>0.006531988383872821</v>
+        <v>0.006532433493710985</v>
       </c>
       <c r="DZ4">
-        <v>0.01075847113814221</v>
+        <v>0.01076045581545347</v>
       </c>
       <c r="EA4">
-        <v>0.01032348713255688</v>
+        <v>0.01032531335962351</v>
       </c>
       <c r="EB4">
-        <v>0.001706557221912741</v>
+        <v>0.001705244587240271</v>
       </c>
       <c r="EC4">
-        <v>0.003591876046120838</v>
+        <v>0.003591250170559175</v>
       </c>
       <c r="ED4">
-        <v>0.007415376095215802</v>
+        <v>0.007416142993894851</v>
       </c>
       <c r="EE4">
-        <v>0.01887900424241246</v>
+        <v>0.01888394696057195</v>
       </c>
       <c r="EF4">
-        <v>0.009230850118527069</v>
+        <v>0.009232278334172742</v>
       </c>
       <c r="EG4">
-        <v>0.004141220453174596</v>
+        <v>0.004140794685558427</v>
       </c>
       <c r="EH4">
-        <v>0.007009680090006535</v>
+        <v>0.007010299207088001</v>
       </c>
       <c r="EI4">
-        <v>1.576942520248447E-05</v>
+        <v>1.384089261984595E-05</v>
       </c>
       <c r="EJ4">
-        <v>0.002501984032126276</v>
+        <v>0.002500961145056111</v>
       </c>
       <c r="EK4">
-        <v>0.007919137101684253</v>
+        <v>0.007920087503787986</v>
       </c>
       <c r="EL4">
-        <v>0.01013655213015657</v>
+        <v>0.01013831026300255</v>
       </c>
       <c r="EM4">
-        <v>0.005803806074522726</v>
+        <v>0.005803985931699721</v>
       </c>
       <c r="EN4">
-        <v>0.004278102054932199</v>
+        <v>0.004277726148743129</v>
       </c>
       <c r="EO4">
-        <v>0.002037414126161049</v>
+        <v>0.002036222011684128</v>
       </c>
       <c r="EP4">
-        <v>0.001103578014170295</v>
+        <v>0.001102045734173529</v>
       </c>
       <c r="EQ4">
-        <v>0.0005424372069650673</v>
+        <v>0.0005407005219855236</v>
       </c>
       <c r="ER4">
-        <v>0.0002853136436635184</v>
+        <v>0.0002834832970987653</v>
       </c>
       <c r="ES4">
-        <v>0.0003643585746784806</v>
+        <v>0.0003625570215601413</v>
       </c>
       <c r="ET4">
-        <v>0.001000124112841914</v>
+        <v>0.0009985541480205054</v>
       </c>
       <c r="EU4">
-        <v>0.002215059028442067</v>
+        <v>0.002213931624110487</v>
       </c>
       <c r="EV4">
-        <v>0.004306660555298899</v>
+        <v>0.004306295052024214</v>
       </c>
       <c r="EW4">
-        <v>0.004611670559215325</v>
+        <v>0.004611416160967751</v>
       </c>
       <c r="EX4">
-        <v>0.003699255247499621</v>
+        <v>0.003698668486619205</v>
       </c>
       <c r="EY4">
-        <v>0.006519312083710053</v>
+        <v>0.006519752575992546</v>
       </c>
       <c r="EZ4">
-        <v>0.0002080523626714589</v>
+        <v>0.0002061938723848309</v>
       </c>
       <c r="FA4">
-        <v>0.0004763589061166008</v>
+        <v>0.0004745981510039042</v>
       </c>
       <c r="FB4">
-        <v>0.0009962680127924</v>
+        <v>0.0009946966433216525</v>
       </c>
       <c r="FC4">
-        <v>0.002501984032126276</v>
+        <v>0.002500961145056111</v>
       </c>
       <c r="FD4">
-        <v>0.003116548840017484</v>
+        <v>0.00311574981852145</v>
       </c>
       <c r="FE4">
-        <v>0.008684681111514084</v>
+        <v>0.008685910375907168</v>
       </c>
       <c r="FF4">
-        <v>0.008918596114517629</v>
+        <v>0.008919910586387242</v>
       </c>
       <c r="FG4">
-        <v>0.01067904213712232</v>
+        <v>0.0106809978810832</v>
       </c>
       <c r="FH4">
-        <v>0.0007693128098782226</v>
+        <v>0.000767658768155257</v>
       </c>
       <c r="FI4">
-        <v>0.0007296962093695328</v>
+        <v>0.0007280277366331019</v>
       </c>
       <c r="FJ4">
-        <v>0.006506648083547444</v>
+        <v>0.006507083962754749</v>
       </c>
       <c r="FK4">
-        <v>0.0134980591733194</v>
+        <v>0.01350104179167854</v>
       </c>
       <c r="FL4">
-        <v>0.01317788616920827</v>
+        <v>0.01318075215916229</v>
       </c>
       <c r="FM4">
-        <v>0.006092910078234914</v>
+        <v>0.006093195246410755</v>
       </c>
       <c r="FN4">
-        <v>0.004197513053897411</v>
+        <v>0.004197107791808436</v>
       </c>
       <c r="FO4">
-        <v>0.0005745747573777237</v>
+        <v>0.0005728497790417787</v>
       </c>
       <c r="FP4">
-        <v>0.0007515230096497959</v>
+        <v>0.0007498624876927025</v>
       </c>
       <c r="FQ4">
-        <v>0.0006275690080581868</v>
+        <v>0.0006258633337699222</v>
       </c>
       <c r="FR4">
-        <v>0.002261252129035201</v>
+        <v>0.002260141551317923</v>
       </c>
       <c r="FS4">
-        <v>0.004770497061254709</v>
+        <v>0.004770300518233484</v>
       </c>
       <c r="FT4">
-        <v>0.003239410041595061</v>
+        <v>0.003238655774359401</v>
       </c>
       <c r="FU4">
-        <v>0.002499368032092685</v>
+        <v>0.002498344192100482</v>
       </c>
       <c r="FV4">
-        <v>0.00318998054096037</v>
+        <v>0.003189208268197228</v>
       </c>
       <c r="FW4">
-        <v>0.004284947055020091</v>
+        <v>0.004284573642237501</v>
       </c>
       <c r="FX4">
-        <v>0.0008768036112584388</v>
+        <v>0.000875188724868899</v>
       </c>
       <c r="FY4">
-        <v>1.721520122104869E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001609303420663971</v>
+        <v>0.001607955359657657</v>
       </c>
       <c r="GA4">
-        <v>0.006092910078234914</v>
+        <v>0.006093195246410755</v>
       </c>
       <c r="GB4">
-        <v>0.007857193100888874</v>
+        <v>0.007858120938847827</v>
       </c>
       <c r="GC4">
-        <v>0.005071352065117783</v>
+        <v>0.005071265113594972</v>
       </c>
       <c r="GD4">
-        <v>0.001087994213970194</v>
+        <v>0.001086456257311937</v>
       </c>
       <c r="GE4">
-        <v>0.001589777920413257</v>
+        <v>0.001588422746914872</v>
       </c>
       <c r="GF4">
-        <v>0.0006738180586520395</v>
+        <v>0.0006721292313588049</v>
       </c>
       <c r="GG4">
-        <v>0.0001978686825406972</v>
+        <v>0.0001960064826771947</v>
       </c>
       <c r="GH4">
-        <v>0.0007119080091411266</v>
+        <v>0.0007102330567533948</v>
       </c>
       <c r="GI4">
-        <v>0.007640782398110091</v>
+        <v>0.007641631404828458</v>
       </c>
       <c r="GJ4">
-        <v>0.01732404022244622</v>
+        <v>0.01732841651879208</v>
       </c>
       <c r="GK4">
-        <v>0.007211101792592854</v>
+        <v>0.007211794280919326</v>
       </c>
       <c r="GL4">
-        <v>0.0003102821639841223</v>
+        <v>0.0003084609126231052</v>
       </c>
       <c r="GM4">
-        <v>0.0002255057228955656</v>
+        <v>0.0002236535902891317</v>
       </c>
       <c r="GN4">
-        <v>0.002368626430413921</v>
+        <v>0.002367554965592982</v>
       </c>
       <c r="GO4">
-        <v>0.003002747238556235</v>
+        <v>0.003001906762911637</v>
       </c>
       <c r="GP4">
-        <v>0.0006679470085766533</v>
+        <v>0.0006662560426546215</v>
       </c>
       <c r="GQ4">
-        <v>0.0010753782138082</v>
+        <v>0.001073835661559563</v>
       </c>
       <c r="GR4">
-        <v>0.001919542124647535</v>
+        <v>0.001918307073310329</v>
       </c>
       <c r="GS4">
-        <v>0.001583527220332996</v>
+        <v>0.00158216976991191</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.268326446761047E-08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.847519055047751E-05</v>
+        <v>3.481239476552201E-05</v>
       </c>
       <c r="D5">
-        <v>2.274724832545254E-05</v>
+        <v>1.9073901618199E-05</v>
       </c>
       <c r="E5">
-        <v>5.38233707700691E-07</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.162892516637895E-05</v>
+        <v>7.948119850614666E-06</v>
       </c>
       <c r="G5">
-        <v>2.974694542559957E-05</v>
+        <v>2.607829439049161E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001563973222376292</v>
+        <v>0.0001528136332570381</v>
       </c>
       <c r="I5">
-        <v>2.338901033463445E-05</v>
+        <v>1.971609414658016E-05</v>
       </c>
       <c r="J5">
-        <v>1.9867219284247E-05</v>
+        <v>1.61919405402276E-05</v>
       </c>
       <c r="K5">
-        <v>3.686133652738756E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.817452297539587E-06</v>
+        <v>3.133419256517164E-06</v>
       </c>
       <c r="M5">
-        <v>4.62117306611668E-06</v>
+        <v>9.356666745958891E-07</v>
       </c>
       <c r="N5">
-        <v>5.876702384079961E-07</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5.886061084213859E-10</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.962605728079661E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.037838814848709E-05</v>
+        <v>6.696743923301741E-06</v>
       </c>
       <c r="R5">
-        <v>4.411104063111152E-06</v>
+        <v>7.25456749040149E-07</v>
       </c>
       <c r="S5">
-        <v>2.057063929431106E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3.286371847019229E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.399172220018428E-05</v>
+        <v>1.031250194161013E-05</v>
       </c>
       <c r="V5">
-        <v>2.008814628740788E-05</v>
+        <v>1.641301574991229E-05</v>
       </c>
       <c r="W5">
-        <v>5.744891382194097E-05</v>
+        <v>5.379884635688119E-05</v>
       </c>
       <c r="X5">
-        <v>5.744891382194097E-05</v>
+        <v>5.379884635688119E-05</v>
       </c>
       <c r="Y5">
-        <v>8.363818119663963E-06</v>
+        <v>4.680822441660818E-06</v>
       </c>
       <c r="Z5">
-        <v>7.192250102901945E-07</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>3.143216544971058E-07</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.179809316879929E-05</v>
+        <v>8.117401337585202E-06</v>
       </c>
       <c r="AC5">
-        <v>1.361769719483298E-05</v>
+        <v>9.938226025573087E-06</v>
       </c>
       <c r="AD5">
-        <v>1.826556726133162E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.5691180224499E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.983202528374347E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.814179840263419E-05</v>
+        <v>2.447207057176529E-05</v>
       </c>
       <c r="AH5">
-        <v>4.205921060175529E-06</v>
+        <v>5.201361012753506E-07</v>
       </c>
       <c r="AI5">
-        <v>7.490101707163408E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>8.080363115608478E-06</v>
+        <v>4.397177284839002E-06</v>
       </c>
       <c r="AK5">
-        <v>4.515527564605174E-06</v>
+        <v>8.299503019264373E-07</v>
       </c>
       <c r="AL5">
-        <v>9.288136132888492E-06</v>
+        <v>5.605760523766367E-06</v>
       </c>
       <c r="AM5">
-        <v>3.778120854054848E-06</v>
+        <v>9.204890994902121E-08</v>
       </c>
       <c r="AN5">
-        <v>7.254436303791665E-06</v>
+        <v>3.57069640882926E-06</v>
       </c>
       <c r="AO5">
-        <v>6.689003495701826E-06</v>
+        <v>3.004884286170639E-06</v>
       </c>
       <c r="AP5">
-        <v>9.927276142032884E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.495389050009709E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>9.73930513934352E-05</v>
+        <v>9.376978002704806E-05</v>
       </c>
       <c r="AS5">
-        <v>3.507887250188524E-05</v>
+        <v>3.141379833318967E-05</v>
       </c>
       <c r="AT5">
-        <v>9.318540133323493E-08</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1.633130223365744E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.618798109004712E-06</v>
+        <v>3.935302642273297E-06</v>
       </c>
       <c r="AW5">
-        <v>1.374628819667278E-05</v>
+        <v>1.0066903291315E-05</v>
       </c>
       <c r="AX5">
-        <v>4.484420564160116E-06</v>
+        <v>7.988224336818973E-07</v>
       </c>
       <c r="AY5">
-        <v>3.403588448696287E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.374628819667278E-05</v>
+        <v>1.0066903291315E-05</v>
       </c>
       <c r="BA5">
-        <v>5.34164257642468E-08</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.146097766397607E-05</v>
+        <v>7.780059682421011E-06</v>
       </c>
       <c r="BC5">
-        <v>1.515814521687269E-08</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.556773922273289E-05</v>
+        <v>1.188957621836958E-05</v>
       </c>
       <c r="BE5">
-        <v>5.411325877421662E-05</v>
+        <v>5.046095362054393E-05</v>
       </c>
       <c r="BF5">
-        <v>3.143216544971058E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.008814628740788E-05</v>
+        <v>1.641301574991229E-05</v>
       </c>
       <c r="BH5">
-        <v>5.984616085623919E-05</v>
+        <v>5.619770155878496E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0003997729857196868</v>
+        <v>0.0003963525627072621</v>
       </c>
       <c r="BJ5">
-        <v>0.07270174604016837</v>
+        <v>0.07274682862465548</v>
       </c>
       <c r="BK5">
-        <v>0.04329662861945945</v>
+        <v>0.04332198509454001</v>
       </c>
       <c r="BL5">
-        <v>0.01492788571357829</v>
+        <v>0.01493421132004231</v>
       </c>
       <c r="BM5">
-        <v>0.001603671322944266</v>
+        <v>0.001601058522291401</v>
       </c>
       <c r="BN5">
-        <v>0.01267663918136895</v>
+        <v>0.01268145456310711</v>
       </c>
       <c r="BO5">
-        <v>0.002719376038907029</v>
+        <v>0.002717511696863515</v>
       </c>
       <c r="BP5">
-        <v>0.00576038158241572</v>
+        <v>0.005760557266507756</v>
       </c>
       <c r="BQ5">
-        <v>0.02167936231017394</v>
+        <v>0.02169021707270609</v>
       </c>
       <c r="BR5">
-        <v>0.004969260071096877</v>
+        <v>0.004968905039760613</v>
       </c>
       <c r="BS5">
-        <v>0.01313688518795384</v>
+        <v>0.01314200932081684</v>
       </c>
       <c r="BT5">
-        <v>0.01287383318419027</v>
+        <v>0.01287878085142208</v>
       </c>
       <c r="BU5">
-        <v>0.003901468655819626</v>
+        <v>0.003900397308000766</v>
       </c>
       <c r="BV5">
-        <v>4.202841660131472E-05</v>
+        <v>3.836800446015911E-05</v>
       </c>
       <c r="BW5">
-        <v>1.723536824659222E-05</v>
+        <v>1.355832395337376E-05</v>
       </c>
       <c r="BX5">
-        <v>0.009882272141388995</v>
+        <v>0.009885212951801215</v>
       </c>
       <c r="BY5">
-        <v>0.0197220912821706</v>
+        <v>0.01973163303030855</v>
       </c>
       <c r="BZ5">
-        <v>0.00276510373956127</v>
+        <v>0.002763270073458039</v>
       </c>
       <c r="CA5">
-        <v>0.007866244112545004</v>
+        <v>0.007867832492055669</v>
       </c>
       <c r="CB5">
-        <v>6.947121699394811E-06</v>
+        <v>3.263175645707656E-06</v>
       </c>
       <c r="CC5">
-        <v>0.005734150882040428</v>
+        <v>0.005734308969546877</v>
       </c>
       <c r="CD5">
-        <v>0.000104173751490449</v>
+        <v>0.0001005550288844035</v>
       </c>
       <c r="CE5">
-        <v>0.00167235102392689</v>
+        <v>0.001669784296318938</v>
       </c>
       <c r="CF5">
-        <v>0.00477162246826921</v>
+        <v>0.004771134853854958</v>
       </c>
       <c r="CG5">
-        <v>3.353489647979506E-05</v>
+        <v>2.986878655125208E-05</v>
       </c>
       <c r="CH5">
-        <v>0.003749523353645694</v>
+        <v>0.003748350074941416</v>
       </c>
       <c r="CI5">
-        <v>0.02688099338459543</v>
+        <v>0.02689533760585677</v>
       </c>
       <c r="CJ5">
-        <v>0.01799810925750502</v>
+        <v>0.01800649449068854</v>
       </c>
       <c r="CK5">
-        <v>0.0001520778321758288</v>
+        <v>0.0001484912455113985</v>
       </c>
       <c r="CL5">
-        <v>0.003287500747035381</v>
+        <v>0.00328601752539308</v>
       </c>
       <c r="CM5">
-        <v>0.0006222289589024393</v>
+        <v>0.000618957768107059</v>
       </c>
       <c r="CN5">
-        <v>0.01103607315789682</v>
+        <v>0.0110397879834153</v>
       </c>
       <c r="CO5">
-        <v>0.002937523242028135</v>
+        <v>0.002935805241709223</v>
       </c>
       <c r="CP5">
-        <v>0.000115391217650941</v>
+        <v>0.0001117800201624314</v>
       </c>
       <c r="CQ5">
-        <v>0.01268777268152824</v>
+        <v>0.01269259553205624</v>
       </c>
       <c r="CR5">
-        <v>0.02027428529007103</v>
+        <v>0.02028419747166985</v>
       </c>
       <c r="CS5">
-        <v>0.0007748984110867327</v>
+        <v>0.0007717296369650809</v>
       </c>
       <c r="CT5">
-        <v>0.008496519121562561</v>
+        <v>0.008498530314340938</v>
       </c>
       <c r="CU5">
-        <v>0.0008644914623685706</v>
+        <v>0.0008613827907898323</v>
       </c>
       <c r="CV5">
-        <v>0.002167954031017649</v>
+        <v>0.002165719773401237</v>
       </c>
       <c r="CW5">
-        <v>0.001043896114935373</v>
+        <v>0.001040907795054401</v>
       </c>
       <c r="CX5">
-        <v>0.0005798231682957255</v>
+        <v>0.0005765235300279883</v>
       </c>
       <c r="CY5">
-        <v>0.02048807629312981</v>
+        <v>0.02049813189414288</v>
       </c>
       <c r="CZ5">
-        <v>0.0282098764036082</v>
+        <v>0.02822511209186988</v>
       </c>
       <c r="DA5">
-        <v>0.03364321648134483</v>
+        <v>0.03366209706784932</v>
       </c>
       <c r="DB5">
-        <v>0.03334168747703076</v>
+        <v>0.03336036578601861</v>
       </c>
       <c r="DC5">
-        <v>0.0001578201922579867</v>
+        <v>0.0001542374577945734</v>
       </c>
       <c r="DD5">
-        <v>0.02827663240456331</v>
+        <v>0.02829191287537625</v>
       </c>
       <c r="DE5">
-        <v>0.06291364090012666</v>
+        <v>0.06295215723867389</v>
       </c>
       <c r="DF5">
-        <v>0.0425116986082292</v>
+        <v>0.04253652852138326</v>
       </c>
       <c r="DG5">
-        <v>0.01395972919972655</v>
+        <v>0.01396540532871895</v>
       </c>
       <c r="DH5">
-        <v>2.921021441792038E-05</v>
+        <v>2.554120332254032E-05</v>
       </c>
       <c r="DI5">
-        <v>0.002232873831946478</v>
+        <v>0.002230683125086128</v>
       </c>
       <c r="DJ5">
-        <v>2.124109030390343E-07</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001206904217267585</v>
+        <v>0.001204025249633528</v>
       </c>
       <c r="DL5">
-        <v>0.000229504763283602</v>
+        <v>0.000225970117650122</v>
       </c>
       <c r="DM5">
-        <v>0.006957282399540183</v>
+        <v>0.006958261011780052</v>
       </c>
       <c r="DN5">
-        <v>0.004086688058469622</v>
+        <v>0.004085740963111605</v>
       </c>
       <c r="DO5">
-        <v>0.01300314818604042</v>
+        <v>0.01300818260286204</v>
       </c>
       <c r="DP5">
-        <v>0.01061589815188523</v>
+        <v>0.01061933110748223</v>
       </c>
       <c r="DQ5">
-        <v>0.001290670718466061</v>
+        <v>0.001287847944695935</v>
       </c>
       <c r="DR5">
-        <v>0.001551249822194254</v>
+        <v>0.001548601855136704</v>
       </c>
       <c r="DS5">
-        <v>9.530843136360985E-05</v>
+        <v>9.168376155210885E-05</v>
       </c>
       <c r="DT5">
-        <v>0.003144653544991618</v>
+        <v>0.003143074495827338</v>
       </c>
       <c r="DU5">
-        <v>0.003474403449709461</v>
+        <v>0.003473045609751871</v>
       </c>
       <c r="DV5">
-        <v>0.00445057106367582</v>
+        <v>0.004449868075350915</v>
       </c>
       <c r="DW5">
-        <v>0.0001266457518119634</v>
+        <v>0.0001230421043076625</v>
       </c>
       <c r="DX5">
-        <v>0.001051955215050678</v>
+        <v>0.001048972301531064</v>
       </c>
       <c r="DY5">
-        <v>0.005995461385779086</v>
+        <v>0.005995794770650007</v>
       </c>
       <c r="DZ5">
-        <v>0.00671900869613112</v>
+        <v>0.006719827464998323</v>
       </c>
       <c r="EA5">
-        <v>0.01472126121062204</v>
+        <v>0.01472744820524197</v>
       </c>
       <c r="EB5">
-        <v>4.365786762462782E-05</v>
+        <v>3.999854858331257E-05</v>
       </c>
       <c r="EC5">
-        <v>0.003107703344462958</v>
+        <v>0.003106099507650739</v>
       </c>
       <c r="ED5">
-        <v>0.005889903084268827</v>
+        <v>0.005890165656478993</v>
       </c>
       <c r="EE5">
-        <v>0.01239603617735426</v>
+        <v>0.0124006633195599</v>
       </c>
       <c r="EF5">
-        <v>0.01760243625184399</v>
+        <v>0.01761055605201165</v>
       </c>
       <c r="EG5">
-        <v>0.004034194057718573</v>
+        <v>0.004033211747320017</v>
       </c>
       <c r="EH5">
-        <v>0.006257094489522358</v>
+        <v>0.006257603388170522</v>
       </c>
       <c r="EI5">
-        <v>0.003298846847197713</v>
+        <v>0.003297371236965697</v>
       </c>
       <c r="EJ5">
-        <v>0.001859930726610655</v>
+        <v>0.001857489834845651</v>
       </c>
       <c r="EK5">
-        <v>0.005410846377414802</v>
+        <v>0.005410787579542471</v>
       </c>
       <c r="EL5">
-        <v>0.01061947915193646</v>
+        <v>0.01062291450980916</v>
       </c>
       <c r="EM5">
-        <v>0.006965681099660346</v>
+        <v>0.006966665346078615</v>
       </c>
       <c r="EN5">
-        <v>0.00664762009510974</v>
+        <v>0.006648390973695331</v>
       </c>
       <c r="EO5">
-        <v>0.001112657715919169</v>
+        <v>0.001109715524024851</v>
       </c>
       <c r="EP5">
-        <v>0.00231625073313938</v>
+        <v>0.002314115958783954</v>
       </c>
       <c r="EQ5">
-        <v>0.0004279240461224535</v>
+        <v>0.0004245225079486598</v>
       </c>
       <c r="ER5">
-        <v>5.34164257642468E-08</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0004177231559765059</v>
+        <v>0.0004143147746443536</v>
       </c>
       <c r="ET5">
-        <v>0.0009245478532278176</v>
+        <v>0.0009214794698383662</v>
       </c>
       <c r="EU5">
-        <v>0.001451668120769505</v>
+        <v>0.001448953350389625</v>
       </c>
       <c r="EV5">
-        <v>0.003659272852354449</v>
+        <v>0.003658039030063931</v>
       </c>
       <c r="EW5">
-        <v>0.004410968063109207</v>
+        <v>0.00441023850753375</v>
       </c>
       <c r="EX5">
-        <v>0.003153797545122444</v>
+        <v>0.003152224630113128</v>
       </c>
       <c r="EY5">
-        <v>0.006216757588945245</v>
+        <v>0.006217239428013863</v>
       </c>
       <c r="EZ5">
-        <v>0.001382210819775756</v>
+        <v>0.001379449454706289</v>
       </c>
       <c r="FA5">
-        <v>0.0004364872362449699</v>
+        <v>0.0004330914425959408</v>
       </c>
       <c r="FB5">
-        <v>0.001264236218087854</v>
+        <v>0.001261395711015082</v>
       </c>
       <c r="FC5">
-        <v>0.001445466520680777</v>
+        <v>0.001442747590023619</v>
       </c>
       <c r="FD5">
-        <v>0.002538616336320839</v>
+        <v>0.002536630733558706</v>
       </c>
       <c r="FE5">
-        <v>0.005161694073850096</v>
+        <v>0.005161468134812208</v>
       </c>
       <c r="FF5">
-        <v>0.007448173106563522</v>
+        <v>0.007449481027598688</v>
       </c>
       <c r="FG5">
-        <v>0.01188612017005873</v>
+        <v>0.01189040524054929</v>
       </c>
       <c r="FH5">
-        <v>0.002370485633915337</v>
+        <v>0.002368387242464663</v>
       </c>
       <c r="FI5">
-        <v>3.296486047163936E-05</v>
+        <v>2.929836814051993E-05</v>
       </c>
       <c r="FJ5">
-        <v>0.004020601057524094</v>
+        <v>0.004019609628406333</v>
       </c>
       <c r="FK5">
-        <v>0.01214599517377685</v>
+        <v>0.012150454578642</v>
       </c>
       <c r="FL5">
-        <v>0.01597405222854615</v>
+        <v>0.01598107964465902</v>
       </c>
       <c r="FM5">
-        <v>0.008625933123414132</v>
+        <v>0.008628031132195409</v>
       </c>
       <c r="FN5">
-        <v>0.004506683064478633</v>
+        <v>0.004506017718291013</v>
       </c>
       <c r="FO5">
-        <v>0.002103992030102523</v>
+        <v>0.002101714864259972</v>
       </c>
       <c r="FP5">
-        <v>0.0002802368340094428</v>
+        <v>0.0002767362214445352</v>
       </c>
       <c r="FQ5">
-        <v>0.0008874099126964726</v>
+        <v>0.000884316615715704</v>
       </c>
       <c r="FR5">
-        <v>0.001397019319987626</v>
+        <v>0.001394267889042589</v>
       </c>
       <c r="FS5">
-        <v>0.004118464458924258</v>
+        <v>0.004117538680425581</v>
       </c>
       <c r="FT5">
-        <v>0.005426613677640389</v>
+        <v>0.005426565457093251</v>
       </c>
       <c r="FU5">
-        <v>0.002264211232394833</v>
+        <v>0.00226204154789535</v>
       </c>
       <c r="FV5">
-        <v>0.002937523242028135</v>
+        <v>0.002935805241709223</v>
       </c>
       <c r="FW5">
-        <v>0.004867703769643877</v>
+        <v>0.004867280610345915</v>
       </c>
       <c r="FX5">
-        <v>0.001622199023209348</v>
+        <v>0.001619598651666602</v>
       </c>
       <c r="FY5">
-        <v>0.0003311824047383382</v>
+        <v>0.0003277159684662031</v>
       </c>
       <c r="FZ5">
-        <v>0.0005845938083639805</v>
+        <v>0.0005812973704292526</v>
       </c>
       <c r="GA5">
-        <v>0.003486932549888719</v>
+        <v>0.003485583114944357</v>
       </c>
       <c r="GB5">
-        <v>0.007654182709510971</v>
+        <v>0.007655628829891114</v>
       </c>
       <c r="GC5">
-        <v>0.006363107091039116</v>
+        <v>0.006363687107110349</v>
       </c>
       <c r="GD5">
-        <v>0.00223053883191307</v>
+        <v>0.002228346558642852</v>
       </c>
       <c r="GE5">
-        <v>0.00144978552074257</v>
+        <v>0.00144706948744054</v>
       </c>
       <c r="GF5">
-        <v>0.000976869013976394</v>
+        <v>0.0009738357296796088</v>
       </c>
       <c r="GG5">
-        <v>6.333981090622402E-10</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0005286777075639701</v>
+        <v>0.000525343758909384</v>
       </c>
       <c r="GI5">
-        <v>0.003271564646807377</v>
+        <v>0.003270070734602202</v>
       </c>
       <c r="GJ5">
-        <v>0.01522933921789129</v>
+        <v>0.01523586705122357</v>
       </c>
       <c r="GK5">
-        <v>0.01061438715186361</v>
+        <v>0.01061781909382236</v>
       </c>
       <c r="GL5">
-        <v>0.001568892322446671</v>
+        <v>0.001566256190672252</v>
       </c>
       <c r="GM5">
-        <v>2.743367339250281E-06</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001053500115072781</v>
+        <v>0.001050518237932871</v>
       </c>
       <c r="GO5">
-        <v>0.003179758645493878</v>
+        <v>0.003178203146211863</v>
       </c>
       <c r="GP5">
-        <v>0.001349936119313991</v>
+        <v>0.001347153103105939</v>
       </c>
       <c r="GQ5">
-        <v>0.0006022533686166418</v>
+        <v>0.0005989687774095645</v>
       </c>
       <c r="GR5">
-        <v>0.002040987629201098</v>
+        <v>0.002038668197528165</v>
       </c>
       <c r="GS5">
-        <v>0.001749279225027527</v>
+        <v>0.001746764103882819</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.939356449204021E-05</v>
+        <v>1.587740236448348E-05</v>
       </c>
       <c r="C6">
-        <v>1.730633754670924E-05</v>
+        <v>1.3788779827908E-05</v>
       </c>
       <c r="D6">
-        <v>4.375478585396664E-07</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.324200334355387E-06</v>
+        <v>2.799299583415843E-06</v>
       </c>
       <c r="F6">
-        <v>2.436715036177114E-05</v>
+        <v>2.085431374364648E-05</v>
       </c>
       <c r="G6">
-        <v>5.642535852209668E-06</v>
+        <v>2.117179317108703E-06</v>
       </c>
       <c r="H6">
-        <v>6.962887817626768E-07</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.153334917407274E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.489348460990712E-05</v>
+        <v>1.137431357519867E-05</v>
       </c>
       <c r="K6">
-        <v>3.526771207626163E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.685584255850868E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.446616009725602E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.484172856357541E-06</v>
+        <v>1.958710434347172E-06</v>
       </c>
       <c r="O6">
-        <v>5.820588547546079E-06</v>
+        <v>2.295351064560279E-06</v>
       </c>
       <c r="P6">
-        <v>2.436715036177114E-05</v>
+        <v>2.085431374364648E-05</v>
       </c>
       <c r="Q6">
-        <v>1.18509366895981E-05</v>
+        <v>8.329731303403299E-06</v>
       </c>
       <c r="R6">
-        <v>2.876159024667116E-05</v>
+        <v>2.525169190118696E-05</v>
       </c>
       <c r="S6">
-        <v>2.564637632826542E-05</v>
+        <v>2.213439504432595E-05</v>
       </c>
       <c r="T6">
-        <v>1.599541058104528E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.768318853683869E-05</v>
+        <v>1.416588279348434E-05</v>
       </c>
       <c r="V6">
-        <v>1.8485553515823E-05</v>
+        <v>1.496878426110591E-05</v>
       </c>
       <c r="W6">
-        <v>1.606876857912387E-05</v>
+        <v>1.25503833794301E-05</v>
       </c>
       <c r="X6">
-        <v>4.303638287278318E-06</v>
+        <v>7.773865195228085E-07</v>
       </c>
       <c r="Y6">
-        <v>6.736826823547798E-06</v>
+        <v>3.212201968776065E-06</v>
       </c>
       <c r="Z6">
-        <v>1.244006867416744E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.748408328013186E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>5.060742167448115E-06</v>
+        <v>1.534996625212887E-06</v>
       </c>
       <c r="AC6">
-        <v>5.983702343273773E-06</v>
+        <v>2.458573923744482E-06</v>
       </c>
       <c r="AD6">
-        <v>1.482445761171509E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.74281642815965E-05</v>
+        <v>2.391737436195635E-05</v>
       </c>
       <c r="AF6">
-        <v>8.606056774588584E-06</v>
+        <v>5.082681750823235E-06</v>
       </c>
       <c r="AG6">
-        <v>1.860642751265704E-07</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.085559745374637E-05</v>
+        <v>1.734041289137731E-05</v>
       </c>
       <c r="AI6">
-        <v>3.531511907501993E-05</v>
+        <v>3.180960264280774E-05</v>
       </c>
       <c r="AJ6">
-        <v>3.944745396678507E-05</v>
+        <v>3.594470055486025E-05</v>
       </c>
       <c r="AK6">
-        <v>1.662727356449541E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.03042104681884E-05</v>
+        <v>1.6788657229643E-05</v>
       </c>
       <c r="AM6">
-        <v>6.096615340316335E-05</v>
+        <v>5.747778812885515E-05</v>
       </c>
       <c r="AN6">
-        <v>2.517081934072129E-05</v>
+        <v>2.165852008313284E-05</v>
       </c>
       <c r="AO6">
-        <v>1.162435269553283E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>6.494176829903331E-06</v>
+        <v>2.969389731055855E-06</v>
       </c>
       <c r="AQ6">
-        <v>2.525545533850449E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.028525220676313E-08</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>4.21504688959872E-06</v>
+        <v>6.887358866080494E-07</v>
       </c>
       <c r="AT6">
-        <v>2.594225932051559E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.7526698755172E-05</v>
+        <v>4.402934740233525E-05</v>
       </c>
       <c r="AV6">
-        <v>8.872401767612429E-06</v>
+        <v>5.349204831208932E-06</v>
       </c>
       <c r="AW6">
-        <v>1.341505164863051E-05</v>
+        <v>9.894892083134372E-06</v>
       </c>
       <c r="AX6">
-        <v>2.530748233714179E-05</v>
+        <v>2.179527445710175E-05</v>
       </c>
       <c r="AY6">
-        <v>9.298938256440508E-06</v>
+        <v>5.776026516905805E-06</v>
       </c>
       <c r="AZ6">
-        <v>6.154826238791665E-05</v>
+        <v>5.806028633156306E-05</v>
       </c>
       <c r="BA6">
-        <v>1.664105956413432E-05</v>
+        <v>1.312305701774511E-05</v>
       </c>
       <c r="BB6">
-        <v>6.807616821693654E-06</v>
+        <v>3.283039299533178E-06</v>
       </c>
       <c r="BC6">
-        <v>1.366209764215984E-05</v>
+        <v>1.014210326005515E-05</v>
       </c>
       <c r="BD6">
-        <v>3.170019916970258E-05</v>
+        <v>2.819226567854012E-05</v>
       </c>
       <c r="BE6">
-        <v>3.685179903477093E-05</v>
+        <v>3.334731007927957E-05</v>
       </c>
       <c r="BF6">
-        <v>1.745153354290624E-07</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>1.042452972695881E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.241337767486654E-05</v>
+        <v>8.892548355929951E-06</v>
       </c>
       <c r="BI6">
-        <v>0.0001075159471839226</v>
+        <v>0.000104058706692082</v>
       </c>
       <c r="BJ6">
-        <v>0.05930217244674664</v>
+        <v>0.05933829477594033</v>
       </c>
       <c r="BK6">
-        <v>0.01158770469649272</v>
+        <v>0.01159192350241242</v>
       </c>
       <c r="BL6">
-        <v>0.03869077498660414</v>
+        <v>0.03871311583127995</v>
       </c>
       <c r="BM6">
-        <v>0.002122498744407124</v>
+        <v>0.002120388790254185</v>
       </c>
       <c r="BN6">
-        <v>0.006532013828912298</v>
+        <v>0.006532852227193297</v>
       </c>
       <c r="BO6">
-        <v>0.001873120050938897</v>
+        <v>0.001870843353671632</v>
       </c>
       <c r="BP6">
-        <v>0.000819944178523872</v>
+        <v>0.0008169632918871882</v>
       </c>
       <c r="BQ6">
-        <v>0.02556786433032181</v>
+        <v>0.02558143074859646</v>
       </c>
       <c r="BR6">
-        <v>0.00726476710971989</v>
+        <v>0.007266095451878512</v>
       </c>
       <c r="BS6">
-        <v>0.00903961576323273</v>
+        <v>0.00904213082983773</v>
       </c>
       <c r="BT6">
-        <v>0.02810176526395342</v>
+        <v>0.0281170259349615</v>
       </c>
       <c r="BU6">
-        <v>0.001393965163489009</v>
+        <v>0.001391368086893956</v>
       </c>
       <c r="BV6">
-        <v>0.0006301346434953981</v>
+        <v>0.0006270268437188654</v>
       </c>
       <c r="BW6">
-        <v>0.0001350518064626984</v>
+        <v>0.0001316129773871177</v>
       </c>
       <c r="BX6">
-        <v>0.005302358861119646</v>
+        <v>0.005302375070078754</v>
       </c>
       <c r="BY6">
-        <v>0.02235608441444534</v>
+        <v>0.0223675033269397</v>
       </c>
       <c r="BZ6">
-        <v>0.00902875176351728</v>
+        <v>0.009031259566080909</v>
       </c>
       <c r="CA6">
-        <v>0.004973293169738595</v>
+        <v>0.004973089354134114</v>
       </c>
       <c r="CB6">
-        <v>0.002095779945106948</v>
+        <v>0.002093652125851965</v>
       </c>
       <c r="CC6">
-        <v>0.003248213514922197</v>
+        <v>0.003246856252124194</v>
       </c>
       <c r="CD6">
-        <v>0.001684362755882862</v>
+        <v>0.001681959849039343</v>
       </c>
       <c r="CE6">
-        <v>0.001164728769493211</v>
+        <v>0.001161978417613408</v>
       </c>
       <c r="CF6">
-        <v>0.005930197244675188</v>
+        <v>0.005930633247827263</v>
       </c>
       <c r="CG6">
-        <v>2.202036142323866E-05</v>
+        <v>1.850595566185307E-05</v>
       </c>
       <c r="CH6">
-        <v>0.001558389359182381</v>
+        <v>0.001555902222222022</v>
       </c>
       <c r="CI6">
-        <v>0.0195671854874927</v>
+        <v>0.01957673964688344</v>
       </c>
       <c r="CJ6">
-        <v>0.03092380319003809</v>
+        <v>0.03094095077201678</v>
       </c>
       <c r="CK6">
-        <v>0.0008339615081567275</v>
+        <v>0.0008309899939855299</v>
       </c>
       <c r="CL6">
-        <v>0.001182110169037954</v>
+        <v>0.001179371438955712</v>
       </c>
       <c r="CM6">
-        <v>0.001323988465321852</v>
+        <v>0.001321344599915692</v>
       </c>
       <c r="CN6">
-        <v>0.006815886821477044</v>
+        <v>0.006816915026939221</v>
       </c>
       <c r="CO6">
-        <v>0.008277114283204308</v>
+        <v>0.008279119515269355</v>
       </c>
       <c r="CP6">
-        <v>0.0001594543358235428</v>
+        <v>0.0001560318231127905</v>
       </c>
       <c r="CQ6">
-        <v>0.005001053869011481</v>
+        <v>0.005000868615158961</v>
       </c>
       <c r="CR6">
-        <v>0.02353259438362998</v>
+        <v>0.02354479995088449</v>
       </c>
       <c r="CS6">
-        <v>0.001812372752530001</v>
+        <v>0.001810055437543625</v>
       </c>
       <c r="CT6">
-        <v>0.003567311606564321</v>
+        <v>0.003566167703652185</v>
       </c>
       <c r="CU6">
-        <v>0.001368253564162452</v>
+        <v>0.001365639295913668</v>
       </c>
       <c r="CV6">
-        <v>0.0005856626546602165</v>
+        <v>0.0005825251193925899</v>
       </c>
       <c r="CW6">
-        <v>0.001876026650862766</v>
+        <v>0.001873751897047513</v>
       </c>
       <c r="CX6">
-        <v>7.479863404086048E-06</v>
+        <v>3.955735368957462E-06</v>
       </c>
       <c r="CY6">
-        <v>0.01298902765978901</v>
+        <v>0.01299418343811733</v>
       </c>
       <c r="CZ6">
-        <v>0.03130378518008553</v>
+        <v>0.03132118683100463</v>
       </c>
       <c r="DA6">
-        <v>0.03829056899708641</v>
+        <v>0.03831264225036483</v>
       </c>
       <c r="DB6">
-        <v>0.0385772539895775</v>
+        <v>0.03859951893023631</v>
       </c>
       <c r="DC6">
-        <v>0.004032616394376973</v>
+        <v>0.004031783610142827</v>
       </c>
       <c r="DD6">
-        <v>0.01810162852587883</v>
+        <v>0.01811020276381517</v>
       </c>
       <c r="DE6">
-        <v>0.06432360831522428</v>
+        <v>0.06436308814799398</v>
       </c>
       <c r="DF6">
-        <v>0.053510888598433</v>
+        <v>0.05354313867738997</v>
       </c>
       <c r="DG6">
-        <v>0.02258944440833313</v>
+        <v>0.02260101935329201</v>
       </c>
       <c r="DH6">
-        <v>0.001229463667797663</v>
+        <v>0.001226756599882495</v>
       </c>
       <c r="DI6">
-        <v>0.001821266452297055</v>
+        <v>0.001818955083942191</v>
       </c>
       <c r="DJ6">
-        <v>0.0004275907288004653</v>
+        <v>0.0004243475012427764</v>
       </c>
       <c r="DK6">
-        <v>0.001183586768999279</v>
+        <v>0.001180849026222218</v>
       </c>
       <c r="DL6">
-        <v>1.939460549201294E-06</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005747893249450128</v>
+        <v>0.005748207357922689</v>
       </c>
       <c r="DN6">
-        <v>0.004664717577820864</v>
+        <v>0.004664307438033326</v>
       </c>
       <c r="DO6">
-        <v>0.009292521256608581</v>
+        <v>0.009295205424466817</v>
       </c>
       <c r="DP6">
-        <v>0.01267199866809269</v>
+        <v>0.01267694247000606</v>
       </c>
       <c r="DQ6">
-        <v>0.0018360592519096</v>
+        <v>0.001833757774525944</v>
       </c>
       <c r="DR6">
-        <v>0.001204379668454667</v>
+        <v>0.001201655828520559</v>
       </c>
       <c r="DS6">
-        <v>2.693628729447983E-05</v>
+        <v>2.342516848908141E-05</v>
       </c>
       <c r="DT6">
-        <v>0.001629784857312377</v>
+        <v>0.001627345457821252</v>
       </c>
       <c r="DU6">
-        <v>0.004364424885686185</v>
+        <v>0.004363813959945366</v>
       </c>
       <c r="DV6">
-        <v>0.004600215879510304</v>
+        <v>0.004599762611683614</v>
       </c>
       <c r="DW6">
-        <v>0.0008166740786095231</v>
+        <v>0.0008136910054723156</v>
       </c>
       <c r="DX6">
-        <v>3.356201612093753E-05</v>
+        <v>3.005532750419653E-05</v>
       </c>
       <c r="DY6">
-        <v>0.004966642069912802</v>
+        <v>0.004966433807155746</v>
       </c>
       <c r="DZ6">
-        <v>0.004938977170637406</v>
+        <v>0.00493875041018354</v>
       </c>
       <c r="EA6">
-        <v>0.01420758362787237</v>
+        <v>0.01421355417435219</v>
       </c>
       <c r="EB6">
-        <v>0.001449097462044974</v>
+        <v>0.001446537248788297</v>
       </c>
       <c r="EC6">
-        <v>0.001809207552612904</v>
+        <v>0.001806888121265726</v>
       </c>
       <c r="ED6">
-        <v>0.00550143985590528</v>
+        <v>0.005501589177218985</v>
       </c>
       <c r="EE6">
-        <v>0.009201797758984829</v>
+        <v>0.009204421266013041</v>
       </c>
       <c r="EF6">
-        <v>0.02019460247105927</v>
+        <v>0.02020457614288055</v>
       </c>
       <c r="EG6">
-        <v>0.007735884097380307</v>
+        <v>0.007737527444452308</v>
       </c>
       <c r="EH6">
-        <v>0.005339371860150195</v>
+        <v>0.005339412817264981</v>
       </c>
       <c r="EI6">
-        <v>0.006155424138776004</v>
+        <v>0.006156010736324217</v>
       </c>
       <c r="EJ6">
-        <v>0.000414277189149176</v>
+        <v>0.0004110250597040272</v>
       </c>
       <c r="EK6">
-        <v>0.004518463181651585</v>
+        <v>0.004517955251178075</v>
       </c>
       <c r="EL6">
-        <v>0.01085654771564331</v>
+        <v>0.01086027764502609</v>
       </c>
       <c r="EM6">
-        <v>0.007563607101892618</v>
+        <v>0.007565135258679695</v>
       </c>
       <c r="EN6">
-        <v>0.006938460118266583</v>
+        <v>0.006939570280422637</v>
       </c>
       <c r="EO6">
-        <v>0.0009232958258168667</v>
+        <v>0.0009203840436225101</v>
       </c>
       <c r="EP6">
-        <v>0.002675310629927774</v>
+        <v>0.002673570304687981</v>
       </c>
       <c r="EQ6">
-        <v>0.0005889893845730822</v>
+        <v>0.000585854073670731</v>
       </c>
       <c r="ER6">
-        <v>0.0001412857062994189</v>
+        <v>0.0001378510454222465</v>
       </c>
       <c r="ES6">
-        <v>0.0002641252330819835</v>
+        <v>0.0002607727069091567</v>
       </c>
       <c r="ET6">
-        <v>0.000785200379433888</v>
+        <v>0.0007821962619061316</v>
       </c>
       <c r="EU6">
-        <v>0.0014462673621191</v>
+        <v>0.001443705256560924</v>
       </c>
       <c r="EV6">
-        <v>0.003228527615437814</v>
+        <v>0.003227157189974858</v>
       </c>
       <c r="EW6">
-        <v>0.003472410709049983</v>
+        <v>0.003471203352155536</v>
       </c>
       <c r="EX6">
-        <v>0.003435446810018148</v>
+        <v>0.003434214737797959</v>
       </c>
       <c r="EY6">
-        <v>0.004130054591824854</v>
+        <v>0.00412928695809844</v>
       </c>
       <c r="EZ6">
-        <v>0.002937864623050912</v>
+        <v>0.00293629985038092</v>
       </c>
       <c r="FA6">
-        <v>0.000353035940753218</v>
+        <v>0.0003497428633171211</v>
       </c>
       <c r="FB6">
-        <v>0.001256628067086167</v>
+        <v>0.001253939162216419</v>
       </c>
       <c r="FC6">
-        <v>0.001047624272560433</v>
+        <v>0.001044795620613176</v>
       </c>
       <c r="FD6">
-        <v>0.002314269939384218</v>
+        <v>0.002312288210003989</v>
       </c>
       <c r="FE6">
-        <v>0.003632407504859318</v>
+        <v>0.003631307127288744</v>
       </c>
       <c r="FF6">
-        <v>0.00689791641932851</v>
+        <v>0.006898999472582303</v>
       </c>
       <c r="FG6">
-        <v>0.01166060369458333</v>
+        <v>0.01166487124326371</v>
       </c>
       <c r="FH6">
-        <v>0.005986028843212837</v>
+        <v>0.005986502177279147</v>
       </c>
       <c r="FI6">
-        <v>5.600449853311992E-05</v>
+        <v>5.251281572685365E-05</v>
       </c>
       <c r="FJ6">
-        <v>0.002145939943793148</v>
+        <v>0.002143845663226973</v>
       </c>
       <c r="FK6">
-        <v>0.009562748749530734</v>
+        <v>0.009565613600722897</v>
       </c>
       <c r="FL6">
-        <v>0.01575496358734311</v>
+        <v>0.01576196876492914</v>
       </c>
       <c r="FM6">
-        <v>0.01059966572237162</v>
+        <v>0.01060322389167747</v>
       </c>
       <c r="FN6">
-        <v>0.004803193874193866</v>
+        <v>0.004802876324389044</v>
       </c>
       <c r="FO6">
-        <v>0.002539048633496774</v>
+        <v>0.002537217198830857</v>
       </c>
       <c r="FP6">
-        <v>8.004817790336346E-06</v>
+        <v>4.481040757645157E-06</v>
       </c>
       <c r="FQ6">
-        <v>0.0009978445738642724</v>
+        <v>0.0009949826375097734</v>
       </c>
       <c r="FR6">
-        <v>0.001515075960316853</v>
+        <v>0.001512559862538236</v>
       </c>
       <c r="FS6">
-        <v>0.003261427914576083</v>
+        <v>0.00326007948737715</v>
       </c>
       <c r="FT6">
-        <v>0.004697778576954924</v>
+        <v>0.004697390542880917</v>
       </c>
       <c r="FU6">
-        <v>0.002464906235438724</v>
+        <v>0.002463025226632435</v>
       </c>
       <c r="FV6">
-        <v>0.002323355939146236</v>
+        <v>0.002321380284975865</v>
       </c>
       <c r="FW6">
-        <v>0.003445343509758932</v>
+        <v>0.003444118054810305</v>
       </c>
       <c r="FX6">
-        <v>0.00299587322153154</v>
+        <v>0.002994347235392322</v>
       </c>
       <c r="FY6">
-        <v>0.000498853986933925</v>
+        <v>0.0004956584084252906</v>
       </c>
       <c r="FZ6">
-        <v>0.000260052323188662</v>
+        <v>0.0002566970737291319</v>
       </c>
       <c r="GA6">
-        <v>0.0029892239217057</v>
+        <v>0.002987693489617448</v>
       </c>
       <c r="GB6">
-        <v>0.008799048769533703</v>
+        <v>0.008801402984827889</v>
       </c>
       <c r="GC6">
-        <v>0.006741150123434562</v>
+        <v>0.006742128357387094</v>
       </c>
       <c r="GD6">
-        <v>0.003209792715928522</v>
+        <v>0.003208409763671688</v>
       </c>
       <c r="GE6">
-        <v>0.000889810976693908</v>
+        <v>0.000886876805385438</v>
       </c>
       <c r="GF6">
-        <v>0.0008945076765708912</v>
+        <v>0.0008915766456364189</v>
       </c>
       <c r="GG6">
-        <v>0.0002492631234712547</v>
+        <v>0.000245900659984187</v>
       </c>
       <c r="GH6">
-        <v>0.0004814485573898112</v>
+        <v>0.0004782413410163375</v>
       </c>
       <c r="GI6">
-        <v>0.001617746357627691</v>
+        <v>0.001615298908784389</v>
       </c>
       <c r="GJ6">
-        <v>0.01290267066205089</v>
+        <v>0.01290776869914019</v>
       </c>
       <c r="GK6">
-        <v>0.01533685159829437</v>
+        <v>0.01534357721191998</v>
       </c>
       <c r="GL6">
-        <v>0.004430114183965638</v>
+        <v>0.004429547180333886</v>
       </c>
       <c r="GM6">
-        <v>5.814264547711719E-05</v>
+        <v>5.465239230894618E-05</v>
       </c>
       <c r="GN6">
-        <v>0.0006002120842791351</v>
+        <v>0.0005970842772572242</v>
       </c>
       <c r="GO6">
-        <v>0.003192888916371269</v>
+        <v>0.003191494661656543</v>
       </c>
       <c r="GP6">
-        <v>0.002623729331278801</v>
+        <v>0.002621954517020487</v>
       </c>
       <c r="GQ6">
-        <v>0.0006122135839647897</v>
+        <v>0.0006090938015555927</v>
       </c>
       <c r="GR6">
-        <v>0.001884890950630591</v>
+        <v>0.001882622123789005</v>
       </c>
       <c r="GS6">
-        <v>0.00212341864438303</v>
+        <v>0.002121309305306643</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.529573245305681E-06</v>
+        <v>1.425732194921492E-06</v>
       </c>
       <c r="C2">
-        <v>2.341597416269406E-06</v>
+        <v>2.133900661616519E-06</v>
       </c>
       <c r="D2">
-        <v>5.819915291892081E-06</v>
+        <v>5.508417284382133E-06</v>
       </c>
       <c r="E2">
-        <v>1.446436898278462E-05</v>
+        <v>1.404917522594385E-05</v>
       </c>
       <c r="F2">
-        <v>3.6623017190438E-05</v>
+        <v>3.610440367297964E-05</v>
       </c>
       <c r="G2">
-        <v>5.673697347120526E-05</v>
+        <v>5.611489843615347E-05</v>
       </c>
       <c r="H2">
-        <v>6.432578419984537E-05</v>
+        <v>6.359999185697902E-05</v>
       </c>
       <c r="I2">
-        <v>6.766719188036366E-05</v>
+        <v>6.683759548864168E-05</v>
       </c>
       <c r="J2">
-        <v>6.801787046782413E-05</v>
+        <v>6.708440895017139E-05</v>
       </c>
       <c r="K2">
-        <v>6.945711701635971E-05</v>
+        <v>6.841981260365872E-05</v>
       </c>
       <c r="L2">
-        <v>7.173307743497615E-05</v>
+        <v>7.059194721471105E-05</v>
       </c>
       <c r="M2">
-        <v>8.660638390313803E-05</v>
+        <v>8.536168514001827E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001109281760334419</v>
+        <v>0.0001095801016857231</v>
       </c>
       <c r="O2">
-        <v>0.0001383926450513703</v>
+        <v>0.0001369412592992261</v>
       </c>
       <c r="P2">
-        <v>0.0001491233826676617</v>
+        <v>0.0001475683437725599</v>
       </c>
       <c r="Q2">
-        <v>0.0001496209405998701</v>
+        <v>0.0001479620395784274</v>
       </c>
       <c r="R2">
-        <v>0.0001497022886769613</v>
+        <v>0.0001479620395784274</v>
       </c>
       <c r="S2">
-        <v>0.0001497122587511048</v>
+        <v>0.0001479620395784274</v>
       </c>
       <c r="T2">
-        <v>0.0001510639277027719</v>
+        <v>0.0001492098638465248</v>
       </c>
       <c r="U2">
-        <v>0.0001511677978690578</v>
+        <v>0.0001492098638465248</v>
       </c>
       <c r="V2">
-        <v>0.0001519143815823615</v>
+        <v>0.0001498525905191259</v>
       </c>
       <c r="W2">
-        <v>0.0001629582681874554</v>
+        <v>0.0001607928303764334</v>
       </c>
       <c r="X2">
-        <v>0.0001764216642060327</v>
+        <v>0.0001741526290587736</v>
       </c>
       <c r="Y2">
-        <v>0.0001784035363351651</v>
+        <v>0.000176030669374431</v>
       </c>
       <c r="Z2">
-        <v>0.0001887205764662494</v>
+        <v>0.0001862440479139717</v>
       </c>
       <c r="AA2">
-        <v>0.0001887642960876861</v>
+        <v>0.0001862440479139717</v>
       </c>
       <c r="AB2">
-        <v>0.0001898916602473739</v>
+        <v>0.0001872675628093068</v>
       </c>
       <c r="AC2">
-        <v>0.0001920877944688448</v>
+        <v>0.0001893598695929921</v>
       </c>
       <c r="AD2">
-        <v>0.0001985733532369349</v>
+        <v>0.0001957416885225065</v>
       </c>
       <c r="AE2">
-        <v>0.0002058362079772305</v>
+        <v>0.0002029008192982701</v>
       </c>
       <c r="AF2">
-        <v>0.0002135727962005864</v>
+        <v>0.0002105336932317435</v>
       </c>
       <c r="AG2">
-        <v>0.0002390039622912214</v>
+        <v>0.000235861506393565</v>
       </c>
       <c r="AH2">
-        <v>0.0002390853103683126</v>
+        <v>0.000235861506393565</v>
       </c>
       <c r="AI2">
-        <v>0.0002391298607497195</v>
+        <v>0.000235861506393565</v>
       </c>
       <c r="AJ2">
-        <v>0.0002400100743182449</v>
+        <v>0.0002366378656503948</v>
       </c>
       <c r="AK2">
-        <v>0.0002408034981898738</v>
+        <v>0.0002373274334378971</v>
       </c>
       <c r="AL2">
-        <v>0.0002436731148872623</v>
+        <v>0.0002400932364514506</v>
       </c>
       <c r="AM2">
-        <v>0.0002441854247689432</v>
+        <v>0.0002405016845080569</v>
       </c>
       <c r="AN2">
-        <v>0.0002441953948430867</v>
+        <v>0.0002405016845080569</v>
       </c>
       <c r="AO2">
-        <v>0.0002448193439207756</v>
+        <v>0.000241021774040582</v>
       </c>
       <c r="AP2">
-        <v>0.0002453316538024565</v>
+        <v>0.0002414302220971883</v>
       </c>
       <c r="AQ2">
-        <v>0.0002478697977116978</v>
+        <v>0.0002438645455532123</v>
       </c>
       <c r="AR2">
-        <v>0.0002591614633079316</v>
+        <v>0.0002550525694618359</v>
       </c>
       <c r="AS2">
-        <v>0.0002606257242555727</v>
+        <v>0.0002564129880252762</v>
       </c>
       <c r="AT2">
-        <v>0.0002620649708041083</v>
+        <v>0.0002577483916787636</v>
       </c>
       <c r="AU2">
-        <v>0.0002642611050255792</v>
+        <v>0.0002598406984624489</v>
       </c>
       <c r="AV2">
-        <v>0.0002649898580395205</v>
+        <v>0.0002604655940715467</v>
       </c>
       <c r="AW2">
-        <v>0.0002740133397168598</v>
+        <v>0.0002693853877401161</v>
       </c>
       <c r="AX2">
-        <v>0.0002764025338314272</v>
+        <v>0.0002716707583595933</v>
       </c>
       <c r="AY2">
-        <v>0.000277149117544731</v>
+        <v>0.0002723134850321945</v>
       </c>
       <c r="AZ2">
-        <v>0.0002798945054465617</v>
+        <v>0.0002749550567131728</v>
       </c>
       <c r="BA2">
-        <v>0.0003069717774783355</v>
+        <v>0.0003019290094331317</v>
       </c>
       <c r="BB2">
-        <v>0.000316752960128581</v>
+        <v>0.0003116065195484794</v>
       </c>
       <c r="BC2">
-        <v>0.0003257764418059203</v>
+        <v>0.0003205263132170488</v>
       </c>
       <c r="BD2">
-        <v>0.0003304575506385337</v>
+        <v>0.0003251036453603652</v>
       </c>
       <c r="BE2">
-        <v>0.0003307152637993184</v>
+        <v>0.0003252574914966666</v>
       </c>
       <c r="BF2">
-        <v>0.0003315086876709472</v>
+        <v>0.0003259470592841689</v>
       </c>
       <c r="BG2">
-        <v>0.000331612557837233</v>
+        <v>0.0003259470592841689</v>
       </c>
       <c r="BH2">
-        <v>0.0003377259613186306</v>
+        <v>0.0003319567153267851</v>
       </c>
       <c r="BI2">
-        <v>0.002119657597600506</v>
+        <v>0.002113820870170665</v>
       </c>
       <c r="BJ2">
-        <v>0.05592764767354005</v>
+        <v>0.05592280594789342</v>
       </c>
       <c r="BK2">
-        <v>0.1407382946408899</v>
+        <v>0.14073508105749</v>
       </c>
       <c r="BL2">
-        <v>0.1467401194262772</v>
+        <v>0.1467369245406696</v>
       </c>
       <c r="BM2">
-        <v>0.1494456351295337</v>
+        <v>0.1494423916240472</v>
       </c>
       <c r="BN2">
-        <v>0.1617963646878976</v>
+        <v>0.1617932695383976</v>
       </c>
       <c r="BO2">
-        <v>0.1681218948617099</v>
+        <v>0.1681188250207575</v>
       </c>
       <c r="BP2">
-        <v>0.175755060088764</v>
+        <v>0.1757520422610595</v>
       </c>
       <c r="BQ2">
-        <v>0.1769445764462294</v>
+        <v>0.1769414790387017</v>
       </c>
       <c r="BR2">
-        <v>0.1999768856226425</v>
+        <v>0.1999741547117689</v>
       </c>
       <c r="BS2">
-        <v>0.2192219579344792</v>
+        <v>0.2192195161767949</v>
       </c>
       <c r="BT2">
-        <v>0.2220455141335148</v>
+        <v>0.2220430261665906</v>
       </c>
       <c r="BU2">
-        <v>0.2223755472817135</v>
+        <v>0.2223729621824834</v>
       </c>
       <c r="BV2">
-        <v>0.2260888451489338</v>
+        <v>0.2260862320108888</v>
       </c>
       <c r="BW2">
-        <v>0.2260894528067121</v>
+        <v>0.2260867358087892</v>
       </c>
       <c r="BX2">
-        <v>0.2385861873598551</v>
+        <v>0.2385836216996526</v>
       </c>
       <c r="BY2">
-        <v>0.2611043745546521</v>
+        <v>0.2611021648916349</v>
       </c>
       <c r="BZ2">
-        <v>0.2611926000914974</v>
+        <v>0.2611902883579465</v>
       </c>
       <c r="CA2">
-        <v>0.2735186216507448</v>
+        <v>0.2735164577685903</v>
       </c>
       <c r="CB2">
-        <v>0.2735241881032457</v>
+        <v>0.2735219204624826</v>
       </c>
       <c r="CC2">
-        <v>0.2798065468786018</v>
+        <v>0.279804303664734</v>
       </c>
       <c r="CD2">
-        <v>0.2802673498621244</v>
+        <v>0.2802650121865501</v>
       </c>
       <c r="CE2">
-        <v>0.2806741288775789</v>
+        <v>0.2806716956370133</v>
       </c>
       <c r="CF2">
-        <v>0.2819435013321888</v>
+        <v>0.2819409901426321</v>
       </c>
       <c r="CG2">
-        <v>0.2821051748764077</v>
+        <v>0.2821025631162825</v>
       </c>
       <c r="CH2">
-        <v>0.2907019645690046</v>
+        <v>0.2906994245013968</v>
       </c>
       <c r="CI2">
-        <v>0.3216770684614001</v>
+        <v>0.3216750570992772</v>
       </c>
       <c r="CJ2">
-        <v>0.3314236381128833</v>
+        <v>0.3314217219242401</v>
       </c>
       <c r="CK2">
-        <v>0.3314491740859702</v>
+        <v>0.3314471545465386</v>
       </c>
       <c r="CL2">
-        <v>0.3325939412450357</v>
+        <v>0.3325918412119068</v>
       </c>
       <c r="CM2">
-        <v>0.3333788323169697</v>
+        <v>0.3333766444407051</v>
       </c>
       <c r="CN2">
-        <v>0.3514730136699599</v>
+        <v>0.3514710914432332</v>
       </c>
       <c r="CO2">
-        <v>0.351874823175592</v>
+        <v>0.3518728052823861</v>
       </c>
       <c r="CP2">
-        <v>0.3519153138641442</v>
+        <v>0.351913192925557</v>
       </c>
       <c r="CQ2">
-        <v>0.3757808270107637</v>
+        <v>0.3757790895846351</v>
       </c>
       <c r="CR2">
-        <v>0.3849841321816728</v>
+        <v>0.3849824788344031</v>
       </c>
       <c r="CS2">
-        <v>0.3849931556633502</v>
+        <v>0.3849913986280716</v>
       </c>
       <c r="CT2">
-        <v>0.3926115583909321</v>
+        <v>0.3926098530674197</v>
       </c>
       <c r="CU2">
-        <v>0.3952225762975676</v>
+        <v>0.3952208204243295</v>
       </c>
       <c r="CV2">
-        <v>0.3993216848509921</v>
+        <v>0.3993199088180173</v>
       </c>
       <c r="CW2">
-        <v>0.399984340027297</v>
+        <v>0.3999824736548684</v>
       </c>
       <c r="CX2">
-        <v>0.4025915707340679</v>
+        <v>0.4025896537345709</v>
       </c>
       <c r="CY2">
-        <v>0.4270596788591399</v>
+        <v>0.4270581576783778</v>
       </c>
       <c r="CZ2">
-        <v>0.4471784781397339</v>
+        <v>0.4471772639555318</v>
       </c>
       <c r="DA2">
-        <v>0.4942193594576511</v>
+        <v>0.4942190020764193</v>
       </c>
       <c r="DB2">
-        <v>0.5074244289854656</v>
+        <v>0.5074242374076671</v>
       </c>
       <c r="DC2">
-        <v>0.5153764657011175</v>
+        <v>0.5153763326486037</v>
       </c>
       <c r="DD2">
-        <v>0.5560507782466897</v>
+        <v>0.5560513719782154</v>
       </c>
       <c r="DE2">
-        <v>0.6194174859808297</v>
+        <v>0.6194192699235669</v>
       </c>
       <c r="DF2">
-        <v>0.6497571508959471</v>
+        <v>0.6497594505671483</v>
       </c>
       <c r="DG2">
-        <v>0.652740718989261</v>
+        <v>0.652742975719007</v>
       </c>
       <c r="DH2">
-        <v>0.6534919394623989</v>
+        <v>0.6534941076613837</v>
       </c>
       <c r="DI2">
-        <v>0.657035293335696</v>
+        <v>0.6570374300252466</v>
       </c>
       <c r="DJ2">
-        <v>0.6571668299109925</v>
+        <v>0.6571688654145134</v>
       </c>
       <c r="DK2">
-        <v>0.6581451645760094</v>
+        <v>0.6581471161869259</v>
       </c>
       <c r="DL2">
-        <v>0.6606240298873703</v>
+        <v>0.6606259282497229</v>
       </c>
       <c r="DM2">
-        <v>0.6678335350295737</v>
+        <v>0.6678354767531304</v>
       </c>
       <c r="DN2">
-        <v>0.6720972498771122</v>
+        <v>0.6720991748025442</v>
       </c>
       <c r="DO2">
-        <v>0.684236951443022</v>
+        <v>0.6842390204147982</v>
       </c>
       <c r="DP2">
-        <v>0.6874710539273773</v>
+        <v>0.6874730850741455</v>
       </c>
       <c r="DQ2">
-        <v>0.6875551140083714</v>
+        <v>0.6875570429995386</v>
       </c>
       <c r="DR2">
-        <v>0.6890330422555239</v>
+        <v>0.6890348975568545</v>
       </c>
       <c r="DS2">
-        <v>0.6890473491560123</v>
+        <v>0.6890491008772329</v>
       </c>
       <c r="DT2">
-        <v>0.6915945556649296</v>
+        <v>0.6915962555332594</v>
       </c>
       <c r="DU2">
-        <v>0.6928038960216861</v>
+        <v>0.6928055167150412</v>
       </c>
       <c r="DV2">
-        <v>0.6978408203415764</v>
+        <v>0.6978424400273954</v>
       </c>
       <c r="DW2">
-        <v>0.697925370603553</v>
+        <v>0.6979268881437815</v>
       </c>
       <c r="DX2">
-        <v>0.7000775711265949</v>
+        <v>0.7000790287470667</v>
       </c>
       <c r="DY2">
-        <v>0.7054877695331375</v>
+        <v>0.7054892337691275</v>
       </c>
       <c r="DZ2">
-        <v>0.7112432590273333</v>
+        <v>0.7112447369304228</v>
       </c>
       <c r="EA2">
-        <v>0.7232286695987603</v>
+        <v>0.7232302883972423</v>
       </c>
       <c r="EB2">
-        <v>0.7236142187649739</v>
+        <v>0.7236157415649057</v>
       </c>
       <c r="EC2">
-        <v>0.7277339246176618</v>
+        <v>0.7277354276784977</v>
       </c>
       <c r="ED2">
-        <v>0.7314199222858583</v>
+        <v>0.731421396750351</v>
       </c>
       <c r="EE2">
-        <v>0.7460234387636673</v>
+        <v>0.7460251075908665</v>
       </c>
       <c r="EF2">
-        <v>0.7605047562458459</v>
+        <v>0.7605066169401871</v>
       </c>
       <c r="EG2">
-        <v>0.7622638088829459</v>
+        <v>0.762265601628611</v>
       </c>
       <c r="EH2">
-        <v>0.7738756379677313</v>
+        <v>0.7738775639794573</v>
       </c>
       <c r="EI2">
-        <v>0.7740163547026996</v>
+        <v>0.7740181797158743</v>
       </c>
       <c r="EJ2">
-        <v>0.7795692795041387</v>
+        <v>0.7795711140476093</v>
       </c>
       <c r="EK2">
-        <v>0.7849740253108763</v>
+        <v>0.7849758663585112</v>
       </c>
       <c r="EL2">
-        <v>0.7993963947951628</v>
+        <v>0.7993984265060957</v>
       </c>
       <c r="EM2">
-        <v>0.8051462609895597</v>
+        <v>0.8051483062527522</v>
       </c>
       <c r="EN2">
-        <v>0.8078956622912469</v>
+        <v>0.8078976598307982</v>
       </c>
       <c r="EO2">
-        <v>0.809111026647788</v>
+        <v>0.8091129451353876</v>
       </c>
       <c r="EP2">
-        <v>0.8098828167801904</v>
+        <v>0.8098846471571052</v>
       </c>
       <c r="EQ2">
-        <v>0.8099004786975588</v>
+        <v>0.8099022055628802</v>
       </c>
       <c r="ER2">
-        <v>0.8100102744236327</v>
+        <v>0.8100118996589298</v>
       </c>
       <c r="ES2">
-        <v>0.8114882026707851</v>
+        <v>0.8114897542162458</v>
       </c>
       <c r="ET2">
-        <v>0.8128698849213791</v>
+        <v>0.8128713608114545</v>
       </c>
       <c r="EU2">
-        <v>0.8156242646228883</v>
+        <v>0.815625692890992</v>
       </c>
       <c r="EV2">
-        <v>0.8205111904481421</v>
+        <v>0.8205126146454202</v>
       </c>
       <c r="EW2">
-        <v>0.8237410778326482</v>
+        <v>0.8237424641188369</v>
       </c>
       <c r="EX2">
-        <v>0.8262285644437009</v>
+        <v>0.826229897657391</v>
       </c>
       <c r="EY2">
-        <v>0.8315443555536194</v>
+        <v>0.8315456934548289</v>
       </c>
       <c r="EZ2">
-        <v>0.8316096892812832</v>
+        <v>0.8316109246444594</v>
       </c>
       <c r="FA2">
-        <v>0.8332010340243801</v>
+        <v>0.8332021980139269</v>
       </c>
       <c r="FB2">
-        <v>0.8349334032624341</v>
+        <v>0.834934498758373</v>
       </c>
       <c r="FC2">
-        <v>0.8383936271387038</v>
+        <v>0.8383946894275164</v>
       </c>
       <c r="FD2">
-        <v>0.8412121425379196</v>
+        <v>0.8412131585145484</v>
       </c>
       <c r="FE2">
-        <v>0.8461028013630399</v>
+        <v>0.846103813345079</v>
       </c>
       <c r="FF2">
-        <v>0.8550424650433764</v>
+        <v>0.855043555720152</v>
       </c>
       <c r="FG2">
-        <v>0.8625598147745719</v>
+        <v>0.8625609550993956</v>
       </c>
       <c r="FH2">
-        <v>0.8629300668613324</v>
+        <v>0.8629311108752069</v>
       </c>
       <c r="FI2">
-        <v>0.8638738016275864</v>
+        <v>0.8638747610422528</v>
       </c>
       <c r="FJ2">
-        <v>0.8727594263098551</v>
+        <v>0.8727604633156664</v>
       </c>
       <c r="FK2">
-        <v>0.8874556782843481</v>
+        <v>0.8874569115467227</v>
       </c>
       <c r="FL2">
-        <v>0.9036913587037944</v>
+        <v>0.9036928196611488</v>
       </c>
       <c r="FM2">
-        <v>0.9076492895622671</v>
+        <v>0.9076507274767347</v>
       </c>
       <c r="FN2">
-        <v>0.9099517519799358</v>
+        <v>0.9099531330433157</v>
       </c>
       <c r="FO2">
-        <v>0.91019997473106</v>
+        <v>0.910201256991391</v>
       </c>
       <c r="FP2">
-        <v>0.912036741065381</v>
+        <v>0.9120379569641157</v>
       </c>
       <c r="FQ2">
-        <v>0.9136968427060193</v>
+        <v>0.9136979886352873</v>
       </c>
       <c r="FR2">
-        <v>0.9165641159034916</v>
+        <v>0.9165652165163142</v>
       </c>
       <c r="FS2">
-        <v>0.9230661223709936</v>
+        <v>0.9230672518963865</v>
       </c>
       <c r="FT2">
-        <v>0.9260930472627571</v>
+        <v>0.9260941347321332</v>
       </c>
       <c r="FU2">
-        <v>0.926921455693135</v>
+        <v>0.9269224562080929</v>
       </c>
       <c r="FV2">
-        <v>0.9295200619002143</v>
+        <v>0.9295210116119731</v>
       </c>
       <c r="FW2">
-        <v>0.9310751359446081</v>
+        <v>0.9310760135420124</v>
       </c>
       <c r="FX2">
-        <v>0.9315765891266772</v>
+        <v>0.9315773730925389</v>
       </c>
       <c r="FY2">
-        <v>0.9318712552161406</v>
+        <v>0.9318719413274256</v>
       </c>
       <c r="FZ2">
-        <v>0.9341335720352448</v>
+        <v>0.9341342004755833</v>
       </c>
       <c r="GA2">
-        <v>0.9390585825591368</v>
+        <v>0.9390592077064206</v>
       </c>
       <c r="GB2">
-        <v>0.9468480115806032</v>
+        <v>0.9468486919323753</v>
       </c>
       <c r="GC2">
-        <v>0.9525284457774827</v>
+        <v>0.952529138263565</v>
       </c>
       <c r="GD2">
-        <v>0.9538564566299959</v>
+        <v>0.9538570723646084</v>
       </c>
       <c r="GE2">
-        <v>0.9548261828953205</v>
+        <v>0.9548267145615268</v>
       </c>
       <c r="GF2">
-        <v>0.9551237581146799</v>
+        <v>0.9551241919857201</v>
       </c>
       <c r="GG2">
-        <v>0.9554356389735277</v>
+        <v>0.9554359753415536</v>
       </c>
       <c r="GH2">
-        <v>0.9564799879361839</v>
+        <v>0.9564802417597584</v>
       </c>
       <c r="GI2">
-        <v>0.9635519866833041</v>
+        <v>0.9635522810599086</v>
       </c>
       <c r="GJ2">
-        <v>0.9816461680362942</v>
+        <v>0.9816467280624368</v>
       </c>
       <c r="GK2">
-        <v>0.9889592073747954</v>
+        <v>0.9889598128765316</v>
       </c>
       <c r="GL2">
-        <v>0.9891707937172295</v>
+        <v>0.9891712996677231</v>
       </c>
       <c r="GM2">
-        <v>0.9893000274126084</v>
+        <v>0.9893004321300425</v>
       </c>
       <c r="GN2">
-        <v>0.9921856460094247</v>
+        <v>0.9921860057850657</v>
       </c>
       <c r="GO2">
-        <v>0.996756489845981</v>
+        <v>0.9967568390957271</v>
       </c>
       <c r="GP2">
-        <v>0.9970193292065824</v>
+        <v>0.997019579951782</v>
       </c>
       <c r="GQ2">
-        <v>0.9976806107829364</v>
+        <v>0.9976807711606305</v>
       </c>
       <c r="GR2">
-        <v>0.9996695895118146</v>
+        <v>0.9996696866364146</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>8.973654010368977E-06</v>
+        <v>3.115178366039678E-06</v>
       </c>
       <c r="C3">
-        <v>1.949123302252195E-05</v>
+        <v>7.775914206766046E-06</v>
       </c>
       <c r="D3">
-        <v>2.535299902929517E-05</v>
+        <v>7.775914206766046E-06</v>
       </c>
       <c r="E3">
-        <v>2.543843045939388E-05</v>
+        <v>7.775914206766046E-06</v>
       </c>
       <c r="F3">
-        <v>2.636535489046494E-05</v>
+        <v>7.775914206766046E-06</v>
       </c>
       <c r="G3">
-        <v>3.545268690096526E-05</v>
+        <v>1.100489077065046E-05</v>
       </c>
       <c r="H3">
-        <v>4.45400189114656E-05</v>
+        <v>1.423386733453487E-05</v>
       </c>
       <c r="I3">
-        <v>7.072193394171857E-05</v>
+        <v>3.457550191762488E-05</v>
       </c>
       <c r="J3">
-        <v>7.19635084431532E-05</v>
+        <v>3.457550191762488E-05</v>
       </c>
       <c r="K3">
-        <v>9.560012047046509E-05</v>
+        <v>5.23691422153756E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001314111205118444</v>
+        <v>8.235004314634097E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001800496455680458</v>
+        <v>0.0001251720323072919</v>
       </c>
       <c r="N3">
-        <v>0.0002169262796106564</v>
+        <v>0.000156219693990224</v>
       </c>
       <c r="O3">
-        <v>0.0002319174776279786</v>
+        <v>0.0001653587790281914</v>
       </c>
       <c r="P3">
-        <v>0.0002321543854782523</v>
+        <v>0.0001653587790281914</v>
       </c>
       <c r="Q3">
-        <v>0.0002398109204870994</v>
+        <v>0.0001671554457336894</v>
       </c>
       <c r="R3">
-        <v>0.0002398173468291068</v>
+        <v>0.0001671554457336894</v>
       </c>
       <c r="S3">
-        <v>0.0002548674618464971</v>
+        <v>0.00017635351006776</v>
       </c>
       <c r="T3">
-        <v>0.000259477574851824</v>
+        <v>0.00017635351006776</v>
       </c>
       <c r="U3">
-        <v>0.000280110329875665</v>
+        <v>0.0001911401172264399</v>
       </c>
       <c r="V3">
-        <v>0.0003905339300032584</v>
+        <v>0.0002958125100600611</v>
       </c>
       <c r="W3">
-        <v>0.0004014566280158795</v>
+        <v>0.0003008787932548284</v>
       </c>
       <c r="X3">
-        <v>0.0004051667084201665</v>
+        <v>0.0003008787932548284</v>
       </c>
       <c r="Y3">
-        <v>0.0004103291144261316</v>
+        <v>0.0003008787932548284</v>
       </c>
       <c r="Z3">
-        <v>0.000458967639482333</v>
+        <v>0.0003437007824157793</v>
       </c>
       <c r="AA3">
-        <v>0.0004850718275124961</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AB3">
-        <v>0.0004863134020139308</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AC3">
-        <v>0.0004873998224151861</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AD3">
-        <v>0.0004926372018212379</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AE3">
-        <v>0.0004955190322245678</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AF3">
-        <v>0.0004998356519295556</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AG3">
-        <v>0.0004998842024516117</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AH3">
-        <v>0.0004999696338817104</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AI3">
-        <v>0.0005017256412837395</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AJ3">
-        <v>0.0005018272758888569</v>
+        <v>0.0003639646078139445</v>
       </c>
       <c r="AK3">
-        <v>0.0005109146078993573</v>
+        <v>0.0003671935843778289</v>
       </c>
       <c r="AL3">
-        <v>0.0005109893403394436</v>
+        <v>0.0003671935843778289</v>
       </c>
       <c r="AM3">
-        <v>0.0005196480903494487</v>
+        <v>0.0003699935257789845</v>
       </c>
       <c r="AN3">
-        <v>0.000534493179366602</v>
+        <v>0.0003789863473280719</v>
       </c>
       <c r="AO3">
-        <v>0.0005682054094055562</v>
+        <v>0.0004068662591169818</v>
       </c>
       <c r="AP3">
-        <v>0.0005768641594155613</v>
+        <v>0.0004096662005181373</v>
       </c>
       <c r="AQ3">
-        <v>0.0005791236200181721</v>
+        <v>0.0004096662005181373</v>
       </c>
       <c r="AR3">
-        <v>0.0005884717720289738</v>
+        <v>0.0004131562728609927</v>
       </c>
       <c r="AS3">
-        <v>0.0005974454260393427</v>
+        <v>0.0004162714512270324</v>
       </c>
       <c r="AT3">
-        <v>0.0006314662690786536</v>
+        <v>0.0004444603023290147</v>
       </c>
       <c r="AU3">
-        <v>0.0006725189431260896</v>
+        <v>0.0004796884195629552</v>
       </c>
       <c r="AV3">
-        <v>0.0006899909601462784</v>
+        <v>0.0004913109467038711</v>
       </c>
       <c r="AW3">
-        <v>0.0006992388571569643</v>
+        <v>0.0004947006580417394</v>
       </c>
       <c r="AX3">
-        <v>0.0006998586009976804</v>
+        <v>0.0004947006580417394</v>
       </c>
       <c r="AY3">
-        <v>0.0007000533487379054</v>
+        <v>0.0004947006580417394</v>
       </c>
       <c r="AZ3">
-        <v>0.0007040457594425186</v>
+        <v>0.0004947006580417394</v>
       </c>
       <c r="BA3">
-        <v>0.0007218996274631485</v>
+        <v>0.0005067054399341922</v>
       </c>
       <c r="BB3">
-        <v>0.0007246042211662737</v>
+        <v>0.0005067054399341922</v>
       </c>
       <c r="BC3">
-        <v>0.0007308195361734554</v>
+        <v>0.000507059362760507</v>
       </c>
       <c r="BD3">
-        <v>0.0007431359281876869</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BE3">
-        <v>0.0007460177585910168</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BF3">
-        <v>0.0007462890413313303</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BG3">
-        <v>0.0007466404447017364</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BH3">
-        <v>0.0007471044468722725</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BI3">
-        <v>0.0007502626778759219</v>
+        <v>0.0005135208135826694</v>
       </c>
       <c r="BJ3">
-        <v>0.0331416697153039</v>
+        <v>0.03293330902104907</v>
       </c>
       <c r="BK3">
-        <v>0.03358339011581431</v>
+        <v>0.03336962851175324</v>
       </c>
       <c r="BL3">
-        <v>0.1116136102059775</v>
+        <v>0.1114764860833261</v>
       </c>
       <c r="BM3">
-        <v>0.1149825450098703</v>
+        <v>0.1148431150747706</v>
       </c>
       <c r="BN3">
-        <v>0.1234448710196484</v>
+        <v>0.1233085207818349</v>
       </c>
       <c r="BO3">
-        <v>0.1257780108223444</v>
+        <v>0.1256382595716873</v>
       </c>
       <c r="BP3">
-        <v>0.1275568532243998</v>
+        <v>0.1274131148731776</v>
       </c>
       <c r="BQ3">
-        <v>0.1373558112357224</v>
+        <v>0.1372165658729249</v>
       </c>
       <c r="BR3">
-        <v>0.145247351244841</v>
+        <v>0.1451105820573463</v>
       </c>
       <c r="BS3">
-        <v>0.1513008122518358</v>
+        <v>0.1511645757422845</v>
       </c>
       <c r="BT3">
-        <v>0.1972651463049471</v>
+        <v>0.1971716423332389</v>
       </c>
       <c r="BU3">
-        <v>0.1973109739420001</v>
+        <v>0.1972116504622973</v>
       </c>
       <c r="BV3">
-        <v>0.1988192583437429</v>
+        <v>0.1987156616883071</v>
       </c>
       <c r="BW3">
-        <v>0.1990886634440542</v>
+        <v>0.1989794836808051</v>
       </c>
       <c r="BX3">
-        <v>0.2007996791460313</v>
+        <v>0.2006864405654887</v>
       </c>
       <c r="BY3">
-        <v>0.2193792071674997</v>
+        <v>0.219279745732705</v>
       </c>
       <c r="BZ3">
-        <v>0.2332079801834788</v>
+        <v>0.2331172726719277</v>
       </c>
       <c r="CA3">
-        <v>0.2342260570846552</v>
+        <v>0.2341305580752631</v>
       </c>
       <c r="CB3">
-        <v>0.2394200120906567</v>
+        <v>0.2393241369584214</v>
       </c>
       <c r="CC3">
-        <v>0.2398357485511371</v>
+        <v>0.2397344450349126</v>
       </c>
       <c r="CD3">
-        <v>0.2453201145574742</v>
+        <v>0.2452187419851928</v>
       </c>
       <c r="CE3">
-        <v>0.2458563742580939</v>
+        <v>0.245749700737368</v>
       </c>
       <c r="CF3">
-        <v>0.2482774180608914</v>
+        <v>0.2481674364728329</v>
       </c>
       <c r="CG3">
-        <v>0.2483796659710096</v>
+        <v>0.2482639245310711</v>
       </c>
       <c r="CH3">
-        <v>0.2498401831726972</v>
+        <v>0.2497201180502591</v>
       </c>
       <c r="CI3">
-        <v>0.263633349188635</v>
+        <v>0.2635220003402914</v>
       </c>
       <c r="CJ3">
-        <v>0.2990843072295983</v>
+        <v>0.2990045745750811</v>
       </c>
       <c r="CK3">
-        <v>0.3022500314332562</v>
+        <v>0.3021677781010622</v>
       </c>
       <c r="CL3">
-        <v>0.3022541973442611</v>
+        <v>0.3021677781010622</v>
       </c>
       <c r="CM3">
-        <v>0.3031193598152608</v>
+        <v>0.3030279873897717</v>
       </c>
       <c r="CN3">
-        <v>0.3078029154206726</v>
+        <v>0.307710627200277</v>
       </c>
       <c r="CO3">
-        <v>0.323477165438784</v>
+        <v>0.323395582461285</v>
       </c>
       <c r="CP3">
-        <v>0.3235077710338194</v>
+        <v>0.3234203524532621</v>
       </c>
       <c r="CQ3">
-        <v>0.3243354654047758</v>
+        <v>0.3242430540249404</v>
       </c>
       <c r="CR3">
-        <v>0.3502426524347113</v>
+        <v>0.3501717661189214</v>
       </c>
       <c r="CS3">
-        <v>0.3549298378401273</v>
+        <v>0.354858039567409</v>
       </c>
       <c r="CT3">
-        <v>0.3551754223904111</v>
+        <v>0.3550980158231622</v>
       </c>
       <c r="CU3">
-        <v>0.3572926584928576</v>
+        <v>0.357211622626456</v>
       </c>
       <c r="CV3">
-        <v>0.3582676915939842</v>
+        <v>0.3581818187172737</v>
       </c>
       <c r="CW3">
-        <v>0.3613044657974931</v>
+        <v>0.3612159358975056</v>
       </c>
       <c r="CX3">
-        <v>0.3618329760481038</v>
+        <v>0.3617391370057718</v>
       </c>
       <c r="CY3">
-        <v>0.3671446155542414</v>
+        <v>0.3670505248230621</v>
       </c>
       <c r="CZ3">
-        <v>0.3925615225836104</v>
+        <v>0.3924884385177106</v>
       </c>
       <c r="DA3">
-        <v>0.4242347786202085</v>
+        <v>0.424189316385618</v>
       </c>
       <c r="DB3">
-        <v>0.4688411786717508</v>
+        <v>0.4688370131601427</v>
       </c>
       <c r="DC3">
-        <v>0.4778500686821605</v>
+        <v>0.4778495607786307</v>
       </c>
       <c r="DD3">
-        <v>0.4902561066964956</v>
+        <v>0.4902628483838518</v>
       </c>
       <c r="DE3">
-        <v>0.5447796907594971</v>
+        <v>0.5448382151287723</v>
       </c>
       <c r="DF3">
-        <v>0.6086413958332887</v>
+        <v>0.6087615765697296</v>
       </c>
       <c r="DG3">
-        <v>0.6344235428630798</v>
+        <v>0.634565116452214</v>
       </c>
       <c r="DH3">
-        <v>0.6364110628653763</v>
+        <v>0.6365488699997199</v>
       </c>
       <c r="DI3">
-        <v>0.6383266341675897</v>
+        <v>0.6384605987720076</v>
       </c>
       <c r="DJ3">
-        <v>0.6404275209700173</v>
+        <v>0.6405578389883098</v>
       </c>
       <c r="DK3">
-        <v>0.6413730517711098</v>
+        <v>0.6414985015847638</v>
       </c>
       <c r="DL3">
-        <v>0.6415854874513552</v>
+        <v>0.6417052939204395</v>
       </c>
       <c r="DM3">
-        <v>0.646564953457109</v>
+        <v>0.6466841570128773</v>
       </c>
       <c r="DN3">
-        <v>0.6531336819646991</v>
+        <v>0.6532539630177715</v>
       </c>
       <c r="DO3">
-        <v>0.6595698483721361</v>
+        <v>0.6596910667576495</v>
       </c>
       <c r="DP3">
-        <v>0.6728325953874611</v>
+        <v>0.6729619692072325</v>
       </c>
       <c r="DQ3">
-        <v>0.6756428919907084</v>
+        <v>0.6757693693205543</v>
       </c>
       <c r="DR3">
-        <v>0.6762531186414135</v>
+        <v>0.6763743732319518</v>
       </c>
       <c r="DS3">
-        <v>0.6766970709119264</v>
+        <v>0.6768129269525318</v>
       </c>
       <c r="DT3">
-        <v>0.6769962712122721</v>
+        <v>0.6771065756490924</v>
       </c>
       <c r="DU3">
-        <v>0.6801820575159533</v>
+        <v>0.6802898624878075</v>
       </c>
       <c r="DV3">
-        <v>0.682627516218779</v>
+        <v>0.6827320389384554</v>
       </c>
       <c r="DW3">
-        <v>0.6860252402227051</v>
+        <v>0.6861274875702646</v>
       </c>
       <c r="DX3">
-        <v>0.6860595710797447</v>
+        <v>0.686155986763161</v>
       </c>
       <c r="DY3">
-        <v>0.6910105624854656</v>
+        <v>0.6911063451478775</v>
       </c>
       <c r="DZ3">
-        <v>0.6959379499911591</v>
+        <v>0.6960330746749248</v>
       </c>
       <c r="EA3">
-        <v>0.7069390560038707</v>
+        <v>0.7070399447702108</v>
       </c>
       <c r="EB3">
-        <v>0.7130506136109326</v>
+        <v>0.7131520964837993</v>
       </c>
       <c r="EC3">
-        <v>0.7143592467124447</v>
+        <v>0.7144562453077844</v>
       </c>
       <c r="ED3">
-        <v>0.7179068187165438</v>
+        <v>0.7180017003819189</v>
       </c>
       <c r="EE3">
-        <v>0.7237773891233272</v>
+        <v>0.7238726100868192</v>
       </c>
       <c r="EF3">
-        <v>0.7419349341443081</v>
+        <v>0.7420434860687832</v>
       </c>
       <c r="EG3">
-        <v>0.7534401661576023</v>
+        <v>0.7535550152035199</v>
       </c>
       <c r="EH3">
-        <v>0.7568099836614961</v>
+        <v>0.7569225278282904</v>
       </c>
       <c r="EI3">
-        <v>0.7666843286729058</v>
+        <v>0.766801445538755</v>
       </c>
       <c r="EJ3">
-        <v>0.766793481673032</v>
+        <v>0.766904845988115</v>
       </c>
       <c r="EK3">
-        <v>0.7716861871786854</v>
+        <v>0.7717968568440242</v>
       </c>
       <c r="EL3">
-        <v>0.7799915151882821</v>
+        <v>0.780105098548685</v>
       </c>
       <c r="EM3">
-        <v>0.7911153292011356</v>
+        <v>0.791234806389719</v>
       </c>
       <c r="EN3">
-        <v>0.7970349496079756</v>
+        <v>0.7971548179578144</v>
       </c>
       <c r="EO3">
-        <v>0.7986743428098699</v>
+        <v>0.7987900766121884</v>
       </c>
       <c r="EP3">
-        <v>0.8010228768125837</v>
+        <v>0.8011352258791539</v>
       </c>
       <c r="EQ3">
-        <v>0.8016995056533655</v>
+        <v>0.8018067021911472</v>
       </c>
       <c r="ER3">
-        <v>0.8019854035836959</v>
+        <v>0.8020870344523988</v>
       </c>
       <c r="ES3">
-        <v>0.802328241084092</v>
+        <v>0.8024243664889108</v>
       </c>
       <c r="ET3">
-        <v>0.8031789064850748</v>
+        <v>0.8032700633790908</v>
       </c>
       <c r="EU3">
-        <v>0.8049369348871063</v>
+        <v>0.8050240826728229</v>
       </c>
       <c r="EV3">
-        <v>0.8089797302917777</v>
+        <v>0.8090652847732117</v>
       </c>
       <c r="EW3">
-        <v>0.813471561296968</v>
+        <v>0.8135559972630174</v>
       </c>
       <c r="EX3">
-        <v>0.8168701720008951</v>
+        <v>0.8169523335323822</v>
       </c>
       <c r="EY3">
-        <v>0.8194161742038369</v>
+        <v>0.8194951597930636</v>
       </c>
       <c r="EZ3">
-        <v>0.8245135834097269</v>
+        <v>0.8245920907931709</v>
       </c>
       <c r="FA3">
-        <v>0.82487976225015</v>
+        <v>0.8249527888497331</v>
       </c>
       <c r="FB3">
-        <v>0.8265320638520592</v>
+        <v>0.8266009695528506</v>
       </c>
       <c r="FC3">
-        <v>0.8279068263536478</v>
+        <v>0.8279713176989961</v>
       </c>
       <c r="FD3">
-        <v>0.8311517504573972</v>
+        <v>0.8312138048672781</v>
       </c>
       <c r="FE3">
-        <v>0.8342848762610175</v>
+        <v>0.834344375525223</v>
       </c>
       <c r="FF3">
-        <v>0.8421797787701401</v>
+        <v>0.842241757764996</v>
       </c>
       <c r="FG3">
-        <v>0.8521618127816742</v>
+        <v>0.8522284783408145</v>
       </c>
       <c r="FH3">
-        <v>0.8598275187905319</v>
+        <v>0.8598964217388386</v>
       </c>
       <c r="FI3">
-        <v>0.8600343241307709</v>
+        <v>0.8600975777812538</v>
       </c>
       <c r="FJ3">
-        <v>0.8615909495325695</v>
+        <v>0.8616499811207949</v>
       </c>
       <c r="FK3">
-        <v>0.8710379125434854</v>
+        <v>0.871101064937355</v>
       </c>
       <c r="FL3">
-        <v>0.8860463005608274</v>
+        <v>0.8861194541467672</v>
       </c>
       <c r="FM3">
-        <v>0.8999747400769217</v>
+        <v>0.9000567529687243</v>
       </c>
       <c r="FN3">
-        <v>0.9051189524828658</v>
+        <v>0.9052005366563645</v>
       </c>
       <c r="FO3">
-        <v>0.9082687829865054</v>
+        <v>0.9083478296770844</v>
       </c>
       <c r="FP3">
-        <v>0.9084742837967428</v>
+        <v>0.9085476798101502</v>
       </c>
       <c r="FQ3">
-        <v>0.9096925409981504</v>
+        <v>0.9097613571748503</v>
       </c>
       <c r="FR3">
-        <v>0.9107870144994151</v>
+        <v>0.9108511199564072</v>
       </c>
       <c r="FS3">
-        <v>0.9136520568027257</v>
+        <v>0.9137133236552931</v>
       </c>
       <c r="FT3">
-        <v>0.9194283908094002</v>
+        <v>0.9194898973189949</v>
       </c>
       <c r="FU3">
-        <v>0.9218035560121447</v>
+        <v>0.9218617059445561</v>
       </c>
       <c r="FV3">
-        <v>0.9235240903141327</v>
+        <v>0.9235781914937659</v>
       </c>
       <c r="FW3">
-        <v>0.9264931935175635</v>
+        <v>0.926544566121821</v>
       </c>
       <c r="FX3">
-        <v>0.9284909715198719</v>
+        <v>0.9285385885156604</v>
       </c>
       <c r="FY3">
-        <v>0.9288312412802651</v>
+        <v>0.9288733500971632</v>
       </c>
       <c r="FZ3">
-        <v>0.9288432408677789</v>
+        <v>0.928879494408511</v>
       </c>
       <c r="GA3">
-        <v>0.9319318625713477</v>
+        <v>0.9319655139098847</v>
       </c>
       <c r="GB3">
-        <v>0.9386084810790625</v>
+        <v>0.9386433239926609</v>
       </c>
       <c r="GC3">
-        <v>0.9455756250871129</v>
+        <v>0.945611966763626</v>
       </c>
       <c r="GD3">
-        <v>0.9505975920929157</v>
+        <v>0.95063337579465</v>
       </c>
       <c r="GE3">
-        <v>0.9514921161939494</v>
+        <v>0.9515229777589852</v>
       </c>
       <c r="GF3">
-        <v>0.9527714994954277</v>
+        <v>0.9527978458555885</v>
       </c>
       <c r="GG3">
-        <v>0.9531836395359039</v>
+        <v>0.9532045537093919</v>
       </c>
       <c r="GH3">
-        <v>0.9538070983366244</v>
+        <v>0.9538228037618511</v>
       </c>
       <c r="GI3">
-        <v>0.9552832893383301</v>
+        <v>0.9552946876537883</v>
       </c>
       <c r="GJ3">
-        <v>0.9670481013519242</v>
+        <v>0.9670660712563776</v>
       </c>
       <c r="GK3">
-        <v>0.9851797893728752</v>
+        <v>0.985211062898349</v>
       </c>
       <c r="GL3">
-        <v>0.9910397193796463</v>
+        <v>0.9910713209525839</v>
       </c>
       <c r="GM3">
-        <v>0.9911018845597181</v>
+        <v>0.9911276838992025</v>
       </c>
       <c r="GN3">
-        <v>0.9913268299899781</v>
+        <v>0.9913469992121076</v>
       </c>
       <c r="GO3">
-        <v>0.9941785094932732</v>
+        <v>0.9941958259817885</v>
       </c>
       <c r="GP3">
-        <v>0.9966168579960908</v>
+        <v>0.9966308847144406</v>
       </c>
       <c r="GQ3">
-        <v>0.9967422455962357</v>
+        <v>0.9967505369295138</v>
       </c>
       <c r="GR3">
-        <v>0.9979322012976107</v>
+        <v>0.9979358828695205</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001088089213971414</v>
+        <v>0.0001069142800168057</v>
       </c>
       <c r="C4">
-        <v>0.0002445705531403641</v>
+        <v>0.0002407910883580386</v>
       </c>
       <c r="D4">
-        <v>0.0003783081848575981</v>
+        <v>0.0003726431593972102</v>
       </c>
       <c r="E4">
-        <v>0.0004469744357392947</v>
+        <v>0.0004394001462552523</v>
       </c>
       <c r="F4">
-        <v>0.0004536561591250902</v>
+        <v>0.0004441500267100805</v>
       </c>
       <c r="G4">
-        <v>0.0005204569599828339</v>
+        <v>0.0005090408840226038</v>
       </c>
       <c r="H4">
-        <v>0.0005307777771153565</v>
+        <v>0.0005174311838253007</v>
       </c>
       <c r="I4">
-        <v>0.000532364769335734</v>
+        <v>0.0005174311838253007</v>
       </c>
       <c r="J4">
-        <v>0.0005347864424668291</v>
+        <v>0.0005179194622304285</v>
       </c>
       <c r="K4">
-        <v>0.0005523343716921502</v>
+        <v>0.0005335395067231327</v>
       </c>
       <c r="L4">
-        <v>0.0005924496992072439</v>
+        <v>0.000571735170060236</v>
       </c>
       <c r="M4">
-        <v>0.0005950369102404645</v>
+        <v>0.0005723890466674561</v>
       </c>
       <c r="N4">
-        <v>0.000595187418082397</v>
+        <v>0.0005723890466674561</v>
       </c>
       <c r="O4">
-        <v>0.0006030434101832704</v>
+        <v>0.0005783136235845041</v>
       </c>
       <c r="P4">
-        <v>0.0006502978377900324</v>
+        <v>0.0006236509875506321</v>
       </c>
       <c r="Q4">
-        <v>0.0006595818029092415</v>
+        <v>0.0006310040576492199</v>
       </c>
       <c r="R4">
-        <v>0.0006598882719131766</v>
+        <v>0.0006310040576492199</v>
       </c>
       <c r="S4">
-        <v>0.0006618218444380043</v>
+        <v>0.0006310040576492199</v>
       </c>
       <c r="T4">
-        <v>0.000661902124149035</v>
+        <v>0.0006310040576492199</v>
       </c>
       <c r="U4">
-        <v>0.0006677549427241871</v>
+        <v>0.0006349247313508774</v>
       </c>
       <c r="V4">
-        <v>0.0006685691215346414</v>
+        <v>0.0006349247313508774</v>
       </c>
       <c r="W4">
-        <v>0.0006748513653153075</v>
+        <v>0.0006392749866834069</v>
       </c>
       <c r="X4">
-        <v>0.000675882916928553</v>
+        <v>0.0006392749866834069</v>
       </c>
       <c r="Y4">
-        <v>0.0006779899317556077</v>
+        <v>0.0006394484921649115</v>
       </c>
       <c r="Z4">
-        <v>0.0006790752945695441</v>
+        <v>0.0006394484921649115</v>
       </c>
       <c r="AA4">
-        <v>0.0006798429586394012</v>
+        <v>0.0006394484921649115</v>
       </c>
       <c r="AB4">
-        <v>0.0006800144437116031</v>
+        <v>0.0006394484921649115</v>
       </c>
       <c r="AC4">
-        <v>0.0006883667458188493</v>
+        <v>0.0006458695598776049</v>
       </c>
       <c r="AD4">
-        <v>0.000704624575027605</v>
+        <v>0.0006601990344131009</v>
       </c>
       <c r="AE4">
-        <v>0.0007372821914469393</v>
+        <v>0.0006909342700576682</v>
       </c>
       <c r="AF4">
-        <v>0.0007486947365934799</v>
+        <v>0.0007004166955546856</v>
       </c>
       <c r="AG4">
-        <v>0.0007502817288138575</v>
+        <v>0.0007004166955546856</v>
       </c>
       <c r="AH4">
-        <v>0.0007547144798707754</v>
+        <v>0.0007029167844546162</v>
       </c>
       <c r="AI4">
-        <v>0.0007668448110265326</v>
+        <v>0.0007131172574264842</v>
       </c>
       <c r="AJ4">
-        <v>0.0008111502635954289</v>
+        <v>0.0007555045721409589</v>
       </c>
       <c r="AK4">
-        <v>0.000843410529009661</v>
+        <v>0.0007858423120386332</v>
       </c>
       <c r="AL4">
-        <v>0.0008451320491317659</v>
+        <v>0.0007858423120386332</v>
       </c>
       <c r="AM4">
-        <v>0.0008687547114350885</v>
+        <v>0.0008075393024330978</v>
       </c>
       <c r="AN4">
-        <v>0.0008770566985416887</v>
+        <v>0.0008139100368170593</v>
       </c>
       <c r="AO4">
-        <v>0.0008809904045921987</v>
+        <v>0.0008159108989250398</v>
       </c>
       <c r="AP4">
-        <v>0.0008982473898137839</v>
+        <v>0.0008312398934327583</v>
       </c>
       <c r="AQ4">
-        <v>0.0009032089803774924</v>
+        <v>0.00083426901447817</v>
       </c>
       <c r="AR4">
-        <v>0.0009037645919846266</v>
+        <v>0.00083426901447817</v>
       </c>
       <c r="AS4">
-        <v>0.0009064366240189364</v>
+        <v>0.0008350077429839563</v>
       </c>
       <c r="AT4">
-        <v>0.0009094616207577784</v>
+        <v>0.0008360995647676086</v>
       </c>
       <c r="AU4">
-        <v>0.0009099789261144207</v>
+        <v>0.0008360995647676086</v>
       </c>
       <c r="AV4">
-        <v>0.0009107014435236981</v>
+        <v>0.0008360995647676086</v>
       </c>
       <c r="AW4">
-        <v>0.0009108519513656307</v>
+        <v>0.0008360995647676086</v>
       </c>
       <c r="AX4">
-        <v>0.0009211727684981533</v>
+        <v>0.0008444898645703056</v>
       </c>
       <c r="AY4">
-        <v>0.0009391616757291366</v>
+        <v>0.0008605510477023322</v>
       </c>
       <c r="AZ4">
-        <v>0.0009494824928616592</v>
+        <v>0.0008689413475050291</v>
       </c>
       <c r="BA4">
-        <v>0.0009610131490097165</v>
+        <v>0.0008785419270274833</v>
       </c>
       <c r="BB4">
-        <v>0.0009619411825216327</v>
+        <v>0.0008785419270274833</v>
       </c>
       <c r="BC4">
-        <v>0.0009674614055925141</v>
+        <v>0.0008821298840713601</v>
       </c>
       <c r="BD4">
-        <v>0.0009741882756788893</v>
+        <v>0.0008869249276722134</v>
       </c>
       <c r="BE4">
-        <v>0.0009742685553899201</v>
+        <v>0.0008869249276722134</v>
       </c>
       <c r="BF4">
-        <v>0.0009883544820707879</v>
+        <v>0.0008990817085277737</v>
       </c>
       <c r="BG4">
-        <v>0.001033359022648661</v>
+        <v>0.0009421683659057976</v>
       </c>
       <c r="BH4">
-        <v>0.001040452538439744</v>
+        <v>0.0009473301887682272</v>
       </c>
       <c r="BI4">
-        <v>0.01197506567884367</v>
+        <v>0.01188399216917213</v>
       </c>
       <c r="BJ4">
-        <v>0.03119096292558194</v>
+        <v>0.03110495485301649</v>
       </c>
       <c r="BK4">
-        <v>0.1025097638413382</v>
+        <v>0.1024478005654093</v>
       </c>
       <c r="BL4">
-        <v>0.103501084854067</v>
+        <v>0.1034375484066394</v>
       </c>
       <c r="BM4">
-        <v>0.1107908736476703</v>
+        <v>0.1107280583516334</v>
       </c>
       <c r="BN4">
-        <v>0.126381973847865</v>
+        <v>0.1263229035956063</v>
       </c>
       <c r="BO4">
-        <v>0.1263821526293673</v>
+        <v>0.1263229035956063</v>
       </c>
       <c r="BP4">
-        <v>0.1304263296812958</v>
+        <v>0.1303666195302265</v>
       </c>
       <c r="BQ4">
-        <v>0.1639427031116568</v>
+        <v>0.1638932675868142</v>
       </c>
       <c r="BR4">
-        <v>0.1684519346695567</v>
+        <v>0.1684022074313364</v>
       </c>
       <c r="BS4">
-        <v>0.1872423999108323</v>
+        <v>0.1871975831389502</v>
       </c>
       <c r="BT4">
-        <v>0.1908207039567789</v>
+        <v>0.1907752563655057</v>
       </c>
       <c r="BU4">
-        <v>0.1954537125162682</v>
+        <v>0.1954080182994731</v>
       </c>
       <c r="BV4">
-        <v>0.1971986588386739</v>
+        <v>0.1971516659710822</v>
       </c>
       <c r="BW4">
-        <v>0.1975129465927094</v>
+        <v>0.1974641339328604</v>
       </c>
       <c r="BX4">
-        <v>0.220881178892765</v>
+        <v>0.2208389442279472</v>
       </c>
       <c r="BY4">
-        <v>0.2304518180156551</v>
+        <v>0.2304111353403463</v>
       </c>
       <c r="BZ4">
-        <v>0.2337530485580439</v>
+        <v>0.2337116341346573</v>
       </c>
       <c r="CA4">
-        <v>0.2398364356361566</v>
+        <v>0.2397953029120327</v>
       </c>
       <c r="CB4">
-        <v>0.2415952481587403</v>
+        <v>0.2415528218348167</v>
       </c>
       <c r="CC4">
-        <v>0.2428502362748547</v>
+        <v>0.2428063328246121</v>
       </c>
       <c r="CD4">
-        <v>0.2446244382976361</v>
+        <v>0.2445792468534781</v>
       </c>
       <c r="CE4">
-        <v>0.2491219687553858</v>
+        <v>0.2490764813355274</v>
       </c>
       <c r="CF4">
-        <v>0.2524513095981356</v>
+        <v>0.2524051006698494</v>
       </c>
       <c r="CG4">
-        <v>0.2538244632157673</v>
+        <v>0.2537768202049347</v>
       </c>
       <c r="CH4">
-        <v>0.2637670943434339</v>
+        <v>0.2637211388264585</v>
       </c>
       <c r="CI4">
-        <v>0.2979507127823625</v>
+        <v>0.2979152749468377</v>
       </c>
       <c r="CJ4">
-        <v>0.3045264598667972</v>
+        <v>0.3044914830809536</v>
       </c>
       <c r="CK4">
-        <v>0.3048981773415702</v>
+        <v>0.3048614016832115</v>
       </c>
       <c r="CL4">
-        <v>0.3123330854370368</v>
+        <v>0.3122970837922169</v>
       </c>
       <c r="CM4">
-        <v>0.3127455289823327</v>
+        <v>0.3127077433001543</v>
       </c>
       <c r="CN4">
-        <v>0.3240107931269823</v>
+        <v>0.3239751767299969</v>
       </c>
       <c r="CO4">
-        <v>0.3240197610650975</v>
+        <v>0.3239822136579733</v>
       </c>
       <c r="CP4">
-        <v>0.3245520934719328</v>
+        <v>0.3245128056989855</v>
       </c>
       <c r="CQ4">
-        <v>0.347970996772639</v>
+        <v>0.3479383054524877</v>
       </c>
       <c r="CR4">
-        <v>0.3580584549021653</v>
+        <v>0.3580275038315439</v>
       </c>
       <c r="CS4">
-        <v>0.3602424401302083</v>
+        <v>0.3602103503361007</v>
       </c>
       <c r="CT4">
-        <v>0.3682377892328712</v>
+        <v>0.3682066776023712</v>
       </c>
       <c r="CU4">
-        <v>0.3683759997146459</v>
+        <v>0.3683430041527787</v>
       </c>
       <c r="CV4">
-        <v>0.3708945819469853</v>
+        <v>0.3708605695442217</v>
       </c>
       <c r="CW4">
-        <v>0.3711026343096567</v>
+        <v>0.3710667634166065</v>
       </c>
       <c r="CX4">
-        <v>0.3785090044047569</v>
+        <v>0.3784738971297987</v>
       </c>
       <c r="CY4">
-        <v>0.4099795248088484</v>
+        <v>0.4099539469237213</v>
       </c>
       <c r="CZ4">
-        <v>0.4427941512301987</v>
+        <v>0.4427785923481402</v>
       </c>
       <c r="DA4">
-        <v>0.4778765776806683</v>
+        <v>0.4778718638860051</v>
       </c>
       <c r="DB4">
-        <v>0.4918528228601277</v>
+        <v>0.491851265871124</v>
       </c>
       <c r="DC4">
-        <v>0.4960605089141558</v>
+        <v>0.4960585503687496</v>
       </c>
       <c r="DD4">
-        <v>0.5438315945275518</v>
+        <v>0.5438451031271856</v>
       </c>
       <c r="DE4">
-        <v>0.601693098270512</v>
+        <v>0.6017257496198067</v>
       </c>
       <c r="DF4">
-        <v>0.6275469806024842</v>
+        <v>0.6275871153866667</v>
       </c>
       <c r="DG4">
-        <v>0.6331284696741523</v>
+        <v>0.633168703332802</v>
       </c>
       <c r="DH4">
-        <v>0.6338847802138635</v>
+        <v>0.6339233550944945</v>
       </c>
       <c r="DI4">
-        <v>0.6359442906403083</v>
+        <v>0.6359816814554116</v>
       </c>
       <c r="DJ4">
-        <v>0.6364814614472057</v>
+        <v>0.6365171136589546</v>
       </c>
       <c r="DK4">
-        <v>0.6368203221815568</v>
+        <v>0.6368541635521698</v>
       </c>
       <c r="DL4">
-        <v>0.6385725596040561</v>
+        <v>0.6386051049797785</v>
       </c>
       <c r="DM4">
-        <v>0.6445597736809339</v>
+        <v>0.6445925657232848</v>
       </c>
       <c r="DN4">
-        <v>0.6501464747526688</v>
+        <v>0.6501793675680458</v>
       </c>
       <c r="DO4">
-        <v>0.665440732949052</v>
+        <v>0.6654772626785116</v>
       </c>
       <c r="DP4">
-        <v>0.6727305217426552</v>
+        <v>0.6727677726235056</v>
       </c>
       <c r="DQ4">
-        <v>0.6738202419566476</v>
+        <v>0.6738559555095642</v>
       </c>
       <c r="DR4">
-        <v>0.6740777025399535</v>
+        <v>0.6741115756003594</v>
       </c>
       <c r="DS4">
-        <v>0.6756096188596238</v>
+        <v>0.6756421156694694</v>
       </c>
       <c r="DT4">
-        <v>0.6803801159208785</v>
+        <v>0.6804124161877029</v>
       </c>
       <c r="DU4">
-        <v>0.6830415497550522</v>
+        <v>0.6830728852170802</v>
       </c>
       <c r="DV4">
-        <v>0.6852003477827718</v>
+        <v>0.685230535346452</v>
       </c>
       <c r="DW4">
-        <v>0.6854527970860134</v>
+        <v>0.6854811423317396</v>
       </c>
       <c r="DX4">
-        <v>0.6912181451600423</v>
+        <v>0.6912466562539716</v>
       </c>
       <c r="DY4">
-        <v>0.6977501335439151</v>
+        <v>0.6977790897476827</v>
       </c>
       <c r="DZ4">
-        <v>0.7085086046820573</v>
+        <v>0.7085395455631361</v>
       </c>
       <c r="EA4">
-        <v>0.7188320918146143</v>
+        <v>0.7188648589227596</v>
       </c>
       <c r="EB4">
-        <v>0.720538649036527</v>
+        <v>0.7205701035099999</v>
       </c>
       <c r="EC4">
-        <v>0.7241305250826479</v>
+        <v>0.7241613536805591</v>
       </c>
       <c r="ED4">
-        <v>0.7315459011778637</v>
+        <v>0.7315774966744539</v>
       </c>
       <c r="EE4">
-        <v>0.7504249054202761</v>
+        <v>0.7504614436350259</v>
       </c>
       <c r="EF4">
-        <v>0.7596557555388032</v>
+        <v>0.7596937219691986</v>
       </c>
       <c r="EG4">
-        <v>0.7637969759919777</v>
+        <v>0.763834516654757</v>
       </c>
       <c r="EH4">
-        <v>0.7708066560819843</v>
+        <v>0.7708448158618449</v>
       </c>
       <c r="EI4">
-        <v>0.7708224255071868</v>
+        <v>0.7708586567544647</v>
       </c>
       <c r="EJ4">
-        <v>0.7733244095393131</v>
+        <v>0.7733596178995209</v>
       </c>
       <c r="EK4">
-        <v>0.7812435466409974</v>
+        <v>0.7812797054033089</v>
       </c>
       <c r="EL4">
-        <v>0.7913800987711539</v>
+        <v>0.7914180156663115</v>
       </c>
       <c r="EM4">
-        <v>0.7971839048456766</v>
+        <v>0.7972220015980113</v>
       </c>
       <c r="EN4">
-        <v>0.8014620069006088</v>
+        <v>0.8014997277467544</v>
       </c>
       <c r="EO4">
-        <v>0.8034994210267699</v>
+        <v>0.8035359497584385</v>
       </c>
       <c r="EP4">
-        <v>0.8046029990409401</v>
+        <v>0.8046379954926119</v>
       </c>
       <c r="EQ4">
-        <v>0.8051454362479052</v>
+        <v>0.8051786960145975</v>
       </c>
       <c r="ER4">
-        <v>0.8054307498915687</v>
+        <v>0.8054621793116963</v>
       </c>
       <c r="ES4">
-        <v>0.8057951084662472</v>
+        <v>0.8058247363332565</v>
       </c>
       <c r="ET4">
-        <v>0.8067952325790891</v>
+        <v>0.806823290481277</v>
       </c>
       <c r="EU4">
-        <v>0.8090102916075312</v>
+        <v>0.8090372221053874</v>
       </c>
       <c r="EV4">
-        <v>0.8133169521628302</v>
+        <v>0.8133435171574116</v>
       </c>
       <c r="EW4">
-        <v>0.8179286227220455</v>
+        <v>0.8179549333183793</v>
       </c>
       <c r="EX4">
-        <v>0.8216278779695451</v>
+        <v>0.8216536018049985</v>
       </c>
       <c r="EY4">
-        <v>0.8281471900532551</v>
+        <v>0.828173354380991</v>
       </c>
       <c r="EZ4">
-        <v>0.8283552424159265</v>
+        <v>0.8283795482533759</v>
       </c>
       <c r="FA4">
-        <v>0.8288316013220431</v>
+        <v>0.8288541464043798</v>
       </c>
       <c r="FB4">
-        <v>0.8298278693348355</v>
+        <v>0.8298488430477015</v>
       </c>
       <c r="FC4">
-        <v>0.8323298533669619</v>
+        <v>0.8323498041927576</v>
       </c>
       <c r="FD4">
-        <v>0.8354464022069793</v>
+        <v>0.8354655540112791</v>
       </c>
       <c r="FE4">
-        <v>0.8441310833184934</v>
+        <v>0.8441514643871862</v>
       </c>
       <c r="FF4">
-        <v>0.853049679433011</v>
+        <v>0.8530713749735734</v>
       </c>
       <c r="FG4">
-        <v>0.8637287215701334</v>
+        <v>0.8637523728546567</v>
       </c>
       <c r="FH4">
-        <v>0.8644980343800116</v>
+        <v>0.8645200316228119</v>
       </c>
       <c r="FI4">
-        <v>0.8652277305893812</v>
+        <v>0.8652480593594449</v>
       </c>
       <c r="FJ4">
-        <v>0.8717343786729286</v>
+        <v>0.8717551433221997</v>
       </c>
       <c r="FK4">
-        <v>0.8852324378462479</v>
+        <v>0.8852561851138783</v>
       </c>
       <c r="FL4">
-        <v>0.8984103240154562</v>
+        <v>0.8984369372730405</v>
       </c>
       <c r="FM4">
-        <v>0.904503234093691</v>
+        <v>0.9045301325194512</v>
       </c>
       <c r="FN4">
-        <v>0.9087007471475884</v>
+        <v>0.9087272403112597</v>
       </c>
       <c r="FO4">
-        <v>0.9092753219049662</v>
+        <v>0.9093000900903015</v>
       </c>
       <c r="FP4">
-        <v>0.9100268449146159</v>
+        <v>0.9100499525779943</v>
       </c>
       <c r="FQ4">
-        <v>0.9106544139226741</v>
+        <v>0.9106758159117642</v>
       </c>
       <c r="FR4">
-        <v>0.9129156660517093</v>
+        <v>0.9129359574630821</v>
       </c>
       <c r="FS4">
-        <v>0.917686163112964</v>
+        <v>0.9177062579813156</v>
       </c>
       <c r="FT4">
-        <v>0.9209255731545591</v>
+        <v>0.920944913755675</v>
       </c>
       <c r="FU4">
-        <v>0.9234249411866519</v>
+        <v>0.9234432579477755</v>
       </c>
       <c r="FV4">
-        <v>0.9266149217276123</v>
+        <v>0.9266324662159727</v>
       </c>
       <c r="FW4">
-        <v>0.9308998687826324</v>
+        <v>0.9309170398582103</v>
       </c>
       <c r="FX4">
-        <v>0.9317766723938908</v>
+        <v>0.9317922285830792</v>
       </c>
       <c r="FY4">
-        <v>0.931778393914013</v>
+        <v>0.9317922285830792</v>
       </c>
       <c r="FZ4">
-        <v>0.933387697334677</v>
+        <v>0.9334001839427368</v>
       </c>
       <c r="GA4">
-        <v>0.9394806074129118</v>
+        <v>0.9394933791891475</v>
       </c>
       <c r="GB4">
-        <v>0.9473378005138007</v>
+        <v>0.9473515001279954</v>
       </c>
       <c r="GC4">
-        <v>0.9524091525789184</v>
+        <v>0.9524227652415904</v>
       </c>
       <c r="GD4">
-        <v>0.9534971467928887</v>
+        <v>0.9535092214989024</v>
       </c>
       <c r="GE4">
-        <v>0.9550869247133019</v>
+        <v>0.9550976442458172</v>
       </c>
       <c r="GF4">
-        <v>0.955760742771954</v>
+        <v>0.9557697734771761</v>
       </c>
       <c r="GG4">
-        <v>0.9559586114544947</v>
+        <v>0.9559657799598532</v>
       </c>
       <c r="GH4">
-        <v>0.9566705194636358</v>
+        <v>0.9566760130166067</v>
       </c>
       <c r="GI4">
-        <v>0.9643113018617459</v>
+        <v>0.9643176444214351</v>
       </c>
       <c r="GJ4">
-        <v>0.9816353420841921</v>
+        <v>0.9816460609402272</v>
       </c>
       <c r="GK4">
-        <v>0.988846443876785</v>
+        <v>0.9888578552211466</v>
       </c>
       <c r="GL4">
-        <v>0.9891567260407691</v>
+        <v>0.9891663161337697</v>
       </c>
       <c r="GM4">
-        <v>0.9893822317636647</v>
+        <v>0.9893899697240588</v>
       </c>
       <c r="GN4">
-        <v>0.9917508581940786</v>
+        <v>0.9917575246896517</v>
       </c>
       <c r="GO4">
-        <v>0.9947536054326348</v>
+        <v>0.9947594314525634</v>
       </c>
       <c r="GP4">
-        <v>0.9954215524412114</v>
+        <v>0.995425687495218</v>
       </c>
       <c r="GQ4">
-        <v>0.9964969306550197</v>
+        <v>0.9964995231567776</v>
       </c>
       <c r="GR4">
-        <v>0.9984164727796672</v>
+        <v>0.9984178302300879</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>3.268326446761047E-08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.850787381494512E-05</v>
+        <v>3.481239476552201E-05</v>
       </c>
       <c r="D5">
-        <v>6.125512214039767E-05</v>
+        <v>5.3886296383721E-05</v>
       </c>
       <c r="E5">
-        <v>6.179335584809837E-05</v>
+        <v>5.3886296383721E-05</v>
       </c>
       <c r="F5">
-        <v>7.342228101447732E-05</v>
+        <v>6.183441623433567E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001031692264400769</v>
+        <v>8.791271062482729E-05</v>
       </c>
       <c r="H5">
-        <v>0.0002595665486777061</v>
+        <v>0.0002407263438818654</v>
       </c>
       <c r="I5">
-        <v>0.0002829555590123405</v>
+        <v>0.0002604424380284456</v>
       </c>
       <c r="J5">
-        <v>0.0003028227782965875</v>
+        <v>0.0002766343785686732</v>
       </c>
       <c r="K5">
-        <v>0.0003065089119493263</v>
+        <v>0.0002766343785686732</v>
       </c>
       <c r="L5">
-        <v>0.0003133263642468659</v>
+        <v>0.0002797677978251903</v>
       </c>
       <c r="M5">
-        <v>0.0003179475373129825</v>
+        <v>0.0002807034644997862</v>
       </c>
       <c r="N5">
-        <v>0.0003185352075513905</v>
+        <v>0.0002807034644997862</v>
       </c>
       <c r="O5">
-        <v>0.0003185357961574989</v>
+        <v>0.0002807034644997862</v>
       </c>
       <c r="P5">
-        <v>0.0003204984018855786</v>
+        <v>0.0002807034644997862</v>
       </c>
       <c r="Q5">
-        <v>0.0003308767900340657</v>
+        <v>0.000287400208423088</v>
       </c>
       <c r="R5">
-        <v>0.0003352878940971769</v>
+        <v>0.0002881256651721281</v>
       </c>
       <c r="S5">
-        <v>0.0003354936004901199</v>
+        <v>0.0002881256651721281</v>
       </c>
       <c r="T5">
-        <v>0.0003387799723371392</v>
+        <v>0.0002881256651721281</v>
       </c>
       <c r="U5">
-        <v>0.0003527716945373235</v>
+        <v>0.0002984381671137383</v>
       </c>
       <c r="V5">
-        <v>0.0003728598408247314</v>
+        <v>0.0003148511828636505</v>
       </c>
       <c r="W5">
-        <v>0.0004303087546466723</v>
+        <v>0.0003686500292205317</v>
       </c>
       <c r="X5">
-        <v>0.0004877576684686133</v>
+        <v>0.0004224488755774129</v>
       </c>
       <c r="Y5">
-        <v>0.0004961214865882772</v>
+        <v>0.0004271296980190737</v>
       </c>
       <c r="Z5">
-        <v>0.0004968407115985674</v>
+        <v>0.0004271296980190737</v>
       </c>
       <c r="AA5">
-        <v>0.0004971550332530646</v>
+        <v>0.0004271296980190737</v>
       </c>
       <c r="AB5">
-        <v>0.0005089531264218639</v>
+        <v>0.000435247099356659</v>
       </c>
       <c r="AC5">
-        <v>0.0005225708236166968</v>
+        <v>0.000445185325382232</v>
       </c>
       <c r="AD5">
-        <v>0.0005243973803428301</v>
+        <v>0.000445185325382232</v>
       </c>
       <c r="AE5">
-        <v>0.0005259664983652799</v>
+        <v>0.000445185325382232</v>
       </c>
       <c r="AF5">
-        <v>0.0005279497008936543</v>
+        <v>0.000445185325382232</v>
       </c>
       <c r="AG5">
-        <v>0.0005560914992962885</v>
+        <v>0.0004696573959539973</v>
       </c>
       <c r="AH5">
-        <v>0.0005602974203564641</v>
+        <v>0.0004701775320552726</v>
       </c>
       <c r="AI5">
-        <v>0.0005610464305271805</v>
+        <v>0.0004701775320552726</v>
       </c>
       <c r="AJ5">
-        <v>0.000569126793642789</v>
+        <v>0.0004745747093401116</v>
       </c>
       <c r="AK5">
-        <v>0.0005736423212073941</v>
+        <v>0.0004754046596420381</v>
       </c>
       <c r="AL5">
-        <v>0.0005829304573402826</v>
+        <v>0.0004810104201658044</v>
       </c>
       <c r="AM5">
-        <v>0.0005867085781943374</v>
+        <v>0.0004811024690757535</v>
       </c>
       <c r="AN5">
-        <v>0.000593963014498129</v>
+        <v>0.0004846731654845827</v>
       </c>
       <c r="AO5">
-        <v>0.0006006520179938308</v>
+        <v>0.0004876780497707533</v>
       </c>
       <c r="AP5">
-        <v>0.0006016447456080341</v>
+        <v>0.0004876780497707533</v>
       </c>
       <c r="AQ5">
-        <v>0.0006051401346580438</v>
+        <v>0.0004876780497707533</v>
       </c>
       <c r="AR5">
-        <v>0.000702533186051479</v>
+        <v>0.0005814478297978013</v>
       </c>
       <c r="AS5">
-        <v>0.0007376120585533642</v>
+        <v>0.000612861628130991</v>
       </c>
       <c r="AT5">
-        <v>0.0007377052439546974</v>
+        <v>0.000612861628130991</v>
       </c>
       <c r="AU5">
-        <v>0.000737868556977034</v>
+        <v>0.000612861628130991</v>
       </c>
       <c r="AV5">
-        <v>0.0007454873550860387</v>
+        <v>0.0006167969307732643</v>
       </c>
       <c r="AW5">
-        <v>0.0007592336432827115</v>
+        <v>0.0006268638340645793</v>
       </c>
       <c r="AX5">
-        <v>0.0007637180638468716</v>
+        <v>0.0006276626564982612</v>
       </c>
       <c r="AY5">
-        <v>0.0007671216522955679</v>
+        <v>0.0006276626564982612</v>
       </c>
       <c r="AZ5">
-        <v>0.0007808679404922407</v>
+        <v>0.0006377295597895762</v>
       </c>
       <c r="BA5">
-        <v>0.000780921356918005</v>
+        <v>0.0006377295597895762</v>
       </c>
       <c r="BB5">
-        <v>0.000792382334581981</v>
+        <v>0.0006455096194719972</v>
       </c>
       <c r="BC5">
-        <v>0.0007923974927271979</v>
+        <v>0.0006455096194719972</v>
       </c>
       <c r="BD5">
-        <v>0.0008079652319499308</v>
+        <v>0.0006573991956903668</v>
       </c>
       <c r="BE5">
-        <v>0.0008620784907241475</v>
+        <v>0.0007078601493109108</v>
       </c>
       <c r="BF5">
-        <v>0.0008623928123786446</v>
+        <v>0.0007078601493109108</v>
       </c>
       <c r="BG5">
-        <v>0.0008824809586660525</v>
+        <v>0.0007242731650608231</v>
       </c>
       <c r="BH5">
-        <v>0.0009423271195222917</v>
+        <v>0.000780470866619608</v>
       </c>
       <c r="BI5">
-        <v>0.001342100105241978</v>
+        <v>0.00117682342932687</v>
       </c>
       <c r="BJ5">
-        <v>0.07404384614541035</v>
+        <v>0.07392365205398235</v>
       </c>
       <c r="BK5">
-        <v>0.1173404747648698</v>
+        <v>0.1172456371485224</v>
       </c>
       <c r="BL5">
-        <v>0.1322683604784481</v>
+        <v>0.1321798484685647</v>
       </c>
       <c r="BM5">
-        <v>0.1338720318013923</v>
+        <v>0.1337809069908561</v>
       </c>
       <c r="BN5">
-        <v>0.1465486709827613</v>
+        <v>0.1464623615539632</v>
       </c>
       <c r="BO5">
-        <v>0.1492680470216683</v>
+        <v>0.1491798732508267</v>
       </c>
       <c r="BP5">
-        <v>0.155028428604084</v>
+        <v>0.1549404305173344</v>
       </c>
       <c r="BQ5">
-        <v>0.176707790914258</v>
+        <v>0.1766306475900405</v>
       </c>
       <c r="BR5">
-        <v>0.1816770509853549</v>
+        <v>0.1815995526298012</v>
       </c>
       <c r="BS5">
-        <v>0.1948139361733087</v>
+        <v>0.194741561950618</v>
       </c>
       <c r="BT5">
-        <v>0.207687769357499</v>
+        <v>0.2076203428020401</v>
       </c>
       <c r="BU5">
-        <v>0.2115892380133186</v>
+        <v>0.2115207401100409</v>
       </c>
       <c r="BV5">
-        <v>0.2116312664299199</v>
+        <v>0.211559108114501</v>
       </c>
       <c r="BW5">
-        <v>0.2116485017981665</v>
+        <v>0.2115726664384544</v>
       </c>
       <c r="BX5">
-        <v>0.2215307739395555</v>
+        <v>0.2214578793902556</v>
       </c>
       <c r="BY5">
-        <v>0.2412528652217261</v>
+        <v>0.2411895124205642</v>
       </c>
       <c r="BZ5">
-        <v>0.2440179689612874</v>
+        <v>0.2439527824940222</v>
       </c>
       <c r="CA5">
-        <v>0.2518842130738324</v>
+        <v>0.2518206149860779</v>
       </c>
       <c r="CB5">
-        <v>0.2518911601955318</v>
+        <v>0.2518238781617236</v>
       </c>
       <c r="CC5">
-        <v>0.2576253110775722</v>
+        <v>0.2575581871312704</v>
       </c>
       <c r="CD5">
-        <v>0.2577294848290627</v>
+        <v>0.2576587421601548</v>
       </c>
       <c r="CE5">
-        <v>0.2594018358529896</v>
+        <v>0.2593285264564738</v>
       </c>
       <c r="CF5">
-        <v>0.2641734583212588</v>
+        <v>0.2640996613103287</v>
       </c>
       <c r="CG5">
-        <v>0.2642069932177386</v>
+        <v>0.2641295300968799</v>
       </c>
       <c r="CH5">
-        <v>0.2679565165713843</v>
+        <v>0.2678778801718213</v>
       </c>
       <c r="CI5">
-        <v>0.2948375099559797</v>
+        <v>0.2947732177776781</v>
       </c>
       <c r="CJ5">
-        <v>0.3128356192134847</v>
+        <v>0.3127797122683666</v>
       </c>
       <c r="CK5">
-        <v>0.3129876970456606</v>
+        <v>0.3129282035138781</v>
       </c>
       <c r="CL5">
-        <v>0.316275197792696</v>
+        <v>0.3162142210392712</v>
       </c>
       <c r="CM5">
-        <v>0.3168974267515984</v>
+        <v>0.3168331788073782</v>
       </c>
       <c r="CN5">
-        <v>0.3279334999094953</v>
+        <v>0.3278729667907935</v>
       </c>
       <c r="CO5">
-        <v>0.3308710231515234</v>
+        <v>0.3308087720325028</v>
       </c>
       <c r="CP5">
-        <v>0.3309864143691743</v>
+        <v>0.3309205520526652</v>
       </c>
       <c r="CQ5">
-        <v>0.3436741870507026</v>
+        <v>0.3436131475847214</v>
       </c>
       <c r="CR5">
-        <v>0.3639484723407736</v>
+        <v>0.3638973450563913</v>
       </c>
       <c r="CS5">
-        <v>0.3647233707518603</v>
+        <v>0.3646690746933564</v>
       </c>
       <c r="CT5">
-        <v>0.3732198898734229</v>
+        <v>0.3731676050076974</v>
       </c>
       <c r="CU5">
-        <v>0.3740843813357915</v>
+        <v>0.3740289877984872</v>
       </c>
       <c r="CV5">
-        <v>0.3762523353668091</v>
+        <v>0.3761947075718884</v>
       </c>
       <c r="CW5">
-        <v>0.3772962314817445</v>
+        <v>0.3772356153669428</v>
       </c>
       <c r="CX5">
-        <v>0.3778760546500403</v>
+        <v>0.3778121388969708</v>
       </c>
       <c r="CY5">
-        <v>0.3983641309431701</v>
+        <v>0.3983102707911137</v>
       </c>
       <c r="CZ5">
-        <v>0.4265740073467783</v>
+        <v>0.4265353828829836</v>
       </c>
       <c r="DA5">
-        <v>0.4602172238281231</v>
+        <v>0.4601974799508329</v>
       </c>
       <c r="DB5">
-        <v>0.4935589113051539</v>
+        <v>0.4935578457368515</v>
       </c>
       <c r="DC5">
-        <v>0.4937167314974119</v>
+        <v>0.4937120831946461</v>
       </c>
       <c r="DD5">
-        <v>0.5219933639019751</v>
+        <v>0.5220039960700223</v>
       </c>
       <c r="DE5">
-        <v>0.5849070048021018</v>
+        <v>0.5849561533086962</v>
       </c>
       <c r="DF5">
-        <v>0.627418703410331</v>
+        <v>0.6274926818300794</v>
       </c>
       <c r="DG5">
-        <v>0.6413784326100576</v>
+        <v>0.6414580871587984</v>
       </c>
       <c r="DH5">
-        <v>0.6414076428244755</v>
+        <v>0.6414836283621209</v>
       </c>
       <c r="DI5">
-        <v>0.643640516656422</v>
+        <v>0.643714311487207</v>
       </c>
       <c r="DJ5">
-        <v>0.6436407290673251</v>
+        <v>0.643714311487207</v>
       </c>
       <c r="DK5">
-        <v>0.6448476332845926</v>
+        <v>0.6449183367368405</v>
       </c>
       <c r="DL5">
-        <v>0.6450771380478763</v>
+        <v>0.6451443068544906</v>
       </c>
       <c r="DM5">
-        <v>0.6520344204474164</v>
+        <v>0.6521025678662707</v>
       </c>
       <c r="DN5">
-        <v>0.656121108505886</v>
+        <v>0.6561883088293824</v>
       </c>
       <c r="DO5">
-        <v>0.6691242566919264</v>
+        <v>0.6691964914322445</v>
       </c>
       <c r="DP5">
-        <v>0.6797401548438117</v>
+        <v>0.6798158225397267</v>
       </c>
       <c r="DQ5">
-        <v>0.6810308255622778</v>
+        <v>0.6811036704844227</v>
       </c>
       <c r="DR5">
-        <v>0.682582075384472</v>
+        <v>0.6826522723395594</v>
       </c>
       <c r="DS5">
-        <v>0.6826773838158356</v>
+        <v>0.6827439561011115</v>
       </c>
       <c r="DT5">
-        <v>0.6858220373608273</v>
+        <v>0.6858870305969388</v>
       </c>
       <c r="DU5">
-        <v>0.6892964408105368</v>
+        <v>0.6893600762066907</v>
       </c>
       <c r="DV5">
-        <v>0.6937470118742126</v>
+        <v>0.6938099442820416</v>
       </c>
       <c r="DW5">
-        <v>0.6938736576260246</v>
+        <v>0.6939329863863493</v>
       </c>
       <c r="DX5">
-        <v>0.6949256128410752</v>
+        <v>0.6949819586878804</v>
       </c>
       <c r="DY5">
-        <v>0.7009210742268543</v>
+        <v>0.7009777534585304</v>
       </c>
       <c r="DZ5">
-        <v>0.7076400829229854</v>
+        <v>0.7076975809235287</v>
       </c>
       <c r="EA5">
-        <v>0.7223613441336074</v>
+        <v>0.7224250291287707</v>
       </c>
       <c r="EB5">
-        <v>0.722405002001232</v>
+        <v>0.722465027677354</v>
       </c>
       <c r="EC5">
-        <v>0.725512705345695</v>
+        <v>0.7255711271850047</v>
       </c>
       <c r="ED5">
-        <v>0.7314026084299639</v>
+        <v>0.7314612928414838</v>
       </c>
       <c r="EE5">
-        <v>0.7437986446073181</v>
+        <v>0.7438619561610437</v>
       </c>
       <c r="EF5">
-        <v>0.7614010808591621</v>
+        <v>0.7614725122130553</v>
       </c>
       <c r="EG5">
-        <v>0.7654352749168807</v>
+        <v>0.7655057239603753</v>
       </c>
       <c r="EH5">
-        <v>0.7716923694064031</v>
+        <v>0.7717633273485458</v>
       </c>
       <c r="EI5">
-        <v>0.7749912162536008</v>
+        <v>0.7750606985855115</v>
       </c>
       <c r="EJ5">
-        <v>0.7768511469802114</v>
+        <v>0.7769181884203572</v>
       </c>
       <c r="EK5">
-        <v>0.7822619933576263</v>
+        <v>0.7823289759998997</v>
       </c>
       <c r="EL5">
-        <v>0.7928814725095628</v>
+        <v>0.7929518905097088</v>
       </c>
       <c r="EM5">
-        <v>0.7998471536092231</v>
+        <v>0.7999185558557874</v>
       </c>
       <c r="EN5">
-        <v>0.8064947737043329</v>
+        <v>0.8065669468294827</v>
       </c>
       <c r="EO5">
-        <v>0.807607431420252</v>
+        <v>0.8076766623535075</v>
       </c>
       <c r="EP5">
-        <v>0.8099236821533914</v>
+        <v>0.8099907783122915</v>
       </c>
       <c r="EQ5">
-        <v>0.8103516061995139</v>
+        <v>0.8104153008202402</v>
       </c>
       <c r="ER5">
-        <v>0.8103516596159396</v>
+        <v>0.8104153008202402</v>
       </c>
       <c r="ES5">
-        <v>0.8107693827719161</v>
+        <v>0.8108296155948845</v>
       </c>
       <c r="ET5">
-        <v>0.8116939306251439</v>
+        <v>0.8117510950647229</v>
       </c>
       <c r="EU5">
-        <v>0.8131455987459134</v>
+        <v>0.8132000484151125</v>
       </c>
       <c r="EV5">
-        <v>0.8168048715982679</v>
+        <v>0.8168580874451764</v>
       </c>
       <c r="EW5">
-        <v>0.8212158396613771</v>
+        <v>0.8212683259527102</v>
       </c>
       <c r="EX5">
-        <v>0.8243696372064996</v>
+        <v>0.8244205505828233</v>
       </c>
       <c r="EY5">
-        <v>0.8305863947954448</v>
+        <v>0.8306377900108372</v>
       </c>
       <c r="EZ5">
-        <v>0.8319686056152206</v>
+        <v>0.8320172394655434</v>
       </c>
       <c r="FA5">
-        <v>0.8324050928514656</v>
+        <v>0.8324503309081394</v>
       </c>
       <c r="FB5">
-        <v>0.8336693290695534</v>
+        <v>0.8337117266191545</v>
       </c>
       <c r="FC5">
-        <v>0.8351147955902342</v>
+        <v>0.8351544742091781</v>
       </c>
       <c r="FD5">
-        <v>0.837653411926555</v>
+        <v>0.8376911049427368</v>
       </c>
       <c r="FE5">
-        <v>0.8428151060004051</v>
+        <v>0.842852573077549</v>
       </c>
       <c r="FF5">
-        <v>0.8502632791069686</v>
+        <v>0.8503020541051477</v>
       </c>
       <c r="FG5">
-        <v>0.8621493992770274</v>
+        <v>0.862192459345697</v>
       </c>
       <c r="FH5">
-        <v>0.8645198849109427</v>
+        <v>0.8645608465881617</v>
       </c>
       <c r="FI5">
-        <v>0.8645528497714143</v>
+        <v>0.8645901449563022</v>
       </c>
       <c r="FJ5">
-        <v>0.8685734508289384</v>
+        <v>0.8686097545847085</v>
       </c>
       <c r="FK5">
-        <v>0.8807194460027152</v>
+        <v>0.8807602091633505</v>
       </c>
       <c r="FL5">
-        <v>0.8966934982312614</v>
+        <v>0.8967412888080095</v>
       </c>
       <c r="FM5">
-        <v>0.9053194313546755</v>
+        <v>0.905369319940205</v>
       </c>
       <c r="FN5">
-        <v>0.9098261144191542</v>
+        <v>0.909875337658496</v>
       </c>
       <c r="FO5">
-        <v>0.9119301064492566</v>
+        <v>0.911977052522756</v>
       </c>
       <c r="FP5">
-        <v>0.9122103432832661</v>
+        <v>0.9122537887442005</v>
       </c>
       <c r="FQ5">
-        <v>0.9130977531959625</v>
+        <v>0.9131381053599162</v>
       </c>
       <c r="FR5">
-        <v>0.9144947725159501</v>
+        <v>0.9145323732489589</v>
       </c>
       <c r="FS5">
-        <v>0.9186132369748744</v>
+        <v>0.9186499119293845</v>
       </c>
       <c r="FT5">
-        <v>0.9240398506525148</v>
+        <v>0.9240764773864778</v>
       </c>
       <c r="FU5">
-        <v>0.9263040618849097</v>
+        <v>0.9263385189343731</v>
       </c>
       <c r="FV5">
-        <v>0.9292415851269378</v>
+        <v>0.9292743241760824</v>
       </c>
       <c r="FW5">
-        <v>0.9341092888965816</v>
+        <v>0.9341416047864283</v>
       </c>
       <c r="FX5">
-        <v>0.935731487919791</v>
+        <v>0.9357612034380949</v>
       </c>
       <c r="FY5">
-        <v>0.9360626703245293</v>
+        <v>0.9360889194065611</v>
       </c>
       <c r="FZ5">
-        <v>0.9366472641328932</v>
+        <v>0.9366702167769904</v>
       </c>
       <c r="GA5">
-        <v>0.940134196682782</v>
+        <v>0.9401557998919348</v>
       </c>
       <c r="GB5">
-        <v>0.947788379392293</v>
+        <v>0.9478114287218259</v>
       </c>
       <c r="GC5">
-        <v>0.9541514864833321</v>
+        <v>0.9541751158289362</v>
       </c>
       <c r="GD5">
-        <v>0.9563820253152452</v>
+        <v>0.9564034623875791</v>
       </c>
       <c r="GE5">
-        <v>0.9578318108359878</v>
+        <v>0.9578505318750197</v>
       </c>
       <c r="GF5">
-        <v>0.9588086798499642</v>
+        <v>0.9588243676046992</v>
       </c>
       <c r="GG5">
-        <v>0.9588086804833623</v>
+        <v>0.9588243676046992</v>
       </c>
       <c r="GH5">
-        <v>0.9593373581909262</v>
+        <v>0.9593497113636086</v>
       </c>
       <c r="GI5">
-        <v>0.9626089228377336</v>
+        <v>0.9626197820982108</v>
       </c>
       <c r="GJ5">
-        <v>0.9778382620556249</v>
+        <v>0.9778556491494343</v>
       </c>
       <c r="GK5">
-        <v>0.9884526492074884</v>
+        <v>0.9884734682432567</v>
       </c>
       <c r="GL5">
-        <v>0.9900215415299352</v>
+        <v>0.990039724433929</v>
       </c>
       <c r="GM5">
-        <v>0.9900242848972745</v>
+        <v>0.990039724433929</v>
       </c>
       <c r="GN5">
-        <v>0.9910777850123472</v>
+        <v>0.9910902426718619</v>
       </c>
       <c r="GO5">
-        <v>0.9942575436578411</v>
+        <v>0.9942684458180737</v>
       </c>
       <c r="GP5">
-        <v>0.9956074797771551</v>
+        <v>0.9956155989211797</v>
       </c>
       <c r="GQ5">
-        <v>0.9962097331457718</v>
+        <v>0.9962145676985893</v>
       </c>
       <c r="GR5">
-        <v>0.9982507207749729</v>
+        <v>0.9982532358961175</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.939356449204021E-05</v>
+        <v>1.587740236448348E-05</v>
       </c>
       <c r="C6">
-        <v>3.669990203874945E-05</v>
+        <v>2.966618219239148E-05</v>
       </c>
       <c r="D6">
-        <v>3.713744989728911E-05</v>
+        <v>2.966618219239148E-05</v>
       </c>
       <c r="E6">
-        <v>4.34616502316445E-05</v>
+        <v>3.246548177580733E-05</v>
       </c>
       <c r="F6">
-        <v>6.782880059341565E-05</v>
+        <v>5.331979551945381E-05</v>
       </c>
       <c r="G6">
-        <v>7.347133644562531E-05</v>
+        <v>5.543697483656252E-05</v>
       </c>
       <c r="H6">
-        <v>7.416762522738798E-05</v>
+        <v>5.543697483656252E-05</v>
       </c>
       <c r="I6">
-        <v>7.732096014479525E-05</v>
+        <v>5.543697483656252E-05</v>
       </c>
       <c r="J6">
-        <v>9.221444475470238E-05</v>
+        <v>6.681128841176118E-05</v>
       </c>
       <c r="K6">
-        <v>9.574121596232855E-05</v>
+        <v>6.681128841176118E-05</v>
       </c>
       <c r="L6">
-        <v>9.742680021817942E-05</v>
+        <v>6.681128841176118E-05</v>
       </c>
       <c r="M6">
-        <v>0.000100873416227905</v>
+        <v>6.681128841176118E-05</v>
       </c>
       <c r="N6">
-        <v>0.0001063575890842626</v>
+        <v>6.876999884610835E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001121781776318086</v>
+        <v>7.106534991066863E-05</v>
       </c>
       <c r="P6">
-        <v>0.0001365453279935798</v>
+        <v>9.191966365431512E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001483962646831779</v>
+        <v>0.0001002493949577184</v>
       </c>
       <c r="R6">
-        <v>0.0001771578549298491</v>
+        <v>0.0001255010868589054</v>
       </c>
       <c r="S6">
-        <v>0.0002028042312581145</v>
+        <v>0.0001476354819032313</v>
       </c>
       <c r="T6">
-        <v>0.000204403772316219</v>
+        <v>0.0001476354819032313</v>
       </c>
       <c r="U6">
-        <v>0.0002220869608530577</v>
+        <v>0.0001618013646967157</v>
       </c>
       <c r="V6">
-        <v>0.0002405725143688807</v>
+        <v>0.0001767701489578216</v>
       </c>
       <c r="W6">
-        <v>0.0002566412829480046</v>
+        <v>0.0001893205323372517</v>
       </c>
       <c r="X6">
-        <v>0.0002609449212352829</v>
+        <v>0.0001900979188567745</v>
       </c>
       <c r="Y6">
-        <v>0.0002676817480588307</v>
+        <v>0.0001933101208255506</v>
       </c>
       <c r="Z6">
-        <v>0.0002689257549262475</v>
+        <v>0.0001933101208255506</v>
       </c>
       <c r="AA6">
-        <v>0.0002716741632542607</v>
+        <v>0.0001933101208255506</v>
       </c>
       <c r="AB6">
-        <v>0.0002767349054217088</v>
+        <v>0.0001948451174507635</v>
       </c>
       <c r="AC6">
-        <v>0.0002827186077649825</v>
+        <v>0.000197303691374508</v>
       </c>
       <c r="AD6">
-        <v>0.000284201053526154</v>
+        <v>0.000197303691374508</v>
       </c>
       <c r="AE6">
-        <v>0.0003116292178077505</v>
+        <v>0.0002212210657364643</v>
       </c>
       <c r="AF6">
-        <v>0.0003202352745823391</v>
+        <v>0.0002263037474872875</v>
       </c>
       <c r="AG6">
-        <v>0.0003204213388574657</v>
+        <v>0.0002263037474872875</v>
       </c>
       <c r="AH6">
-        <v>0.0003412769363112121</v>
+        <v>0.0002436441603786648</v>
       </c>
       <c r="AI6">
-        <v>0.000376592055386232</v>
+        <v>0.0002754537630214726</v>
       </c>
       <c r="AJ6">
-        <v>0.0004160395093530171</v>
+        <v>0.0003113984635763328</v>
       </c>
       <c r="AK6">
-        <v>0.000416205782088662</v>
+        <v>0.0003113984635763328</v>
       </c>
       <c r="AL6">
-        <v>0.0004365099925568504</v>
+        <v>0.0003281871208059758</v>
       </c>
       <c r="AM6">
-        <v>0.0004974761459600138</v>
+        <v>0.000385664908934831</v>
       </c>
       <c r="AN6">
-        <v>0.0005226469653007351</v>
+        <v>0.0004073234290179638</v>
       </c>
       <c r="AO6">
-        <v>0.0005238094005702883</v>
+        <v>0.0004073234290179638</v>
       </c>
       <c r="AP6">
-        <v>0.0005303035774001917</v>
+        <v>0.0004102928187490197</v>
       </c>
       <c r="AQ6">
-        <v>0.0005328291229340421</v>
+        <v>0.0004102928187490197</v>
       </c>
       <c r="AR6">
-        <v>0.0005328594081862489</v>
+        <v>0.0004102928187490197</v>
       </c>
       <c r="AS6">
-        <v>0.0005370744550758477</v>
+        <v>0.0004109815546356277</v>
       </c>
       <c r="AT6">
-        <v>0.0005396686810078993</v>
+        <v>0.0004109815546356277</v>
       </c>
       <c r="AU6">
-        <v>0.0005871953797630712</v>
+        <v>0.000455010902037963</v>
       </c>
       <c r="AV6">
-        <v>0.0005960677815306836</v>
+        <v>0.0004603601068691719</v>
       </c>
       <c r="AW6">
-        <v>0.0006094828331793141</v>
+        <v>0.0004702549989523063</v>
       </c>
       <c r="AX6">
-        <v>0.0006347903155164559</v>
+        <v>0.000492050273409408</v>
       </c>
       <c r="AY6">
-        <v>0.0006440892537728964</v>
+        <v>0.0004978262999263139</v>
       </c>
       <c r="AZ6">
-        <v>0.000705637516160813</v>
+        <v>0.0005558865862578769</v>
       </c>
       <c r="BA6">
-        <v>0.0007222785757249473</v>
+        <v>0.000569009643275622</v>
       </c>
       <c r="BB6">
-        <v>0.0007290861925466409</v>
+        <v>0.0005722926825751552</v>
       </c>
       <c r="BC6">
-        <v>0.0007427482901888008</v>
+        <v>0.0005824347858352103</v>
       </c>
       <c r="BD6">
-        <v>0.0007744484893585034</v>
+        <v>0.0006106270515137505</v>
       </c>
       <c r="BE6">
-        <v>0.0008113002883932744</v>
+        <v>0.0006439743615930301</v>
       </c>
       <c r="BF6">
-        <v>0.0008114748037287035</v>
+        <v>0.0006439743615930301</v>
       </c>
       <c r="BG6">
-        <v>0.0008125172567013993</v>
+        <v>0.0006439743615930301</v>
       </c>
       <c r="BH6">
-        <v>0.0008249306343762658</v>
+        <v>0.00065286690994896</v>
       </c>
       <c r="BI6">
-        <v>0.0009324465815601884</v>
+        <v>0.000756925616641042</v>
       </c>
       <c r="BJ6">
-        <v>0.06023461902830683</v>
+        <v>0.06009522039258137</v>
       </c>
       <c r="BK6">
-        <v>0.07182232372479955</v>
+        <v>0.0716871438949938</v>
       </c>
       <c r="BL6">
-        <v>0.1105130987114037</v>
+        <v>0.1104002597262737</v>
       </c>
       <c r="BM6">
-        <v>0.1126355974558108</v>
+        <v>0.1125206485165279</v>
       </c>
       <c r="BN6">
-        <v>0.1191676112847231</v>
+        <v>0.1190535007437212</v>
       </c>
       <c r="BO6">
-        <v>0.121040731335662</v>
+        <v>0.1209243440973928</v>
       </c>
       <c r="BP6">
-        <v>0.1218606755141859</v>
+        <v>0.12174130738928</v>
       </c>
       <c r="BQ6">
-        <v>0.1474285398445077</v>
+        <v>0.1473227381378765</v>
       </c>
       <c r="BR6">
-        <v>0.1546933069542276</v>
+        <v>0.154588833589755</v>
       </c>
       <c r="BS6">
-        <v>0.1637329227174603</v>
+        <v>0.1636309644195927</v>
       </c>
       <c r="BT6">
-        <v>0.1918346879814137</v>
+        <v>0.1917479903545543</v>
       </c>
       <c r="BU6">
-        <v>0.1932286531449027</v>
+        <v>0.1931393584414482</v>
       </c>
       <c r="BV6">
-        <v>0.1938587877883981</v>
+        <v>0.1937663852851671</v>
       </c>
       <c r="BW6">
-        <v>0.1939938395948608</v>
+        <v>0.1938979982625542</v>
       </c>
       <c r="BX6">
-        <v>0.1992961984559805</v>
+        <v>0.199200373332633</v>
       </c>
       <c r="BY6">
-        <v>0.2216522828704258</v>
+        <v>0.2215678766595727</v>
       </c>
       <c r="BZ6">
-        <v>0.2306810346339431</v>
+        <v>0.2305991362256536</v>
       </c>
       <c r="CA6">
-        <v>0.2356543278036817</v>
+        <v>0.2355722255797877</v>
       </c>
       <c r="CB6">
-        <v>0.2377501077487886</v>
+        <v>0.2376658777056397</v>
       </c>
       <c r="CC6">
-        <v>0.2409983212637108</v>
+        <v>0.2409127339577639</v>
       </c>
       <c r="CD6">
-        <v>0.2426826840195937</v>
+        <v>0.2425946938068032</v>
       </c>
       <c r="CE6">
-        <v>0.2438474127890869</v>
+        <v>0.2437566722244166</v>
       </c>
       <c r="CF6">
-        <v>0.2497776100337621</v>
+        <v>0.2496873054722439</v>
       </c>
       <c r="CG6">
-        <v>0.2497996303951853</v>
+        <v>0.2497058114279057</v>
       </c>
       <c r="CH6">
-        <v>0.2513580197543677</v>
+        <v>0.2512617136501278</v>
       </c>
       <c r="CI6">
-        <v>0.2709252052418604</v>
+        <v>0.2708384532970112</v>
       </c>
       <c r="CJ6">
-        <v>0.3018490084318985</v>
+        <v>0.301779404069028</v>
       </c>
       <c r="CK6">
-        <v>0.3026829699400552</v>
+        <v>0.3026103940630135</v>
       </c>
       <c r="CL6">
-        <v>0.3038650801090932</v>
+        <v>0.3037897655019692</v>
       </c>
       <c r="CM6">
-        <v>0.305189068574415</v>
+        <v>0.3051111101018849</v>
       </c>
       <c r="CN6">
-        <v>0.3120049553958921</v>
+        <v>0.3119280251288241</v>
       </c>
       <c r="CO6">
-        <v>0.3202820696790964</v>
+        <v>0.3202071446440934</v>
       </c>
       <c r="CP6">
-        <v>0.3204415240149199</v>
+        <v>0.3203631764672062</v>
       </c>
       <c r="CQ6">
-        <v>0.3254425778839314</v>
+        <v>0.3253640450823652</v>
       </c>
       <c r="CR6">
-        <v>0.3489751722675614</v>
+        <v>0.3489088450332497</v>
       </c>
       <c r="CS6">
-        <v>0.3507875450200914</v>
+        <v>0.3507189004707933</v>
       </c>
       <c r="CT6">
-        <v>0.3543548566266557</v>
+        <v>0.3542850681744455</v>
       </c>
       <c r="CU6">
-        <v>0.3557231101908181</v>
+        <v>0.3556507074703592</v>
       </c>
       <c r="CV6">
-        <v>0.3563087728454783</v>
+        <v>0.3562332325897518</v>
       </c>
       <c r="CW6">
-        <v>0.3581847994963411</v>
+        <v>0.3581069844867993</v>
       </c>
       <c r="CX6">
-        <v>0.3581922793597452</v>
+        <v>0.3581109402221683</v>
       </c>
       <c r="CY6">
-        <v>0.3711813070195342</v>
+        <v>0.3711051236602856</v>
       </c>
       <c r="CZ6">
-        <v>0.4024850921996198</v>
+        <v>0.4024263104912902</v>
       </c>
       <c r="DA6">
-        <v>0.4407756611967062</v>
+        <v>0.440738952741655</v>
       </c>
       <c r="DB6">
-        <v>0.4793529151862837</v>
+        <v>0.4793384716718914</v>
       </c>
       <c r="DC6">
-        <v>0.4833855315806607</v>
+        <v>0.4833702552820342</v>
       </c>
       <c r="DD6">
-        <v>0.5014871601065395</v>
+        <v>0.5014804580458494</v>
       </c>
       <c r="DE6">
-        <v>0.5658107684217638</v>
+        <v>0.5658435461938434</v>
       </c>
       <c r="DF6">
-        <v>0.6193216570201968</v>
+        <v>0.6193866848712333</v>
       </c>
       <c r="DG6">
-        <v>0.6419111014285299</v>
+        <v>0.6419877042245253</v>
       </c>
       <c r="DH6">
-        <v>0.6431405650963276</v>
+        <v>0.6432144608244078</v>
       </c>
       <c r="DI6">
-        <v>0.6449618315486246</v>
+        <v>0.6450334159083499</v>
       </c>
       <c r="DJ6">
-        <v>0.6453894222774251</v>
+        <v>0.6454577634095927</v>
       </c>
       <c r="DK6">
-        <v>0.6465730090464245</v>
+        <v>0.6466386124358149</v>
       </c>
       <c r="DL6">
-        <v>0.6465749485069736</v>
+        <v>0.6466386124358149</v>
       </c>
       <c r="DM6">
-        <v>0.6523228417564237</v>
+        <v>0.6523868197937376</v>
       </c>
       <c r="DN6">
-        <v>0.6569875593342446</v>
+        <v>0.6570511272317709</v>
       </c>
       <c r="DO6">
-        <v>0.6662800805908532</v>
+        <v>0.6663463326562378</v>
       </c>
       <c r="DP6">
-        <v>0.6789520792589459</v>
+        <v>0.6790232751262438</v>
       </c>
       <c r="DQ6">
-        <v>0.6807881385108554</v>
+        <v>0.6808570329007698</v>
       </c>
       <c r="DR6">
-        <v>0.6819925181793101</v>
+        <v>0.6820586887292904</v>
       </c>
       <c r="DS6">
-        <v>0.6820194544666045</v>
+        <v>0.6820821138977795</v>
       </c>
       <c r="DT6">
-        <v>0.6836492393239169</v>
+        <v>0.6837094593556008</v>
       </c>
       <c r="DU6">
-        <v>0.6880136642096031</v>
+        <v>0.6880732733155461</v>
       </c>
       <c r="DV6">
-        <v>0.6926138800891134</v>
+        <v>0.6926730359272297</v>
       </c>
       <c r="DW6">
-        <v>0.6934305541677229</v>
+        <v>0.6934867269327021</v>
       </c>
       <c r="DX6">
-        <v>0.6934641161838438</v>
+        <v>0.6935167822602063</v>
       </c>
       <c r="DY6">
-        <v>0.6984307582537567</v>
+        <v>0.6984832160673621</v>
       </c>
       <c r="DZ6">
-        <v>0.7033697354243941</v>
+        <v>0.7034219664775456</v>
       </c>
       <c r="EA6">
-        <v>0.7175773190522664</v>
+        <v>0.7176355206518978</v>
       </c>
       <c r="EB6">
-        <v>0.7190264165143114</v>
+        <v>0.7190820579006861</v>
       </c>
       <c r="EC6">
-        <v>0.7208356240669244</v>
+        <v>0.7208889460219519</v>
       </c>
       <c r="ED6">
-        <v>0.7263370639228296</v>
+        <v>0.7263905351991709</v>
       </c>
       <c r="EE6">
-        <v>0.7355388616818144</v>
+        <v>0.7355949564651839</v>
       </c>
       <c r="EF6">
-        <v>0.7557334641528737</v>
+        <v>0.7557995326080644</v>
       </c>
       <c r="EG6">
-        <v>0.763469348250254</v>
+        <v>0.7635370600525168</v>
       </c>
       <c r="EH6">
-        <v>0.7688087201104042</v>
+        <v>0.7688764728697818</v>
       </c>
       <c r="EI6">
-        <v>0.7749641442491803</v>
+        <v>0.775032483606106</v>
       </c>
       <c r="EJ6">
-        <v>0.7753784214383295</v>
+        <v>0.77544350866581</v>
       </c>
       <c r="EK6">
-        <v>0.7798968846199811</v>
+        <v>0.7799614639169881</v>
       </c>
       <c r="EL6">
-        <v>0.7907534323356243</v>
+        <v>0.7908217415620141</v>
       </c>
       <c r="EM6">
-        <v>0.798317039437517</v>
+        <v>0.7983868768206939</v>
       </c>
       <c r="EN6">
-        <v>0.8052554995557836</v>
+        <v>0.8053264471011166</v>
       </c>
       <c r="EO6">
-        <v>0.8061787953816004</v>
+        <v>0.8062468311447391</v>
       </c>
       <c r="EP6">
-        <v>0.8088541060115282</v>
+        <v>0.808920401449427</v>
       </c>
       <c r="EQ6">
-        <v>0.8094430953961013</v>
+        <v>0.8095062555230977</v>
       </c>
       <c r="ER6">
-        <v>0.8095843811024007</v>
+        <v>0.80964410656852</v>
       </c>
       <c r="ES6">
-        <v>0.8098485063354827</v>
+        <v>0.8099048792754292</v>
       </c>
       <c r="ET6">
-        <v>0.8106337067149165</v>
+        <v>0.8106870755373353</v>
       </c>
       <c r="EU6">
-        <v>0.8120799740770356</v>
+        <v>0.8121307807938962</v>
       </c>
       <c r="EV6">
-        <v>0.8153085016924734</v>
+        <v>0.8153579379838711</v>
       </c>
       <c r="EW6">
-        <v>0.8187809124015234</v>
+        <v>0.8188291413360267</v>
       </c>
       <c r="EX6">
-        <v>0.8222163592115416</v>
+        <v>0.8222633560738246</v>
       </c>
       <c r="EY6">
-        <v>0.8263464138033664</v>
+        <v>0.8263926430319231</v>
       </c>
       <c r="EZ6">
-        <v>0.8292842784264173</v>
+        <v>0.829328942882304</v>
       </c>
       <c r="FA6">
-        <v>0.8296373143671705</v>
+        <v>0.8296786857456211</v>
       </c>
       <c r="FB6">
-        <v>0.8308939424342566</v>
+        <v>0.8309326249078375</v>
       </c>
       <c r="FC6">
-        <v>0.8319415667068171</v>
+        <v>0.8319774205284507</v>
       </c>
       <c r="FD6">
-        <v>0.8342558366462013</v>
+        <v>0.8342897087384546</v>
       </c>
       <c r="FE6">
-        <v>0.8378882441510606</v>
+        <v>0.8379210158657434</v>
       </c>
       <c r="FF6">
-        <v>0.844786160570389</v>
+        <v>0.8448200153383257</v>
       </c>
       <c r="FG6">
-        <v>0.8564467642649723</v>
+        <v>0.8564848865815895</v>
       </c>
       <c r="FH6">
-        <v>0.8624327931081852</v>
+        <v>0.8624713887588686</v>
       </c>
       <c r="FI6">
-        <v>0.8624887976067184</v>
+        <v>0.8625239015745955</v>
       </c>
       <c r="FJ6">
-        <v>0.8646347375505116</v>
+        <v>0.8646677472378225</v>
       </c>
       <c r="FK6">
-        <v>0.8741974863000423</v>
+        <v>0.8742333608385454</v>
       </c>
       <c r="FL6">
-        <v>0.8899524498873854</v>
+        <v>0.8899953296034746</v>
       </c>
       <c r="FM6">
-        <v>0.900552115609757</v>
+        <v>0.9005985534951521</v>
       </c>
       <c r="FN6">
-        <v>0.9053553094839508</v>
+        <v>0.9054014298195411</v>
       </c>
       <c r="FO6">
-        <v>0.9078943581174476</v>
+        <v>0.9079386470183719</v>
       </c>
       <c r="FP6">
-        <v>0.9079023629352378</v>
+        <v>0.9079431280591296</v>
       </c>
       <c r="FQ6">
-        <v>0.9089002075091022</v>
+        <v>0.9089381106966393</v>
       </c>
       <c r="FR6">
-        <v>0.910415283469419</v>
+        <v>0.9104506705591776</v>
       </c>
       <c r="FS6">
-        <v>0.9136767113839951</v>
+        <v>0.9137107500465548</v>
       </c>
       <c r="FT6">
-        <v>0.9183744899609501</v>
+        <v>0.9184081405894357</v>
       </c>
       <c r="FU6">
-        <v>0.9208393961963888</v>
+        <v>0.9208711658160681</v>
       </c>
       <c r="FV6">
-        <v>0.923162752135535</v>
+        <v>0.923192546101044</v>
       </c>
       <c r="FW6">
-        <v>0.9266080956452939</v>
+        <v>0.9266366641558542</v>
       </c>
       <c r="FX6">
-        <v>0.9296039688668254</v>
+        <v>0.9296310113912465</v>
       </c>
       <c r="FY6">
-        <v>0.9301028228537593</v>
+        <v>0.9301266697996717</v>
       </c>
       <c r="FZ6">
-        <v>0.930362875176948</v>
+        <v>0.9303833668734008</v>
       </c>
       <c r="GA6">
-        <v>0.9333520990986538</v>
+        <v>0.9333710603630183</v>
       </c>
       <c r="GB6">
-        <v>0.9421511478681875</v>
+        <v>0.9421724633478462</v>
       </c>
       <c r="GC6">
-        <v>0.9488922979916221</v>
+        <v>0.9489145917052333</v>
       </c>
       <c r="GD6">
-        <v>0.9521020907075506</v>
+        <v>0.9521230014689049</v>
       </c>
       <c r="GE6">
-        <v>0.9529919016842445</v>
+        <v>0.9530098782742904</v>
       </c>
       <c r="GF6">
-        <v>0.9538864093608154</v>
+        <v>0.9539014549199268</v>
       </c>
       <c r="GG6">
-        <v>0.9541356724842867</v>
+        <v>0.954147355579911</v>
       </c>
       <c r="GH6">
-        <v>0.9546171210416765</v>
+        <v>0.9546255969209274</v>
       </c>
       <c r="GI6">
-        <v>0.9562348673993042</v>
+        <v>0.9562408958297118</v>
       </c>
       <c r="GJ6">
-        <v>0.9691375380613551</v>
+        <v>0.9691486645288521</v>
       </c>
       <c r="GK6">
-        <v>0.9844743896596494</v>
+        <v>0.9844922417407721</v>
       </c>
       <c r="GL6">
-        <v>0.9889045038436151</v>
+        <v>0.9889217889211059</v>
       </c>
       <c r="GM6">
-        <v>0.9889626464890922</v>
+        <v>0.9889764413134149</v>
       </c>
       <c r="GN6">
-        <v>0.9895628585733713</v>
+        <v>0.9895735255906721</v>
       </c>
       <c r="GO6">
-        <v>0.9927557474897426</v>
+        <v>0.9927650202523287</v>
       </c>
       <c r="GP6">
-        <v>0.9953794768210213</v>
+        <v>0.9953869747693492</v>
       </c>
       <c r="GQ6">
-        <v>0.9959916904049861</v>
+        <v>0.9959960685709048</v>
       </c>
       <c r="GR6">
-        <v>0.9978765813556167</v>
+        <v>0.9978786906946938</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.000331612557837233</v>
+        <v>0.002113820870170665</v>
       </c>
       <c r="F2">
-        <v>0.5074244289854656</v>
+        <v>0.5074242374076671</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.0007471044468722725</v>
+        <v>0.03293330902104907</v>
       </c>
       <c r="F3">
-        <v>0.5447796907594971</v>
+        <v>0.5448382151287723</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.001033359022648661</v>
+        <v>0.01188399216917213</v>
       </c>
       <c r="F4">
-        <v>0.5438315945275518</v>
+        <v>0.5438451031271856</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>107</v>
       </c>
       <c r="E5">
-        <v>0.0008824809586660525</v>
+        <v>0.00117682342932687</v>
       </c>
       <c r="F5">
-        <v>0.5219933639019751</v>
+        <v>0.5220039960700223</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.0008249306343762658</v>
+        <v>0.06009522039258137</v>
       </c>
       <c r="F6">
-        <v>0.5014871601065395</v>
+        <v>0.5014804580458494</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>127</v>
       </c>
       <c r="E2">
-        <v>0.000331612557837233</v>
+        <v>0.002113820870170665</v>
       </c>
       <c r="F2">
-        <v>0.7000775711265949</v>
+        <v>0.7000790287470667</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.0007471044468722725</v>
+        <v>0.03293330902104907</v>
       </c>
       <c r="F3">
-        <v>0.7069390560038707</v>
+        <v>0.7070399447702108</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>129</v>
       </c>
       <c r="E4">
-        <v>0.001033359022648661</v>
+        <v>0.01188399216917213</v>
       </c>
       <c r="F4">
-        <v>0.7085086046820573</v>
+        <v>0.7085395455631361</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>128</v>
       </c>
       <c r="E5">
-        <v>0.0008824809586660525</v>
+        <v>0.00117682342932687</v>
       </c>
       <c r="F5">
-        <v>0.7009210742268543</v>
+        <v>0.7009777534585304</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>129</v>
       </c>
       <c r="E6">
-        <v>0.0008249306343762658</v>
+        <v>0.06009522039258137</v>
       </c>
       <c r="F6">
-        <v>0.7033697354243941</v>
+        <v>0.7034219664775456</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.000331612557837233</v>
+        <v>0.002113820870170665</v>
       </c>
       <c r="F2">
-        <v>0.8051462609895597</v>
+        <v>0.8051483062527522</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>145</v>
       </c>
       <c r="E3">
-        <v>0.0007471044468722725</v>
+        <v>0.03293330902104907</v>
       </c>
       <c r="F3">
-        <v>0.8010228768125837</v>
+        <v>0.8011352258791539</v>
       </c>
       <c r="G3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.001033359022648661</v>
+        <v>0.01188399216917213</v>
       </c>
       <c r="F4">
-        <v>0.8014620069006088</v>
+        <v>0.8014997277467544</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.0008824809586660525</v>
+        <v>0.00117682342932687</v>
       </c>
       <c r="F5">
-        <v>0.8064947737043329</v>
+        <v>0.8065669468294827</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.0008249306343762658</v>
+        <v>0.06009522039258137</v>
       </c>
       <c r="F6">
-        <v>0.8052554995557836</v>
+        <v>0.8053264471011166</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.000331612557837233</v>
+        <v>0.002113820870170665</v>
       </c>
       <c r="F2">
-        <v>0.9036913587037944</v>
+        <v>0.9036928196611488</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3">
-        <v>0.0007471044468722725</v>
+        <v>0.03293330902104907</v>
       </c>
       <c r="F3">
-        <v>0.9051189524828658</v>
+        <v>0.9000567529687243</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.001033359022648661</v>
+        <v>0.01188399216917213</v>
       </c>
       <c r="F4">
-        <v>0.904503234093691</v>
+        <v>0.9045301325194512</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>168</v>
       </c>
       <c r="E5">
-        <v>0.0008824809586660525</v>
+        <v>0.00117682342932687</v>
       </c>
       <c r="F5">
-        <v>0.9053194313546755</v>
+        <v>0.905369319940205</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>168</v>
       </c>
       <c r="E6">
-        <v>0.0008249306343762658</v>
+        <v>0.06009522039258137</v>
       </c>
       <c r="F6">
-        <v>0.900552115609757</v>
+        <v>0.9005985534951521</v>
       </c>
       <c r="G6">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>42</v>

--- a/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
@@ -1994,52 +1994,52 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.425732194921492E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.081684666950265E-07</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.374516622765614E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.540757941561721E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.205522844703578E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.001049476317383E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.48509342082555E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.237603631662663E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.468134615296997E-07</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.335403653487333E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.172134611052336E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.476973792530723E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.421841654570486E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.736115761350296E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.062708447333386E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.936958058675017E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2048,46 +2048,46 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1.247824268097363E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>6.427266726011382E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.094023985730743E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1.335979868234025E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.878040315657382E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.021337853954067E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.023514895335148E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.092306783685328E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.381818929514357E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.159130775763649E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.632873933473375E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.532781316182146E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -2096,502 +2096,502 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.76359256829842E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.895677875022984E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.765803013553473E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.084480566063157E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.200895325251344E-07</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.084480566063157E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.434323456024009E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.118802390862354E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.360418563440322E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.335403653487333E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>2.092306783685328E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.248956090977659E-07</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>8.919793668569419E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.285370619477233E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>6.427266726011382E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>2.641571680978323E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>2.697395271995895E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>9.677510115347655E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>8.919793668569419E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>4.577332143316388E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.538461363013961E-07</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>6.895677875022984E-07</v>
+        <v>0</v>
       </c>
       <c r="BG2">
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>6.00965604261611E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.00178186415484388</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.05380898507772275</v>
+        <v>0.1688326643874885</v>
       </c>
       <c r="BK2">
-        <v>0.0848122751095966</v>
+        <v>0.388685795599841</v>
       </c>
       <c r="BL2">
-        <v>0.006001843483179575</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.00270546708337753</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01235087791435041</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.006325555482359895</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.007633217240302016</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001189436777642236</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0230326756730672</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01924536146502595</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.002823509989795664</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003299360158928844</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.003713269828405389</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>5.037979004045509E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01249688589086339</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.02251854319198229</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>8.812346631158263E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01232616941064381</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.462693892266826E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.006282383202251459</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0004607085218161423</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.000406683450463123</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001269294505618796</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001615729736504041</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.008596861385114356</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03097563259788047</v>
+        <v>0.006914879739223219</v>
       </c>
       <c r="CJ2">
-        <v>0.009746664824962897</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.543262229845647E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001144686665368175</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0007848032287983287</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01809444700252814</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0004017138391528187</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>4.038764317093471E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.02386589665907806</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.009203389249767992</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>8.919793668569419E-06</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.007618454439348126</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.002610967356909754</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.004099088393687768</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0006625648368511889</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.002607180079702467</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0244685039438069</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.02011910627715396</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0470417381208875</v>
+        <v>0.1208441950470438</v>
       </c>
       <c r="DB2">
-        <v>0.01320523533124774</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.007952095240936628</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0406750393296117</v>
+        <v>0.07569612646113431</v>
       </c>
       <c r="DE2">
-        <v>0.0633678979453515</v>
+        <v>0.236617629233918</v>
       </c>
       <c r="DF2">
-        <v>0.03034018064358146</v>
+        <v>0.002408709531351179</v>
       </c>
       <c r="DG2">
-        <v>0.00298352515185858</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0007511319423767833</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.003543322363862936</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0001314353892667722</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0009782507724124857</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002478812062797029</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.007209548503407499</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004263698049413856</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01213984561225405</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.00323406465934731</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>8.395792539302624E-05</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.00147785455731596</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>1.420332037834098E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.002547154656026497</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001209261181781774</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.005036923312354218</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>8.444811638604092E-05</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.002152140603285265</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.005410205022060744</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.005755503161295282</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.01198555146681956</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0003854531676633974</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.004119686113592091</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.003685969071853219</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01460371084051549</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0144815093493206</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001758984688423961</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01161196235084626</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0001406157364169748</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.005552934331734942</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.005404752310901985</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.01442256014758445</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.005749879746656568</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.002749353578045916</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001215285304589309</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0007717020217176267</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>1.755840577498237E-05</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0001096940960496078</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.00147785455731596</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001381606595208719</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.002754332079537456</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.004886921754428249</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.003229849473416692</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002487433538554101</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.005315795797437935</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>6.523118963051386E-05</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001591273369467486</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001732300744446109</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.003460190669143417</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.002818469087032014</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004890654830530595</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.008939742375072982</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.007517399379243572</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0003701557758113575</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0009436501670458801</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.008885702273413554</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01469644823105635</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0162359081144261</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.003957907815585952</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.002302405566581007</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0002481239480752277</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001836699972724747</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001660031671171571</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002867227881026907</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.006502035380072278</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.003026882835746651</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0008283214759596354</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002598555403880158</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.001555001930039322</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0005013595505264445</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.000294568234886666</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.002262259148157671</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.004925007230837302</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.007789484225954753</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.00568044633118964</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001327934101043325</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0009696421969183978</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0002974774241932869</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0003117833558334571</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001044266418204892</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.00707203930015019</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.01809444700252814</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.007313084814094733</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0002114867911915618</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0001291324623193923</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002885573655023147</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.004570833310661436</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002627408560549497</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0006611912088484614</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001988915475784116</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0003303133635854799</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.115178366039678E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.660735840726368E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2782,55 +2782,55 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.228976563884414E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.228976563884414E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.034163458309001E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.779364029775072E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.998090093096537E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.282198916095088E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.104766168293213E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.139085037967418E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.796666705497971E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>9.198064334070607E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.47866071586799E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001046723928336213</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5.066283194767268E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.282198916095088E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2.026382539816524E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2872,43 +2872,43 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.228976563884414E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.799941401155546E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.992821549087455E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.787991178890978E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.799941401155546E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.490072342855402E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.115178366039678E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.81888511019823E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.52281172339405E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1.162252714091592E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.389711337868298E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -2920,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1.20047818924528E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>3.539228263147527E-07</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>6.461450822162373E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -2947,424 +2947,424 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0324197882074664</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="BK3">
-        <v>0.0004363194907041662</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.07810685757157283</v>
+        <v>0.3278471592944841</v>
       </c>
       <c r="BM3">
-        <v>0.003366628991444494</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008465405707064361</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.002329738789852384</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001774855301490321</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.009803450999747243</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.007894016184421412</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.00605399368493819</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.04600706659095445</v>
+        <v>0.1089701766828398</v>
       </c>
       <c r="BU3">
-        <v>4.000812905835062E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001504011226009789</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002638219924980492</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001706956884683591</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01859330516721632</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01383752693922263</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001013285403335452</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.005193578883158273</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0004103080764911633</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.00548429695028021</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0005309587521751879</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.002417735735464936</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.648805823820945E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001456193519187985</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01380188229003231</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0354825742347897</v>
+        <v>0.03720743119245531</v>
       </c>
       <c r="CK3">
-        <v>0.003163203525981103</v>
+        <v>0</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0008602092887094475</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.004682639810505391</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.01568495526100793</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>2.476999197714866E-05</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.0008227015716783039</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02592871209398102</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.004686273448487558</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0002399762557532928</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.002113606803293767</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0009701960908177335</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.003034117180231893</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0005232011082661827</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.005311387817290284</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.02543791369464854</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.03170087786790735</v>
+        <v>0.01142139755639817</v>
       </c>
       <c r="DB3">
-        <v>0.04464769677452476</v>
+        <v>0.09970112057424625</v>
       </c>
       <c r="DC3">
-        <v>0.009012547618487944</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01241328760522107</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0545753667449205</v>
+        <v>0.1673943478851798</v>
       </c>
       <c r="DF3">
-        <v>0.06392336144095739</v>
+        <v>0.2311349770305099</v>
       </c>
       <c r="DG3">
-        <v>0.02580353988248446</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00198375354750595</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0019117287722876</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002097240216302239</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0009406625964540507</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0002067923356756223</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.004978863092437821</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.006569806004894225</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.006437103739878007</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01327090244958291</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002807400113321841</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0006050039113974795</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0004385537205799885</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0002936486965606071</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.003183286838715149</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002442176450647815</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.003395448631809311</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>2.849919289640723E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004950358384716453</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004926729527047357</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01100687009528599</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.006112151713588469</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001304148823985134</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.003545455074134457</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.005870909704900342</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.01817087598196399</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01151152913473667</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.003367512624770534</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.009878917710464542</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0001034004493601126</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.004892010855909134</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.008308241704660838</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0111297078410339</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.005920011568095369</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.001635258654373992</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.00234514926696547</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.000671476311993406</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0002803322612515423</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0003373320365119635</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0008456968901800137</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001754019293732089</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.004041202100388813</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.00449071248980567</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.003396336269364766</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.002542826260681438</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.005096931000107214</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.000360698056562292</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001648180703117452</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001370348146145567</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003242487168282017</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003130570657944879</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.007897382239772956</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.009986720575818453</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.007667943398024149</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0002011560424152454</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0015524033395411</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.009451083816560015</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01501838920941227</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01393729882195713</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.005143783687640129</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.003147293020719884</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0001998501330657284</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001213677364700171</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001089762781556965</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.002862203698885878</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005776573663701732</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.002371808625561177</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001716485549209751</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.002966374628055121</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001994022393839377</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0003347615815027811</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>6.144311347777688E-06</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00308601950137367</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.006677810082776212</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.006968642770965139</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.005021409031023995</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0008896019643351968</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001274868096603241</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0004067078538034598</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0006182500524591733</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.001471883891937143</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.01177138360258917</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.01814499164197145</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.005860258054234891</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>5.636294661857225E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0002193153129050615</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.002848826769680933</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.002435058732652112</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0001196522150731806</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001185345940006714</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002064117130479948</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,52 +3540,52 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001069142800168057</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001338768083412329</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001318520710391716</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.675698685804214E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.74988045482818E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.489085731252324E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.390299802696904E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.882784051277196E-07</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.562004449270427E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.819566333710335E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>6.53876607220059E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.924576917048061E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4.533736396612799E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.35307009858778E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3597,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3.920673701657396E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4.350255332529499E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.735054815045983E-07</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3621,58 +3621,58 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.421067712693341E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.432947453549612E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3.073523564456732E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.48242549701745E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.500088899930644E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.020047297186793E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.238731471447472E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.033773989767435E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.169699039446454E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>6.370734383961516E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.000862107980454E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.532899450771863E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.029121045411598E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>7.38728505786335E-07</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.091821783652381E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3684,460 +3684,460 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>8.390299802696904E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.606118313202659E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>8.390299802696904E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>9.600579522454093E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.587957043876896E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>4.795043600853364E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.215678085556024E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>4.308665737802384E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>5.161822862429638E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01093666198040391</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01922096268384435</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.07134284571239277</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BL4">
-        <v>0.0009897478412301025</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.007290509944994078</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01559484524397286</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.004043715934620258</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.03352664805658767</v>
+        <v>0.03380512154014263</v>
       </c>
       <c r="BR4">
-        <v>0.004508939844522168</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01879537570761385</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003577673226555431</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004632761933967447</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001743647671609126</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0003124679617781268</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.02337481029508681</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.00957219111239908</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.003300498794311023</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.006083668777375414</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001757518922783949</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001253510989795482</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001772914028866001</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.00449723448204927</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.003328619334321958</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001371719535085366</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.009944318621523779</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.03419413612037912</v>
+        <v>0.04021976977315667</v>
       </c>
       <c r="CJ4">
-        <v>0.00657620813411598</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0003699186022578384</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007435682109005453</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.000410659507937364</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01126743342984258</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>7.036927976375068E-06</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.0005305920410122681</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.0234254997535022</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01008919837905621</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.002182846504556736</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.007996327266270545</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.000136326550407514</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.002517565391443005</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.0002061938723848309</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.007407133713192101</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.03148004979392264</v>
+        <v>0.01413704260143718</v>
       </c>
       <c r="CZ4">
-        <v>0.03282464542441889</v>
+        <v>0.02705878375780941</v>
       </c>
       <c r="DA4">
-        <v>0.03509327153786485</v>
+        <v>0.04886057959416533</v>
       </c>
       <c r="DB4">
-        <v>0.01397940198511899</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.004207284497625564</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.04778655275843596</v>
+        <v>0.1708446844337192</v>
       </c>
       <c r="DE4">
-        <v>0.05788064649262117</v>
+        <v>0.267850255092283</v>
       </c>
       <c r="DF4">
-        <v>0.02586136576685988</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.005581587946135313</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0007546517616925729</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.002058326360917101</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0005354322035430454</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0003370498932152841</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001750941427608661</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.005987460743506273</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.005586801844760977</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0152978951104657</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.007290509944994078</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.001088182886058655</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0002556200907951331</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001530540069110054</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.004770300518233484</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002660469029377363</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.002157650129371717</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0002506069852876856</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.005765513922231998</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.006532433493710985</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.01076045581545347</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.01032531335962351</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001705244587240271</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.003591250170559175</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.007416142993894851</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.01888394696057195</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.009232278334172742</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.004140794685558427</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.007010299207088001</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>1.384089261984595E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.002500961145056111</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.007920087503787986</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01013831026300255</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.005803985931699721</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.004277726148743129</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002036222011684128</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.001102045734173529</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0005407005219855236</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0002834832970987653</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0003625570215601413</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0009985541480205054</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.002213931624110487</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004306295052024214</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004611416160967751</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.003698668486619205</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.006519752575992546</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0002061938723848309</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0004745981510039042</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0009946966433216525</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.002500961145056111</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00311574981852145</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.008685910375907168</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.008919910586387242</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0106809978810832</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.000767658768155257</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0007280277366331019</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.006507083962754749</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01350104179167854</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01318075215916229</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.006093195246410755</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.004197107791808436</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0005728497790417787</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0007498624876927025</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0006258633337699222</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.002260141551317923</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.004770300518233484</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.003238655774359401</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002498344192100482</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.003189208268197228</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.004284573642237501</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.000875188724868899</v>
+        <v>0</v>
       </c>
       <c r="FY4">
         <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001607955359657657</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.006093195246410755</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.007858120938847827</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.005071265113594972</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001086456257311937</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001588422746914872</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0006721292313588049</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0001960064826771947</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0007102330567533948</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.007641631404828458</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.01732841651879208</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.007211794280919326</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0003084609126231052</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002236535902891317</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.002367554965592982</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.003001906762911637</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0006662560426546215</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001073835661559563</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001918307073310329</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.00158216976991191</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,37 +4316,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.481239476552201E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.9073901618199E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7.948119850614666E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.607829439049161E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001528136332570381</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.971609414658016E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.61919405402276E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.133419256517164E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.356666745958891E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.696743923301741E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>7.25456749040149E-07</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.031250194161013E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1.641301574991229E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>5.379884635688119E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5.379884635688119E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.680822441660818E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4391,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>8.117401337585202E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>9.938226025573087E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -4406,31 +4406,31 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.447207057176529E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.201361012753506E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>4.397177284839002E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>8.299503019264373E-07</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>5.605760523766367E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>9.204890994902121E-08</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.57069640882926E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>3.004884286170639E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>9.376978002704806E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>3.141379833318967E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -4451,466 +4451,466 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>3.935302642273297E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.0066903291315E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>7.988224336818973E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.0066903291315E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>7.780059682421011E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.188957621836958E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.046095362054393E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.641301574991229E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.619770155878496E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0003963525627072621</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.07274682862465548</v>
+        <v>0.3938962305597875</v>
       </c>
       <c r="BK5">
-        <v>0.04332198509454001</v>
+        <v>0.1226528743679872</v>
       </c>
       <c r="BL5">
-        <v>0.01493421132004231</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001601058522291401</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01268145456310711</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002717511696863515</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.005760557266507756</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02169021707270609</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.004968905039760613</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01314200932081684</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01287878085142208</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.003900397308000766</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>3.836800446015911E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>1.355832395337376E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.009885212951801215</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01973163303030855</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.002763270073458039</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007867832492055669</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>3.263175645707656E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.005734308969546877</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001005550288844035</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001669784296318938</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004771134853854958</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>2.986878655125208E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.003748350074941416</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02689533760585677</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01800649449068854</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0001484912455113985</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.00328601752539308</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.000618957768107059</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0110397879834153</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.002935805241709223</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.0001117800201624314</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.01269259553205624</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.02028419747166985</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0007717296369650809</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.008498530314340938</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0008613827907898323</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.002165719773401237</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001040907795054401</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0005765235300279883</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.02049813189414288</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.02822511209186988</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.03366209706784932</v>
+        <v>0.03360633632557107</v>
       </c>
       <c r="DB5">
-        <v>0.03336036578601861</v>
+        <v>0.03082492457505309</v>
       </c>
       <c r="DC5">
-        <v>0.0001542374577945734</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.02829191287537625</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.06295215723867389</v>
+        <v>0.3036072359280798</v>
       </c>
       <c r="DF5">
-        <v>0.04253652852138326</v>
+        <v>0.1154123982435213</v>
       </c>
       <c r="DG5">
-        <v>0.01396540532871895</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>2.554120332254032E-05</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.002230683125086128</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
         <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001204025249633528</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.000225970117650122</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.006958261011780052</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.004085740963111605</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01300818260286204</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01061933110748223</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001287847944695935</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001548601855136704</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>9.168376155210885E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.003143074495827338</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.003473045609751871</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.004449868075350915</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0001230421043076625</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001048972301531064</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.005995794770650007</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.006719827464998323</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.01472744820524197</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>3.999854858331257E-05</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.003106099507650739</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.005890165656478993</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0124006633195599</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01761055605201165</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.004033211747320017</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.006257603388170522</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.003297371236965697</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.001857489834845651</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.005410787579542471</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.01062291450980916</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.006966665346078615</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.006648390973695331</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001109715524024851</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.002314115958783954</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0004245225079486598</v>
+        <v>0</v>
       </c>
       <c r="ER5">
         <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0004143147746443536</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0009214794698383662</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001448953350389625</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.003658039030063931</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.00441023850753375</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003152224630113128</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006217239428013863</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001379449454706289</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0004330914425959408</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001261395711015082</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001442747590023619</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002536630733558706</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.005161468134812208</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.007449481027598688</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01189040524054929</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002368387242464663</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>2.929836814051993E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.004019609628406333</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.012150454578642</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01598107964465902</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.008628031132195409</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004506017718291013</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002101714864259972</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0002767362214445352</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.000884316615715704</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001394267889042589</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.004117538680425581</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.005426565457093251</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.00226204154789535</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.002935805241709223</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.004867280610345915</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.001619598651666602</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003277159684662031</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0005812973704292526</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.003485583114944357</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.007655628829891114</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.006363687107110349</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002228346558642852</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.00144706948744054</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0009738357296796088</v>
+        <v>0</v>
       </c>
       <c r="GG5">
         <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.000525343758909384</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.003270070734602202</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.01523586705122357</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.01061781909382236</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001566256190672252</v>
+        <v>0</v>
       </c>
       <c r="GM5">
         <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001050518237932871</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.003178203146211863</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.001347153103105939</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0005989687774095645</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.002038668197528165</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001746764103882819</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,22 +5086,22 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.587740236448348E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.3788779827908E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.799299583415843E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.085431374364648E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.117179317108703E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.137431357519867E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,40 +5122,40 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.958710434347172E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.295351064560279E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.085431374364648E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>8.329731303403299E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.525169190118696E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.213439504432595E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.416588279348434E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.496878426110591E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.25503833794301E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>7.773865195228085E-07</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.212201968776065E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -5164,49 +5164,49 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.534996625212887E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.458573923744482E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.391737436195635E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.082681750823235E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1.734041289137731E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.180960264280774E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.594470055486025E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.6788657229643E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>5.747778812885515E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.165852008313284E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.969389731055855E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -5215,43 +5215,43 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>6.887358866080494E-07</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.402934740233525E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>5.349204831208932E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>9.894892083134372E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.179527445710175E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>5.776026516905805E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.806028633156306E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.312305701774511E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.283039299533178E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.014210326005515E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.819226567854012E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>3.334731007927957E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -5260,430 +5260,430 @@
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>8.892548355929951E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000104058706692082</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.05933829477594033</v>
+        <v>0.2549725402079342</v>
       </c>
       <c r="BK6">
-        <v>0.01159192350241242</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.03871311583127995</v>
+        <v>0.07562268561272022</v>
       </c>
       <c r="BM6">
-        <v>0.002120388790254185</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.006532852227193297</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001870843353671632</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0008169632918871882</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.02558143074859646</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.007266095451878512</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00904213082983773</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0281170259349615</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.001391368086893956</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0006270268437188654</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0001316129773871177</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.005302375070078754</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0223675033269397</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.009031259566080909</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.004973089354134114</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002093652125851965</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.003246856252124194</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001681959849039343</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001161978417613408</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.005930633247827263</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.850595566185307E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.001555902222222022</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01957673964688344</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.03094095077201678</v>
+        <v>0.008038463579595647</v>
       </c>
       <c r="CK6">
-        <v>0.0008309899939855299</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.001179371438955712</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001321344599915692</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.006816915026939221</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.008279119515269355</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.0001560318231127905</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.005000868615158961</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.02354479995088449</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.001810055437543625</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.003566167703652185</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.001365639295913668</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0005825251193925899</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001873751897047513</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>3.955735368957462E-06</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01299418343811733</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.03132118683100463</v>
+        <v>0.01134487280272545</v>
       </c>
       <c r="DA6">
-        <v>0.03831264225036483</v>
+        <v>0.07214029747446135</v>
       </c>
       <c r="DB6">
-        <v>0.03859951893023631</v>
+        <v>0.07463488387100889</v>
       </c>
       <c r="DC6">
-        <v>0.004031783610142827</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01811020276381517</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.06436308814799398</v>
+        <v>0.2986665107216847</v>
       </c>
       <c r="DF6">
-        <v>0.05354313867738997</v>
+        <v>0.2045797457298697</v>
       </c>
       <c r="DG6">
-        <v>0.02260101935329201</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001226756599882495</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001818955083942191</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0004243475012427764</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001180849026222218</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005748207357922689</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.004664307438033326</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.009295205424466817</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01267694247000606</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001833757774525944</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001201655828520559</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>2.342516848908141E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.001627345457821252</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.004363813959945366</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004599762611683614</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0008136910054723156</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>3.005532750419653E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.004966433807155746</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.00493875041018354</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.01421355417435219</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.001446537248788297</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001806888121265726</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.005501589177218985</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.009204421266013041</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.02020457614288055</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.007737527444452308</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.005339412817264981</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.006156010736324217</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0004110250597040272</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.004517955251178075</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01086027764502609</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.007565135258679695</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.006939570280422637</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0009203840436225101</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.002673570304687981</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.000585854073670731</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0001378510454222465</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0002607727069091567</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0007821962619061316</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001443705256560924</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.003227157189974858</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003471203352155536</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.003434214737797959</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.00412928695809844</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.00293629985038092</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0003497428633171211</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001253939162216419</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.001044795620613176</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.002312288210003989</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.003631307127288744</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.006898999472582303</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01166487124326371</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.005986502177279147</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>5.251281572685365E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.002143845663226973</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.009565613600722897</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01576196876492914</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01060322389167747</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.004802876324389044</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.002537217198830857</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>4.481040757645157E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0009949826375097734</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.001512559862538236</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.00326007948737715</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.004697390542880917</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002463025226632435</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.002321380284975865</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.003444118054810305</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.002994347235392322</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0004956584084252906</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0002566970737291319</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002987693489617448</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.008801402984827889</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.006742128357387094</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003208409763671688</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.000886876805385438</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0008915766456364189</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.000245900659984187</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0004782413410163375</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001615298908784389</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.01290776869914019</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.01534357721191998</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.004429547180333886</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>5.465239230894618E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0005970842772572242</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.003191494661656543</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002621954517020487</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0006090938015555927</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001882622123789005</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.002121309305306643</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.425732194921492E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.133900661616519E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.508417284382133E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.404917522594385E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.610440367297964E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.611489843615347E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.359999185697902E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.683759548864168E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.708440895017139E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.841981260365872E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.059194721471105E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.536168514001827E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001095801016857231</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001369412592992261</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001475683437725599</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001479620395784274</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001479620395784274</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001479620395784274</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001492098638465248</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001492098638465248</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001498525905191259</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001607928303764334</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001741526290587736</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000176030669374431</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001862440479139717</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001862440479139717</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001872675628093068</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001893598695929921</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001957416885225065</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002029008192982701</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002105336932317435</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.000235861506393565</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.000235861506393565</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.000235861506393565</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002366378656503948</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002373274334378971</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002400932364514506</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0002405016845080569</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002405016845080569</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.000241021774040582</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002414302220971883</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002438645455532123</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002550525694618359</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0002564129880252762</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0002577483916787636</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0002598406984624489</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0002604655940715467</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0002693853877401161</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0002716707583595933</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002723134850321945</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0002749550567131728</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0003019290094331317</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0003116065195484794</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0003205263132170488</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0003251036453603652</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003252574914966666</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0003259470592841689</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0003259470592841689</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0003319567153267851</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.002113820870170665</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.05592280594789342</v>
+        <v>0.1688326643874885</v>
       </c>
       <c r="BK2">
-        <v>0.14073508105749</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BL2">
-        <v>0.1467369245406696</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BM2">
-        <v>0.1494423916240472</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BN2">
-        <v>0.1617932695383976</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BO2">
-        <v>0.1681188250207575</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BP2">
-        <v>0.1757520422610595</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BQ2">
-        <v>0.1769414790387017</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BR2">
-        <v>0.1999741547117689</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BS2">
-        <v>0.2192195161767949</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BT2">
-        <v>0.2220430261665906</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BU2">
-        <v>0.2223729621824834</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BV2">
-        <v>0.2260862320108888</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BW2">
-        <v>0.2260867358087892</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BX2">
-        <v>0.2385836216996526</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BY2">
-        <v>0.2611021648916349</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="BZ2">
-        <v>0.2611902883579465</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CA2">
-        <v>0.2735164577685903</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CB2">
-        <v>0.2735219204624826</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CC2">
-        <v>0.279804303664734</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CD2">
-        <v>0.2802650121865501</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CE2">
-        <v>0.2806716956370133</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CF2">
-        <v>0.2819409901426321</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CG2">
-        <v>0.2821025631162825</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CH2">
-        <v>0.2906994245013968</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="CI2">
-        <v>0.3216750570992772</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CJ2">
-        <v>0.3314217219242401</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CK2">
-        <v>0.3314471545465386</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CL2">
-        <v>0.3325918412119068</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CM2">
-        <v>0.3333766444407051</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CN2">
-        <v>0.3514710914432332</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CO2">
-        <v>0.3518728052823861</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CP2">
-        <v>0.351913192925557</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CQ2">
-        <v>0.3757790895846351</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CR2">
-        <v>0.3849824788344031</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CS2">
-        <v>0.3849913986280716</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CT2">
-        <v>0.3926098530674197</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CU2">
-        <v>0.3952208204243295</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CV2">
-        <v>0.3993199088180173</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CW2">
-        <v>0.3999824736548684</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CX2">
-        <v>0.4025896537345709</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CY2">
-        <v>0.4270581576783778</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="CZ2">
-        <v>0.4471772639555318</v>
+        <v>0.5644333397265527</v>
       </c>
       <c r="DA2">
-        <v>0.4942190020764193</v>
+        <v>0.6852775347735965</v>
       </c>
       <c r="DB2">
-        <v>0.5074242374076671</v>
+        <v>0.6852775347735965</v>
       </c>
       <c r="DC2">
-        <v>0.5153763326486037</v>
+        <v>0.6852775347735965</v>
       </c>
       <c r="DD2">
-        <v>0.5560513719782154</v>
+        <v>0.7609736612347309</v>
       </c>
       <c r="DE2">
-        <v>0.6194192699235669</v>
+        <v>0.9975912904686489</v>
       </c>
       <c r="DF2">
-        <v>0.6497594505671483</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.652742975719007</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.6534941076613837</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.6570374300252466</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.6571688654145134</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.6581471161869259</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.6606259282497229</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.6678354767531304</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.6720991748025442</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.6842390204147982</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.6874730850741455</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.6875570429995386</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.6890348975568545</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.6890491008772329</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.6915962555332594</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.6928055167150412</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.6978424400273954</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.6979268881437815</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.7000790287470667</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.7054892337691275</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.7112447369304228</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.7232302883972423</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.7236157415649057</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.7277354276784977</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.731421396750351</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.7460251075908665</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.7605066169401871</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.762265601628611</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.7738775639794573</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7740181797158743</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7795711140476093</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.7849758663585112</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7993984265060957</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8051483062527522</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8078976598307982</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8091129451353876</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8098846471571052</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8099022055628802</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8100118996589298</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8114897542162458</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8128713608114545</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.815625692890992</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8205126146454202</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8237424641188369</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.826229897657391</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8315456934548289</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8316109246444594</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8332021980139269</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.834934498758373</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8383946894275164</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8412131585145484</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.846103813345079</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.855043555720152</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8625609550993956</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8629311108752069</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8638747610422528</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8727604633156664</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8874569115467227</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9036928196611488</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9076507274767347</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9099531330433157</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.910201256991391</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9120379569641157</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9136979886352873</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9165652165163142</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9230672518963865</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9260941347321332</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9269224562080929</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9295210116119731</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9310760135420124</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9315773730925389</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9318719413274256</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9341342004755833</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9390592077064206</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9468486919323753</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.952529138263565</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9538570723646084</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9548267145615268</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9551241919857201</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9554359753415536</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9564802417597584</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9635522810599086</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9816467280624368</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9889598128765316</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9891712996677231</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9893004321300425</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9921860057850657</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9967568390957271</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.997019579951782</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9976807711606305</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9996696866364146</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.115178366039678E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.775914206766046E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7.775914206766046E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.775914206766046E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.775914206766046E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.100489077065046E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.423386733453487E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.457550191762488E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.457550191762488E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.23691422153756E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.235004314634097E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001251720323072919</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.000156219693990224</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001653587790281914</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001653587790281914</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001671554457336894</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001671554457336894</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.00017635351006776</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.00017635351006776</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001911401172264399</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002958125100600611</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003008787932548284</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003008787932548284</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003008787932548284</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003437007824157793</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003639646078139445</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0003671935843778289</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0003671935843778289</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003699935257789845</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0003789863473280719</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004068662591169818</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004096662005181373</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0004096662005181373</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0004131562728609927</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0004162714512270324</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0004444603023290147</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0004796884195629552</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0004913109467038711</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0004947006580417394</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0004947006580417394</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0004947006580417394</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0004947006580417394</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0005067054399341922</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0005067054399341922</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.000507059362760507</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0005135208135826694</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.03293330902104907</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="BK3">
-        <v>0.03336962851175324</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="BL3">
-        <v>0.1114764860833261</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BM3">
-        <v>0.1148431150747706</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BN3">
-        <v>0.1233085207818349</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BO3">
-        <v>0.1256382595716873</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BP3">
-        <v>0.1274131148731776</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BQ3">
-        <v>0.1372165658729249</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BR3">
-        <v>0.1451105820573463</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BS3">
-        <v>0.1511645757422845</v>
+        <v>0.3441705490783709</v>
       </c>
       <c r="BT3">
-        <v>0.1971716423332389</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BU3">
-        <v>0.1972116504622973</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BV3">
-        <v>0.1987156616883071</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BW3">
-        <v>0.1989794836808051</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BX3">
-        <v>0.2006864405654887</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BY3">
-        <v>0.219279745732705</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="BZ3">
-        <v>0.2331172726719277</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CA3">
-        <v>0.2341305580752631</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CB3">
-        <v>0.2393241369584214</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CC3">
-        <v>0.2397344450349126</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CD3">
-        <v>0.2452187419851928</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CE3">
-        <v>0.245749700737368</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CF3">
-        <v>0.2481674364728329</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CG3">
-        <v>0.2482639245310711</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CH3">
-        <v>0.2497201180502591</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CI3">
-        <v>0.2635220003402914</v>
+        <v>0.4531407257612106</v>
       </c>
       <c r="CJ3">
-        <v>0.2990045745750811</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CK3">
-        <v>0.3021677781010622</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CL3">
-        <v>0.3021677781010622</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CM3">
-        <v>0.3030279873897717</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CN3">
-        <v>0.307710627200277</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CO3">
-        <v>0.323395582461285</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CP3">
-        <v>0.3234203524532621</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CQ3">
-        <v>0.3242430540249404</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CR3">
-        <v>0.3501717661189214</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CS3">
-        <v>0.354858039567409</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CT3">
-        <v>0.3550980158231622</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CU3">
-        <v>0.357211622626456</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CV3">
-        <v>0.3581818187172737</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CW3">
-        <v>0.3612159358975056</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CX3">
-        <v>0.3617391370057718</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CY3">
-        <v>0.3670505248230621</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="CZ3">
-        <v>0.3924884385177106</v>
+        <v>0.490348156953666</v>
       </c>
       <c r="DA3">
-        <v>0.424189316385618</v>
+        <v>0.5017695545100641</v>
       </c>
       <c r="DB3">
-        <v>0.4688370131601427</v>
+        <v>0.6014706750843104</v>
       </c>
       <c r="DC3">
-        <v>0.4778495607786307</v>
+        <v>0.6014706750843104</v>
       </c>
       <c r="DD3">
-        <v>0.4902628483838518</v>
+        <v>0.6014706750843104</v>
       </c>
       <c r="DE3">
-        <v>0.5448382151287723</v>
+        <v>0.7688650229694902</v>
       </c>
       <c r="DF3">
-        <v>0.6087615765697296</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.634565116452214</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6365488699997199</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6384605987720076</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6405578389883098</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6414985015847638</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6417052939204395</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6466841570128773</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6532539630177715</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6596910667576495</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6729619692072325</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.6757693693205543</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.6763743732319518</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.6768129269525318</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.6771065756490924</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.6802898624878075</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.6827320389384554</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.6861274875702646</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.686155986763161</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.6911063451478775</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.6960330746749248</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7070399447702108</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7131520964837993</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7144562453077844</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7180017003819189</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7238726100868192</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7420434860687832</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7535550152035199</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7569225278282904</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.766801445538755</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.766904845988115</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7717968568440242</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.780105098548685</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.791234806389719</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7971548179578144</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7987900766121884</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8011352258791539</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8018067021911472</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8020870344523988</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8024243664889108</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8032700633790908</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8050240826728229</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8090652847732117</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8135559972630174</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8169523335323822</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8194951597930636</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8245920907931709</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8249527888497331</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8266009695528506</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8279713176989961</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8312138048672781</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.834344375525223</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.842241757764996</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8522284783408145</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8598964217388386</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8600975777812538</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8616499811207949</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.871101064937355</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8861194541467672</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9000567529687243</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9052005366563645</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9083478296770844</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9085476798101502</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9097613571748503</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9108511199564072</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9137133236552931</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9194898973189949</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9218617059445561</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9235781914937659</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.926544566121821</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9285385885156604</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9288733500971632</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.928879494408511</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9319655139098847</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9386433239926609</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.945611966763626</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.95063337579465</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9515229777589852</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9527978458555885</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9532045537093919</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9538228037618511</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9552946876537883</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9670660712563776</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.985211062898349</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9910713209525839</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9911276838992025</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9913469992121076</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9941958259817885</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9966308847144406</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9967505369295138</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9979358828695205</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001069142800168057</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002407910883580386</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003726431593972102</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004394001462552523</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004441500267100805</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005090408840226038</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005174311838253007</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005174311838253007</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005179194622304285</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005335395067231327</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.000571735170060236</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0005723890466674561</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005723890466674561</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0005783136235845041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0006236509875506321</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0006310040576492199</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0006310040576492199</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0006310040576492199</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0006310040576492199</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0006349247313508774</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0006349247313508774</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0006392749866834069</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0006392749866834069</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0006394484921649115</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0006394484921649115</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0006394484921649115</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0006394484921649115</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0006458695598776049</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0006601990344131009</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0006909342700576682</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0007004166955546856</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0007004166955546856</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0007029167844546162</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0007131172574264842</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0007555045721409589</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0007858423120386332</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0007858423120386332</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0008075393024330978</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0008139100368170593</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0008159108989250398</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0008312398934327583</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.00083426901447817</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.00083426901447817</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0008350077429839563</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0008360995647676086</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0008360995647676086</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0008360995647676086</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0008360995647676086</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0008444898645703056</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008605510477023322</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0008689413475050291</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0008785419270274833</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0008785419270274833</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0008821298840713601</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0008869249276722134</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0008869249276722134</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0008990817085277737</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0009421683659057976</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0009473301887682272</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01188399216917213</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.03110495485301649</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.1024478005654093</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BL4">
-        <v>0.1034375484066394</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BM4">
-        <v>0.1107280583516334</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BN4">
-        <v>0.1263229035956063</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BO4">
-        <v>0.1263229035956063</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BP4">
-        <v>0.1303666195302265</v>
+        <v>0.3972237632072866</v>
       </c>
       <c r="BQ4">
-        <v>0.1638932675868142</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BR4">
-        <v>0.1684022074313364</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BS4">
-        <v>0.1871975831389502</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BT4">
-        <v>0.1907752563655057</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BU4">
-        <v>0.1954080182994731</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BV4">
-        <v>0.1971516659710822</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BW4">
-        <v>0.1974641339328604</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BX4">
-        <v>0.2208389442279472</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BY4">
-        <v>0.2304111353403463</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="BZ4">
-        <v>0.2337116341346573</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CA4">
-        <v>0.2397953029120327</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CB4">
-        <v>0.2415528218348167</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CC4">
-        <v>0.2428063328246121</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CD4">
-        <v>0.2445792468534781</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CE4">
-        <v>0.2490764813355274</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CF4">
-        <v>0.2524051006698494</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CG4">
-        <v>0.2537768202049347</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CH4">
-        <v>0.2637211388264585</v>
+        <v>0.4310288847474292</v>
       </c>
       <c r="CI4">
-        <v>0.2979152749468377</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CJ4">
-        <v>0.3044914830809536</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CK4">
-        <v>0.3048614016832115</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CL4">
-        <v>0.3122970837922169</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CM4">
-        <v>0.3127077433001543</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CN4">
-        <v>0.3239751767299969</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CO4">
-        <v>0.3239822136579733</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CP4">
-        <v>0.3245128056989855</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CQ4">
-        <v>0.3479383054524877</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CR4">
-        <v>0.3580275038315439</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CS4">
-        <v>0.3602103503361007</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CT4">
-        <v>0.3682066776023712</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CU4">
-        <v>0.3683430041527787</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CV4">
-        <v>0.3708605695442217</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CW4">
-        <v>0.3710667634166065</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CX4">
-        <v>0.3784738971297987</v>
+        <v>0.4712486545205859</v>
       </c>
       <c r="CY4">
-        <v>0.4099539469237213</v>
+        <v>0.4853856971220231</v>
       </c>
       <c r="CZ4">
-        <v>0.4427785923481402</v>
+        <v>0.5124444808798325</v>
       </c>
       <c r="DA4">
-        <v>0.4778718638860051</v>
+        <v>0.5613050604739979</v>
       </c>
       <c r="DB4">
-        <v>0.491851265871124</v>
+        <v>0.5613050604739979</v>
       </c>
       <c r="DC4">
-        <v>0.4960585503687496</v>
+        <v>0.5613050604739979</v>
       </c>
       <c r="DD4">
-        <v>0.5438451031271856</v>
+        <v>0.732149744907717</v>
       </c>
       <c r="DE4">
-        <v>0.6017257496198067</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6275871153866667</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.633168703332802</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6339233550944945</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6359816814554116</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.6365171136589546</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.6368541635521698</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.6386051049797785</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.6445925657232848</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.6501793675680458</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.6654772626785116</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.6727677726235056</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.6738559555095642</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.6741115756003594</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.6756421156694694</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.6804124161877029</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.6830728852170802</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.685230535346452</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.6854811423317396</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.6912466562539716</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.6977790897476827</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7085395455631361</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7188648589227596</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7205701035099999</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7241613536805591</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7315774966744539</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7504614436350259</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7596937219691986</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.763834516654757</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7708448158618449</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7708586567544647</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7733596178995209</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7812797054033089</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7914180156663115</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7972220015980113</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8014997277467544</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8035359497584385</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8046379954926119</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8051786960145975</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8054621793116963</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8058247363332565</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.806823290481277</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8090372221053874</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8133435171574116</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8179549333183793</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8216536018049985</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.828173354380991</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8283795482533759</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8288541464043798</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8298488430477015</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8323498041927576</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8354655540112791</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8441514643871862</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8530713749735734</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8637523728546567</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8645200316228119</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8652480593594449</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8717551433221997</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8852561851138783</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8984369372730405</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9045301325194512</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9087272403112597</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9093000900903015</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9100499525779943</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9106758159117642</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9129359574630821</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9177062579813156</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.920944913755675</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9234432579477755</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9266324662159727</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9309170398582103</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9317922285830792</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9317922285830792</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9334001839427368</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9394933791891475</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9473515001279954</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9524227652415904</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9535092214989024</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9550976442458172</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9557697734771761</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9559657799598532</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9566760130166067</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9643176444214351</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9816460609402272</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9888578552211466</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9891663161337697</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9893899697240588</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9917575246896517</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9947594314525634</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.995425687495218</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9964995231567776</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9984178302300879</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,598 +8967,598 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.481239476552201E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.3886296383721E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>5.3886296383721E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.183441623433567E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.791271062482729E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002407263438818654</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002604424380284456</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002766343785686732</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002766343785686732</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002797677978251903</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002807034644997862</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002807034644997862</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002807034644997862</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002807034644997862</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.000287400208423088</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002881256651721281</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002881256651721281</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002881256651721281</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002984381671137383</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003148511828636505</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003686500292205317</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004224488755774129</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0004271296980190737</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0004271296980190737</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0004271296980190737</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.000435247099356659</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.000445185325382232</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.000445185325382232</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.000445185325382232</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000445185325382232</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0004696573959539973</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0004701775320552726</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0004701775320552726</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004745747093401116</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0004754046596420381</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0004810104201658044</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0004811024690757535</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004846731654845827</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0004876780497707533</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0004876780497707533</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0004876780497707533</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0005814478297978013</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000612861628130991</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000612861628130991</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.000612861628130991</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0006167969307732643</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0006268638340645793</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0006276626564982612</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0006276626564982612</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0006377295597895762</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0006377295597895762</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0006455096194719972</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0006455096194719972</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0006573991956903668</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0007078601493109108</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0007078601493109108</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0007242731650608231</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.000780470866619608</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.00117682342932687</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.07392365205398235</v>
+        <v>0.3938962305597875</v>
       </c>
       <c r="BK5">
-        <v>0.1172456371485224</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BL5">
-        <v>0.1321798484685647</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BM5">
-        <v>0.1337809069908561</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BN5">
-        <v>0.1464623615539632</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BO5">
-        <v>0.1491798732508267</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BP5">
-        <v>0.1549404305173344</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BQ5">
-        <v>0.1766306475900405</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BR5">
-        <v>0.1815995526298012</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BS5">
-        <v>0.194741561950618</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BT5">
-        <v>0.2076203428020401</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BU5">
-        <v>0.2115207401100409</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BV5">
-        <v>0.211559108114501</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BW5">
-        <v>0.2115726664384544</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BX5">
-        <v>0.2214578793902556</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BY5">
-        <v>0.2411895124205642</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="BZ5">
-        <v>0.2439527824940222</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CA5">
-        <v>0.2518206149860779</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CB5">
-        <v>0.2518238781617236</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CC5">
-        <v>0.2575581871312704</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CD5">
-        <v>0.2576587421601548</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CE5">
-        <v>0.2593285264564738</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CF5">
-        <v>0.2640996613103287</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CG5">
-        <v>0.2641295300968799</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CH5">
-        <v>0.2678778801718213</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CI5">
-        <v>0.2947732177776781</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CJ5">
-        <v>0.3127797122683666</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CK5">
-        <v>0.3129282035138781</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CL5">
-        <v>0.3162142210392712</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CM5">
-        <v>0.3168331788073782</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CN5">
-        <v>0.3278729667907935</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CO5">
-        <v>0.3308087720325028</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CP5">
-        <v>0.3309205520526652</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CQ5">
-        <v>0.3436131475847214</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CR5">
-        <v>0.3638973450563913</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CS5">
-        <v>0.3646690746933564</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CT5">
-        <v>0.3731676050076974</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CU5">
-        <v>0.3740289877984872</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CV5">
-        <v>0.3761947075718884</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CW5">
-        <v>0.3772356153669428</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CX5">
-        <v>0.3778121388969708</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CY5">
-        <v>0.3983102707911137</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="CZ5">
-        <v>0.4265353828829836</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="DA5">
-        <v>0.4601974799508329</v>
+        <v>0.5501554412533458</v>
       </c>
       <c r="DB5">
-        <v>0.4935578457368515</v>
+        <v>0.580980365828399</v>
       </c>
       <c r="DC5">
-        <v>0.4937120831946461</v>
+        <v>0.580980365828399</v>
       </c>
       <c r="DD5">
-        <v>0.5220039960700223</v>
+        <v>0.580980365828399</v>
       </c>
       <c r="DE5">
-        <v>0.5849561533086962</v>
+        <v>0.8845876017564787</v>
       </c>
       <c r="DF5">
-        <v>0.6274926818300794</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.6414580871587984</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.6414836283621209</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.643714311487207</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.643714311487207</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6449183367368405</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6451443068544906</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.6521025678662707</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.6561883088293824</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.6691964914322445</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.6798158225397267</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.6811036704844227</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.6826522723395594</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.6827439561011115</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.6858870305969388</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.6893600762066907</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.6938099442820416</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.6939329863863493</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.6949819586878804</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7009777534585304</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7076975809235287</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7224250291287707</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.722465027677354</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7255711271850047</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7314612928414838</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7438619561610437</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7614725122130553</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7655057239603753</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7717633273485458</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7750606985855115</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7769181884203572</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.7823289759998997</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7929518905097088</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7999185558557874</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8065669468294827</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8076766623535075</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8099907783122915</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8104153008202402</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8104153008202402</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8108296155948845</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8117510950647229</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8132000484151125</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8168580874451764</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8212683259527102</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8244205505828233</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8306377900108372</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8320172394655434</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8324503309081394</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8337117266191545</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8351544742091781</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8376911049427368</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.842852573077549</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8503020541051477</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.862192459345697</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8645608465881617</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8645901449563022</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8686097545847085</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8807602091633505</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8967412888080095</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.905369319940205</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.909875337658496</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.911977052522756</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9122537887442005</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9131381053599162</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9145323732489589</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9186499119293845</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9240764773864778</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9263385189343731</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9292743241760824</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9341416047864283</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9357612034380949</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9360889194065611</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9366702167769904</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9401557998919348</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9478114287218259</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9541751158289362</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9564034623875791</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9578505318750197</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9588243676046992</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9588243676046992</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9593497113636086</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9626197820982108</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9778556491494343</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9884734682432567</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.990039724433929</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.990039724433929</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9910902426718619</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9942684458180737</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9956155989211797</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9962145676985893</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9982532358961175</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.587740236448348E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.966618219239148E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.966618219239148E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.246548177580733E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.331979551945381E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5.543697483656252E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.543697483656252E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.543697483656252E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.681128841176118E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.681128841176118E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.681128841176118E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6.681128841176118E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6.876999884610835E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7.106534991066863E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>9.191966365431512E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001002493949577184</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001255010868589054</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001476354819032313</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001476354819032313</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001618013646967157</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001767701489578216</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001893205323372517</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001900979188567745</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001933101208255506</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001933101208255506</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001933101208255506</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001948451174507635</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.000197303691374508</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.000197303691374508</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002212210657364643</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002263037474872875</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002263037474872875</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002436441603786648</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002754537630214726</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0003113984635763328</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0003113984635763328</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0003281871208059758</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.000385664908934831</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0004073234290179638</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0004073234290179638</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0004102928187490197</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0004102928187490197</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0004102928187490197</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0004109815546356277</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0004109815546356277</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.000455010902037963</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0004603601068691719</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0004702549989523063</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.000492050273409408</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0004978262999263139</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0005558865862578769</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.000569009643275622</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0005722926825751552</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0005824347858352103</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0006106270515137505</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0006439743615930301</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0006439743615930301</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0006439743615930301</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.00065286690994896</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000756925616641042</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.06009522039258137</v>
+        <v>0.2549725402079342</v>
       </c>
       <c r="BK6">
-        <v>0.0716871438949938</v>
+        <v>0.2549725402079342</v>
       </c>
       <c r="BL6">
-        <v>0.1104002597262737</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BM6">
-        <v>0.1125206485165279</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BN6">
-        <v>0.1190535007437212</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BO6">
-        <v>0.1209243440973928</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BP6">
-        <v>0.12174130738928</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BQ6">
-        <v>0.1473227381378765</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BR6">
-        <v>0.154588833589755</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BS6">
-        <v>0.1636309644195927</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BT6">
-        <v>0.1917479903545543</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BU6">
-        <v>0.1931393584414482</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BV6">
-        <v>0.1937663852851671</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BW6">
-        <v>0.1938979982625542</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BX6">
-        <v>0.199200373332633</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BY6">
-        <v>0.2215678766595727</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="BZ6">
-        <v>0.2305991362256536</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CA6">
-        <v>0.2355722255797877</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CB6">
-        <v>0.2376658777056397</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CC6">
-        <v>0.2409127339577639</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CD6">
-        <v>0.2425946938068032</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CE6">
-        <v>0.2437566722244166</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CF6">
-        <v>0.2496873054722439</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CG6">
-        <v>0.2497058114279057</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CH6">
-        <v>0.2512617136501278</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CI6">
-        <v>0.2708384532970112</v>
+        <v>0.3305952258206544</v>
       </c>
       <c r="CJ6">
-        <v>0.301779404069028</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CK6">
-        <v>0.3026103940630135</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CL6">
-        <v>0.3037897655019692</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CM6">
-        <v>0.3051111101018849</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CN6">
-        <v>0.3119280251288241</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CO6">
-        <v>0.3202071446440934</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CP6">
-        <v>0.3203631764672062</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CQ6">
-        <v>0.3253640450823652</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CR6">
-        <v>0.3489088450332497</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CS6">
-        <v>0.3507189004707933</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CT6">
-        <v>0.3542850681744455</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CU6">
-        <v>0.3556507074703592</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CV6">
-        <v>0.3562332325897518</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CW6">
-        <v>0.3581069844867993</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CX6">
-        <v>0.3581109402221683</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CY6">
-        <v>0.3711051236602856</v>
+        <v>0.3386336894002501</v>
       </c>
       <c r="CZ6">
-        <v>0.4024263104912902</v>
+        <v>0.3499785622029755</v>
       </c>
       <c r="DA6">
-        <v>0.440738952741655</v>
+        <v>0.4221188596774369</v>
       </c>
       <c r="DB6">
-        <v>0.4793384716718914</v>
+        <v>0.4967537435484458</v>
       </c>
       <c r="DC6">
-        <v>0.4833702552820342</v>
+        <v>0.4967537435484458</v>
       </c>
       <c r="DD6">
-        <v>0.5014804580458494</v>
+        <v>0.4967537435484458</v>
       </c>
       <c r="DE6">
-        <v>0.5658435461938434</v>
+        <v>0.7954202542701305</v>
       </c>
       <c r="DF6">
-        <v>0.6193866848712333</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6419877042245253</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6432144608244078</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6450334159083499</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6454577634095927</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6466386124358149</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6466386124358149</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6523868197937376</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6570511272317709</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6663463326562378</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.6790232751262438</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.6808570329007698</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.6820586887292904</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.6820821138977795</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.6837094593556008</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.6880732733155461</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.6926730359272297</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.6934867269327021</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.6935167822602063</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.6984832160673621</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7034219664775456</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7176355206518978</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7190820579006861</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7208889460219519</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7263905351991709</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7355949564651839</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7557995326080644</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7635370600525168</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7688764728697818</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.775032483606106</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.77544350866581</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7799614639169881</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7908217415620141</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7983868768206939</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8053264471011166</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8062468311447391</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.808920401449427</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8095062555230977</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.80964410656852</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8099048792754292</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8106870755373353</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8121307807938962</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8153579379838711</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8188291413360267</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8222633560738246</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8263926430319231</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.829328942882304</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8296786857456211</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8309326249078375</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8319774205284507</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8342897087384546</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8379210158657434</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8448200153383257</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8564848865815895</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8624713887588686</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8625239015745955</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8646677472378225</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8742333608385454</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8899953296034746</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9005985534951521</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9054014298195411</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9079386470183719</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9079431280591296</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9089381106966393</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9104506705591776</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9137107500465548</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9184081405894357</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9208711658160681</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.923192546101044</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9266366641558542</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9296310113912465</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9301266697996717</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9303833668734008</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9333710603630183</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9421724633478462</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9489145917052333</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9521230014689049</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9530098782742904</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9539014549199268</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.954147355579911</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9546255969209274</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9562408958297118</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9691486645288521</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9844922417407721</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9889217889211059</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9889764413134149</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9895735255906721</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9927650202523287</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9953869747693492</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9959960685709048</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9978786906946938</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>0.002113820870170665</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5074242374076671</v>
+        <v>0.5575184599873295</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10611,16 +10611,16 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>0.03293330902104907</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="F3">
-        <v>0.5448382151287723</v>
+        <v>0.5017695545100641</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10652,16 +10652,16 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.01188399216917213</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5438451031271856</v>
+        <v>0.5124444808798325</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>0.00117682342932687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5220039960700223</v>
+        <v>0.5165491049277747</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.06009522039258137</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5014804580458494</v>
+        <v>0.7954202542701305</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.002113820870170665</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7000790287470667</v>
+        <v>0.7609736612347309</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -10870,16 +10870,16 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.03293330902104907</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="F3">
-        <v>0.7070399447702108</v>
+        <v>0.7688650229694902</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -10911,16 +10911,16 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01188399216917213</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7085395455631361</v>
+        <v>0.732149744907717</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.00117682342932687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7009777534585304</v>
+        <v>0.8845876017564787</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.06009522039258137</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7034219664775456</v>
+        <v>0.7954202542701305</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.002113820870170665</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8051483062527522</v>
+        <v>0.9975912904686489</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11129,16 +11129,16 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.03293330902104907</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="F3">
-        <v>0.8011352258791539</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11170,16 +11170,16 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.01188399216917213</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8014997277467544</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.00117682342932687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8065669468294827</v>
+        <v>0.8845876017564787</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.06009522039258137</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8053264471011166</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.002113820870170665</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9036928196611488</v>
+        <v>0.9975912904686489</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -11388,16 +11388,16 @@
         <v>61</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.03293330902104907</v>
+        <v>0.01632338978388674</v>
       </c>
       <c r="F3">
-        <v>0.9000567529687243</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -11429,16 +11429,16 @@
         <v>60</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>0.01188399216917213</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9045301325194512</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>0.00117682342932687</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.905369319940205</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.06009522039258137</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9005985534951521</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>42</v>

--- a/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/42_225-80R17.xlsx
@@ -677,34 +677,34 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2344786174063797</v>
+        <v>0.1806491037374188</v>
       </c>
       <c r="F2">
-        <v>0.4023050951560341</v>
+        <v>0.2919699818052948</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.008992064282946346</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01005830290932622</v>
+        <v>0.03178900251222747</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01015438944110902</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01484969935693541</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.06788082729420809</v>
+        <v>0.07014322571309826</v>
       </c>
       <c r="N2">
-        <v>0.047379402993325</v>
+        <v>0.05654443852874948</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0007746774020523915</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01084867078306911</v>
+        <v>0.03231326094201436</v>
       </c>
       <c r="T2">
-        <v>0.0650977341673669</v>
+        <v>0.06829717391734537</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.00992455126092761</v>
+        <v>0.03170028378832641</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.009999374404804079</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0183097744726793</v>
       </c>
       <c r="AD2">
-        <v>0.1108775054608855</v>
+        <v>0.09866332594815344</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.0224382759445493</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.04114929256847763</v>
+        <v>0.05241194780229576</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1287572353946568</v>
+        <v>0.1152671548090895</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.387516852786036</v>
+        <v>0.2956481462747582</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0005599140615966256</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02069082663766454</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0006642137997646448</v>
+        <v>0.02597367668428472</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01843487522642335</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01117012641684706</v>
       </c>
       <c r="O3">
-        <v>0.2057120281803746</v>
+        <v>0.1689122403933956</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -832,22 +832,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.05044764996578024</v>
+        <v>0.06067764504195666</v>
       </c>
       <c r="U3">
-        <v>0.02351216533518343</v>
+        <v>0.04190095387099034</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.007773049800268729</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.008920858445347565</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02331028336037277</v>
+        <v>0.04176022220991234</v>
       </c>
       <c r="AE3">
-        <v>0.1461040547816863</v>
+        <v>0.1273595999570336</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.005755767935039623</v>
       </c>
       <c r="AJ3">
-        <v>0.03397551639614529</v>
+        <v>0.04919494223539166</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00823549813293455</v>
+        <v>0.03184889134399857</v>
       </c>
       <c r="E4">
-        <v>0.06299289657047698</v>
+        <v>0.0660802745501909</v>
       </c>
       <c r="F4">
-        <v>0.4075070346345291</v>
+        <v>0.2814520017784889</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01678270386237836</v>
       </c>
       <c r="I4">
-        <v>0.03902506095655425</v>
+        <v>0.05109687159581133</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00336669520463865</v>
       </c>
       <c r="L4">
-        <v>0.1575503181223177</v>
+        <v>0.125192493619958</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.005289037054195332</v>
       </c>
       <c r="N4">
-        <v>0.06017986062918085</v>
+        <v>0.06432171563346049</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.001440970016561723</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.005800679683419603</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.09044891209188077</v>
+        <v>0.08324430015123112</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.02621079021411546</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0002956634246393913</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01179594107374536</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -960,34 +960,34 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.005240669574220732</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0004118597115124203</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001676327644774719</v>
+        <v>0.02774845040082538</v>
       </c>
       <c r="AD4">
-        <v>0.1619622668395042</v>
+        <v>0.127950606889279</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.0138311525017559</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.01738256668182936</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0104218243778468</v>
+        <v>0.03321566503374412</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1007,40 +1007,40 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3971021228286053</v>
+        <v>0.2765696903328075</v>
       </c>
       <c r="F5">
-        <v>0.2112122673217975</v>
+        <v>0.1593966693624001</v>
       </c>
       <c r="G5">
-        <v>0.03187404383386393</v>
+        <v>0.04635337625608153</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01764237501937811</v>
+        <v>0.03738264665979879</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.009822858848574034</v>
       </c>
       <c r="L5">
-        <v>0.07455474430659487</v>
+        <v>0.0732565474801822</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.006670411058291809</v>
       </c>
       <c r="N5">
-        <v>0.02055190475998708</v>
+        <v>0.03921662726288724</v>
       </c>
       <c r="O5">
-        <v>0.0188889731596545</v>
+        <v>0.03816842203002564</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.002415493653806708</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1049,22 +1049,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.02624769953171851</v>
       </c>
       <c r="T5">
-        <v>0.06218149568535437</v>
+        <v>0.06545724656504656</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.01821426470059954</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00971833519164832</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.005882868038165722</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.001810024550478369</v>
       </c>
       <c r="AD5">
-        <v>0.1074378113928347</v>
+        <v>0.09398392014267906</v>
       </c>
       <c r="AE5">
-        <v>0.05128302638573087</v>
+        <v>0.05858755177557829</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.007271235306198899</v>
+        <v>0.03084534655922999</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1117,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3118257098100953</v>
+        <v>0.2289901104482266</v>
       </c>
       <c r="F6">
-        <v>0.01258810055896899</v>
+        <v>0.03425835099463566</v>
       </c>
       <c r="G6">
-        <v>0.1825629182479919</v>
+        <v>0.1448711024940938</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01362512119418069</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1002635948696827</v>
+        <v>0.09131402427987571</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01661562580095783</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02385911854767411</v>
       </c>
       <c r="O6">
-        <v>0.1161547593992311</v>
+        <v>0.1016553528192589</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.008606666903703198</v>
       </c>
       <c r="T6">
-        <v>0.08012116451714997</v>
+        <v>0.07820614351570217</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.02381478051187402</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.007263687633896638</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0002233115756684116</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.0111689939891105</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06263079971391058</v>
+        <v>0.06682411997880898</v>
       </c>
       <c r="AE6">
-        <v>0.1338529528829694</v>
+        <v>0.11317262287386</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01478366052008975</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.02074720591838335</v>
       </c>
     </row>
   </sheetData>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2344786174063797</v>
+        <v>0.1806491037374188</v>
       </c>
       <c r="F2">
-        <v>0.6367837125624138</v>
+        <v>0.4726190855427135</v>
       </c>
       <c r="G2">
-        <v>0.6367837125624138</v>
+        <v>0.4816111498256599</v>
       </c>
       <c r="H2">
-        <v>0.6367837125624138</v>
+        <v>0.4816111498256599</v>
       </c>
       <c r="I2">
-        <v>0.64684201547174</v>
+        <v>0.5134001523378874</v>
       </c>
       <c r="J2">
-        <v>0.64684201547174</v>
+        <v>0.5235545417789964</v>
       </c>
       <c r="K2">
-        <v>0.64684201547174</v>
+        <v>0.5384042411359318</v>
       </c>
       <c r="L2">
-        <v>0.64684201547174</v>
+        <v>0.5384042411359318</v>
       </c>
       <c r="M2">
-        <v>0.7147228427659481</v>
+        <v>0.60854746684903</v>
       </c>
       <c r="N2">
-        <v>0.7621022457592731</v>
+        <v>0.6650919053777795</v>
       </c>
       <c r="O2">
-        <v>0.7621022457592731</v>
+        <v>0.6650919053777795</v>
       </c>
       <c r="P2">
-        <v>0.7621022457592731</v>
+        <v>0.6650919053777795</v>
       </c>
       <c r="Q2">
-        <v>0.7621022457592731</v>
+        <v>0.6658665827798319</v>
       </c>
       <c r="R2">
-        <v>0.7621022457592731</v>
+        <v>0.6658665827798319</v>
       </c>
       <c r="S2">
-        <v>0.7729509165423422</v>
+        <v>0.6981798437218463</v>
       </c>
       <c r="T2">
-        <v>0.838048650709709</v>
+        <v>0.7664770176391916</v>
       </c>
       <c r="U2">
-        <v>0.838048650709709</v>
+        <v>0.7664770176391916</v>
       </c>
       <c r="V2">
-        <v>0.8479732019706366</v>
+        <v>0.7981773014275181</v>
       </c>
       <c r="W2">
-        <v>0.8479732019706366</v>
+        <v>0.7981773014275181</v>
       </c>
       <c r="X2">
-        <v>0.8479732019706366</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="Y2">
-        <v>0.8479732019706366</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="Z2">
-        <v>0.8479732019706366</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="AA2">
-        <v>0.8479732019706366</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="AB2">
-        <v>0.8479732019706366</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="AC2">
-        <v>0.8479732019706366</v>
+        <v>0.8264864503050015</v>
       </c>
       <c r="AD2">
-        <v>0.9588507074315221</v>
+        <v>0.9251497762531549</v>
       </c>
       <c r="AE2">
-        <v>0.9588507074315221</v>
+        <v>0.9475880521977041</v>
       </c>
       <c r="AF2">
-        <v>0.9588507074315221</v>
+        <v>0.9475880521977041</v>
       </c>
       <c r="AG2">
-        <v>0.9588507074315221</v>
+        <v>0.9475880521977041</v>
       </c>
       <c r="AH2">
-        <v>0.9588507074315221</v>
+        <v>0.9475880521977041</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,97 +1460,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1287572353946568</v>
+        <v>0.1152671548090895</v>
       </c>
       <c r="F3">
-        <v>0.1287572353946568</v>
+        <v>0.1152671548090895</v>
       </c>
       <c r="G3">
-        <v>0.5162740881806929</v>
+        <v>0.4109153010838477</v>
       </c>
       <c r="H3">
-        <v>0.5162740881806929</v>
+        <v>0.4114752151454443</v>
       </c>
       <c r="I3">
-        <v>0.5162740881806929</v>
+        <v>0.4321660417831088</v>
       </c>
       <c r="J3">
-        <v>0.5162740881806929</v>
+        <v>0.4321660417831088</v>
       </c>
       <c r="K3">
-        <v>0.5162740881806929</v>
+        <v>0.4321660417831088</v>
       </c>
       <c r="L3">
-        <v>0.5169383019804575</v>
+        <v>0.4581397184673935</v>
       </c>
       <c r="M3">
-        <v>0.5169383019804575</v>
+        <v>0.4765745936938169</v>
       </c>
       <c r="N3">
-        <v>0.5169383019804575</v>
+        <v>0.4877447201106639</v>
       </c>
       <c r="O3">
-        <v>0.7226503301608321</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="P3">
-        <v>0.7226503301608321</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="Q3">
-        <v>0.7226503301608321</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="R3">
-        <v>0.7226503301608321</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="S3">
-        <v>0.7226503301608321</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="T3">
-        <v>0.7730979801266123</v>
+        <v>0.7173346055460161</v>
       </c>
       <c r="U3">
-        <v>0.7966101454617958</v>
+        <v>0.7592355594170065</v>
       </c>
       <c r="V3">
-        <v>0.7966101454617958</v>
+        <v>0.7592355594170065</v>
       </c>
       <c r="W3">
-        <v>0.7966101454617958</v>
+        <v>0.7670086092172752</v>
       </c>
       <c r="X3">
-        <v>0.7966101454617958</v>
+        <v>0.7670086092172752</v>
       </c>
       <c r="Y3">
-        <v>0.7966101454617958</v>
+        <v>0.7759294676626227</v>
       </c>
       <c r="Z3">
-        <v>0.7966101454617958</v>
+        <v>0.7759294676626227</v>
       </c>
       <c r="AA3">
-        <v>0.7966101454617958</v>
+        <v>0.7759294676626227</v>
       </c>
       <c r="AB3">
-        <v>0.7966101454617958</v>
+        <v>0.7759294676626227</v>
       </c>
       <c r="AC3">
-        <v>0.7966101454617958</v>
+        <v>0.7759294676626227</v>
       </c>
       <c r="AD3">
-        <v>0.8199204288221685</v>
+        <v>0.8176896898725351</v>
       </c>
       <c r="AE3">
-        <v>0.9660244836038548</v>
+        <v>0.9450492898295687</v>
       </c>
       <c r="AF3">
-        <v>0.9660244836038548</v>
+        <v>0.9450492898295687</v>
       </c>
       <c r="AG3">
-        <v>0.9660244836038548</v>
+        <v>0.9450492898295687</v>
       </c>
       <c r="AH3">
-        <v>0.9660244836038548</v>
+        <v>0.9450492898295687</v>
       </c>
       <c r="AI3">
-        <v>0.9660244836038548</v>
+        <v>0.9508050577646083</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1567,97 +1567,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00823549813293455</v>
+        <v>0.03184889134399857</v>
       </c>
       <c r="E4">
-        <v>0.07122839470341152</v>
+        <v>0.09792916589418947</v>
       </c>
       <c r="F4">
-        <v>0.4787354293379406</v>
+        <v>0.3793811676726784</v>
       </c>
       <c r="G4">
-        <v>0.4787354293379406</v>
+        <v>0.3793811676726784</v>
       </c>
       <c r="H4">
-        <v>0.4787354293379406</v>
+        <v>0.3961638715350567</v>
       </c>
       <c r="I4">
-        <v>0.5177604902944949</v>
+        <v>0.4472607431308681</v>
       </c>
       <c r="J4">
-        <v>0.5177604902944949</v>
+        <v>0.4472607431308681</v>
       </c>
       <c r="K4">
-        <v>0.5177604902944949</v>
+        <v>0.4506274383355067</v>
       </c>
       <c r="L4">
-        <v>0.6753108084168126</v>
+        <v>0.5758199319554647</v>
       </c>
       <c r="M4">
-        <v>0.6753108084168126</v>
+        <v>0.58110896900966</v>
       </c>
       <c r="N4">
-        <v>0.7354906690459935</v>
+        <v>0.6454306846431205</v>
       </c>
       <c r="O4">
-        <v>0.7354906690459935</v>
+        <v>0.6468716546596822</v>
       </c>
       <c r="P4">
-        <v>0.7354906690459935</v>
+        <v>0.6526723343431018</v>
       </c>
       <c r="Q4">
-        <v>0.7354906690459935</v>
+        <v>0.6526723343431018</v>
       </c>
       <c r="R4">
-        <v>0.7354906690459935</v>
+        <v>0.6526723343431018</v>
       </c>
       <c r="S4">
-        <v>0.8259395811378742</v>
+        <v>0.7359166344943329</v>
       </c>
       <c r="T4">
-        <v>0.8259395811378742</v>
+        <v>0.7621274247084483</v>
       </c>
       <c r="U4">
-        <v>0.8259395811378742</v>
+        <v>0.7624230881330877</v>
       </c>
       <c r="V4">
-        <v>0.8259395811378742</v>
+        <v>0.7742190292068331</v>
       </c>
       <c r="W4">
-        <v>0.8259395811378742</v>
+        <v>0.7742190292068331</v>
       </c>
       <c r="X4">
-        <v>0.8259395811378742</v>
+        <v>0.7742190292068331</v>
       </c>
       <c r="Y4">
-        <v>0.8259395811378742</v>
+        <v>0.7742190292068331</v>
       </c>
       <c r="Z4">
-        <v>0.8259395811378742</v>
+        <v>0.7794596987810538</v>
       </c>
       <c r="AA4">
-        <v>0.8259395811378742</v>
+        <v>0.7798715584925663</v>
       </c>
       <c r="AB4">
-        <v>0.8259395811378742</v>
+        <v>0.7798715584925663</v>
       </c>
       <c r="AC4">
-        <v>0.827615908782649</v>
+        <v>0.8076200088933917</v>
       </c>
       <c r="AD4">
-        <v>0.9895781756221532</v>
+        <v>0.9355706157826706</v>
       </c>
       <c r="AE4">
-        <v>0.9895781756221532</v>
+        <v>0.9494017682844266</v>
       </c>
       <c r="AF4">
-        <v>0.9895781756221532</v>
+        <v>0.9494017682844266</v>
       </c>
       <c r="AG4">
-        <v>0.9895781756221532</v>
+        <v>0.9667843349662559</v>
       </c>
       <c r="AH4">
-        <v>0.9895781756221532</v>
+        <v>0.9667843349662559</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3971021228286053</v>
+        <v>0.2765696903328075</v>
       </c>
       <c r="F5">
-        <v>0.6083143901504029</v>
+        <v>0.4359663596952076</v>
       </c>
       <c r="G5">
-        <v>0.6401884339842668</v>
+        <v>0.4823197359512891</v>
       </c>
       <c r="H5">
-        <v>0.6401884339842668</v>
+        <v>0.4823197359512891</v>
       </c>
       <c r="I5">
-        <v>0.657830809003645</v>
+        <v>0.5197023826110879</v>
       </c>
       <c r="J5">
-        <v>0.657830809003645</v>
+        <v>0.5197023826110879</v>
       </c>
       <c r="K5">
-        <v>0.657830809003645</v>
+        <v>0.529525241459662</v>
       </c>
       <c r="L5">
-        <v>0.7323855533102399</v>
+        <v>0.6027817889398441</v>
       </c>
       <c r="M5">
-        <v>0.7323855533102399</v>
+        <v>0.6094521999981359</v>
       </c>
       <c r="N5">
-        <v>0.7529374580702269</v>
+        <v>0.6486688272610232</v>
       </c>
       <c r="O5">
-        <v>0.7718264312298815</v>
+        <v>0.6868372492910488</v>
       </c>
       <c r="P5">
-        <v>0.7718264312298815</v>
+        <v>0.6892527429448555</v>
       </c>
       <c r="Q5">
-        <v>0.7718264312298815</v>
+        <v>0.6892527429448555</v>
       </c>
       <c r="R5">
-        <v>0.7718264312298815</v>
+        <v>0.6892527429448555</v>
       </c>
       <c r="S5">
-        <v>0.7718264312298815</v>
+        <v>0.715500442476574</v>
       </c>
       <c r="T5">
-        <v>0.8340079269152358</v>
+        <v>0.7809576890416206</v>
       </c>
       <c r="U5">
-        <v>0.8340079269152358</v>
+        <v>0.7809576890416206</v>
       </c>
       <c r="V5">
-        <v>0.8340079269152358</v>
+        <v>0.7991719537422201</v>
       </c>
       <c r="W5">
-        <v>0.8340079269152358</v>
+        <v>0.7991719537422201</v>
       </c>
       <c r="X5">
-        <v>0.8340079269152358</v>
+        <v>0.8088902889338684</v>
       </c>
       <c r="Y5">
-        <v>0.8340079269152358</v>
+        <v>0.8088902889338684</v>
       </c>
       <c r="Z5">
-        <v>0.8340079269152358</v>
+        <v>0.8088902889338684</v>
       </c>
       <c r="AA5">
-        <v>0.8340079269152358</v>
+        <v>0.8147731569720341</v>
       </c>
       <c r="AB5">
-        <v>0.8340079269152358</v>
+        <v>0.8147731569720341</v>
       </c>
       <c r="AC5">
-        <v>0.8340079269152358</v>
+        <v>0.8165831815225125</v>
       </c>
       <c r="AD5">
-        <v>0.9414457383080705</v>
+        <v>0.9105671016651916</v>
       </c>
       <c r="AE5">
-        <v>0.9927287646938014</v>
+        <v>0.9691546534407699</v>
       </c>
       <c r="AF5">
-        <v>0.9927287646938014</v>
+        <v>0.9691546534407699</v>
       </c>
       <c r="AG5">
-        <v>0.9927287646938014</v>
+        <v>0.9691546534407699</v>
       </c>
       <c r="AH5">
-        <v>0.9927287646938014</v>
+        <v>0.9691546534407699</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,97 +1790,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3118257098100953</v>
+        <v>0.2289901104482266</v>
       </c>
       <c r="F6">
-        <v>0.3244138103690643</v>
+        <v>0.2632484614428623</v>
       </c>
       <c r="G6">
-        <v>0.5069767286170562</v>
+        <v>0.4081195639369561</v>
       </c>
       <c r="H6">
-        <v>0.5069767286170562</v>
+        <v>0.4081195639369561</v>
       </c>
       <c r="I6">
-        <v>0.5069767286170562</v>
+        <v>0.4217446851311368</v>
       </c>
       <c r="J6">
-        <v>0.5069767286170562</v>
+        <v>0.4217446851311368</v>
       </c>
       <c r="K6">
-        <v>0.5069767286170562</v>
+        <v>0.4217446851311368</v>
       </c>
       <c r="L6">
-        <v>0.607240323486739</v>
+        <v>0.5130587094110125</v>
       </c>
       <c r="M6">
-        <v>0.607240323486739</v>
+        <v>0.5296743352119704</v>
       </c>
       <c r="N6">
-        <v>0.607240323486739</v>
+        <v>0.5535334537596445</v>
       </c>
       <c r="O6">
-        <v>0.7233950828859701</v>
+        <v>0.6551888065789033</v>
       </c>
       <c r="P6">
-        <v>0.7233950828859701</v>
+        <v>0.6551888065789033</v>
       </c>
       <c r="Q6">
-        <v>0.7233950828859701</v>
+        <v>0.6551888065789033</v>
       </c>
       <c r="R6">
-        <v>0.7233950828859701</v>
+        <v>0.6551888065789033</v>
       </c>
       <c r="S6">
-        <v>0.7233950828859701</v>
+        <v>0.6637954734826065</v>
       </c>
       <c r="T6">
-        <v>0.8035162474031201</v>
+        <v>0.7420016169983087</v>
       </c>
       <c r="U6">
-        <v>0.8035162474031201</v>
+        <v>0.7658163975101827</v>
       </c>
       <c r="V6">
-        <v>0.8035162474031201</v>
+        <v>0.7730800851440793</v>
       </c>
       <c r="W6">
-        <v>0.8035162474031201</v>
+        <v>0.7730800851440793</v>
       </c>
       <c r="X6">
-        <v>0.8035162474031201</v>
+        <v>0.7733033967197478</v>
       </c>
       <c r="Y6">
-        <v>0.8035162474031201</v>
+        <v>0.7733033967197478</v>
       </c>
       <c r="Z6">
-        <v>0.8035162474031201</v>
+        <v>0.7733033967197478</v>
       </c>
       <c r="AA6">
-        <v>0.8035162474031201</v>
+        <v>0.7844723907088583</v>
       </c>
       <c r="AB6">
-        <v>0.8035162474031201</v>
+        <v>0.7844723907088583</v>
       </c>
       <c r="AC6">
-        <v>0.8035162474031201</v>
+        <v>0.7844723907088583</v>
       </c>
       <c r="AD6">
-        <v>0.8661470471170307</v>
+        <v>0.8512965106876673</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9644691335615273</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9644691335615273</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9644691335615273</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9644691335615273</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.979252794081617</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6367837125624138</v>
+        <v>0.5134001523378874</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5162740881806929</v>
+        <v>0.6566569605040595</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5177604902944949</v>
+        <v>0.5758199319554647</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6083143901504029</v>
+        <v>0.5197023826110879</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5069767286170562</v>
+        <v>0.5130587094110125</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7147228427659481</v>
+        <v>0.7664770176391916</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7226503301608321</v>
+        <v>0.7173346055460161</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7354906690459935</v>
+        <v>0.7359166344943329</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7323855533102399</v>
+        <v>0.715500442476574</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7233950828859701</v>
+        <v>0.7420016169983087</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.838048650709709</v>
+        <v>0.8081766758323221</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8199204288221685</v>
+        <v>0.8176896898725351</v>
       </c>
       <c r="G3">
         <v>27</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8259395811378742</v>
+        <v>0.8076200088933917</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8340079269152358</v>
+        <v>0.8088902889338684</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8035162474031201</v>
+        <v>0.8512965106876673</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9588507074315221</v>
+        <v>0.9251497762531549</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9660244836038548</v>
+        <v>0.9450492898295687</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9895781756221532</v>
+        <v>0.9355706157826706</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9414457383080705</v>
+        <v>0.9105671016651916</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9644691335615273</v>
       </c>
       <c r="G6">
         <v>28</v>
